--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>факт</t>
-  </si>
-  <si>
     <t>расчет</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>факт, $</t>
+  </si>
+  <si>
+    <t>факт %$</t>
   </si>
 </sst>
 </file>
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C11:K25"/>
+  <dimension ref="C11:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,24 +500,24 @@
   <sheetData>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5">
         <v>3999.75</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5">
         <v>3219.56</v>
@@ -529,11 +529,11 @@
         <v>3340.59</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:H25" si="0">G12-$D$12</f>
+        <f t="shared" ref="H12:H26" si="0">G12-$D$12</f>
         <v>121.0300000000002</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I25" si="1">H12/$D$14</f>
+        <f t="shared" ref="I12:I26" si="1">H12/$D$14</f>
         <v>15.512887886284135</v>
       </c>
       <c r="J12">
@@ -542,7 +542,7 @@
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
         <f>D11-D12</f>
@@ -769,6 +769,28 @@
       </c>
       <c r="K25">
         <v>5.78</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>45623</v>
+      </c>
+      <c r="G26">
+        <v>3379.7</v>
+      </c>
+      <c r="H26" s="3">
+        <f>G26-$D$12</f>
+        <v>160.13999999999987</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>20.525769363872886</v>
+      </c>
+      <c r="J26">
+        <v>23</v>
+      </c>
+      <c r="K26">
+        <v>230.8</v>
       </c>
     </row>
   </sheetData>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C11:K26"/>
+  <dimension ref="C11:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +498,7 @@
     <col min="8" max="8" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
@@ -529,18 +529,26 @@
         <v>3340.59</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:H26" si="0">G12-$D$12</f>
+        <f t="shared" ref="H12:H25" si="0">G12-$D$12</f>
         <v>121.0300000000002</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I26" si="1">H12/$D$14</f>
+        <f t="shared" ref="I12:I28" si="1">H12/$D$14</f>
         <v>15.512887886284135</v>
       </c>
       <c r="J12">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f>J12-I12</f>
+        <v>2.4871121137158649</v>
+      </c>
+      <c r="N12">
+        <f>(J12/I12-1)*100</f>
+        <v>16.032553912252979</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
@@ -562,8 +570,16 @@
       <c r="J13">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" ref="M13:M28" si="2">J13-I13</f>
+        <v>2.1459259923864877</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N28" si="3">(J13/I13-1)*100</f>
+        <v>14.446716714125607</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
         <v>0.01</v>
       </c>
@@ -585,8 +601,16 @@
       <c r="J14">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>3.043322780348344</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>15.24964675658298</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>3363.52</v>
       </c>
@@ -601,8 +625,16 @@
       <c r="J15">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>2.5480844409695038</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>13.809322033898287</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>3436.21</v>
       </c>
@@ -617,8 +649,16 @@
       <c r="J16">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>3.2311231879413889</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>11.635771982460152</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>3294.61</v>
       </c>
@@ -633,8 +673,16 @@
       <c r="J17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>2.3805483279713684</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>24.747235176548664</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>3291.46</v>
       </c>
@@ -649,8 +697,16 @@
       <c r="J18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>1.7842961329932336</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>19.361474269819045</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>3263.27</v>
       </c>
@@ -665,8 +721,16 @@
       <c r="J19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>1.397518553172941</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>24.94463509494387</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>3235.18</v>
       </c>
@@ -681,8 +745,16 @@
       <c r="J20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>1.9979235827170445</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>99.792573623560926</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>3241.91</v>
       </c>
@@ -697,8 +769,16 @@
       <c r="J21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>1.1353131929401932</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>39.631319910515117</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>3238.34</v>
       </c>
@@ -713,8 +793,16 @@
       <c r="J22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>0.59289403863158974</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>24.630990415334143</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>3231.49</v>
       </c>
@@ -729,8 +817,16 @@
       <c r="J23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0.47088529717122296</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>30.794635373011015</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F24" s="1">
         <v>45609</v>
       </c>
@@ -751,8 +847,16 @@
       <c r="K24">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>0.5939322472730677</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>42.240656335457061</v>
+      </c>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>3226.71</v>
       </c>
@@ -770,8 +874,16 @@
       <c r="K25">
         <v>5.78</v>
       </c>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>8.3556569553558724E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>9.1174825174811467</v>
+      </c>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F26" s="1">
         <v>45623</v>
       </c>
@@ -791,6 +903,74 @@
       </c>
       <c r="K26">
         <v>230.8</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>2.474230636127114</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>12.054265018109245</v>
+      </c>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>45625</v>
+      </c>
+      <c r="G27">
+        <v>3571.93</v>
+      </c>
+      <c r="H27" s="3">
+        <f>G27-$D$12</f>
+        <v>352.36999999999989</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>45.164639382714448</v>
+      </c>
+      <c r="J27">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>500.74</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>2.8353606172855521</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>6.2778329596731242</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>45630</v>
+      </c>
+      <c r="G28">
+        <v>3669.19</v>
+      </c>
+      <c r="H28" s="3">
+        <f>G28-$D$12</f>
+        <v>449.63000000000011</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>57.630833514913043</v>
+      </c>
+      <c r="J28">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>634.54999999999995</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>2.3691664850869572</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>4.1109356582078371</v>
       </c>
     </row>
   </sheetData>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
+    <sheet name="gUSD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>расчет</t>
   </si>
@@ -42,6 +43,33 @@
   </si>
   <si>
     <t>факт %$</t>
+  </si>
+  <si>
+    <t>pos. val</t>
+  </si>
+  <si>
+    <t>rew</t>
+  </si>
+  <si>
+    <t>Impl.APY</t>
+  </si>
+  <si>
+    <t>undrl.APY 1d</t>
+  </si>
+  <si>
+    <t>undrl.APY 7d</t>
+  </si>
+  <si>
+    <t>измен. Pos</t>
+  </si>
+  <si>
+    <t>дата</t>
+  </si>
+  <si>
+    <t>измен. Rew</t>
+  </si>
+  <si>
+    <t>сумм. Rew+Pos</t>
   </si>
 </sst>
 </file>
@@ -95,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -104,6 +132,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -121,17 +155,1100 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UNISWAP!$F$12:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3340.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3335.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3375.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3363.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3436.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3294.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3291.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3263.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3235.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3241.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3238.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3231.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3230.53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3226.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3379.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3571.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3669.19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3944.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UNISWAP!$I$12:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45CB-475D-A087-FF3678C55DE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>расчет</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UNISWAP!$F$12:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3340.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3335.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3375.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3363.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3436.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3294.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3291.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3263.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3235.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3241.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3238.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3231.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3230.53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3226.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3379.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3571.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3669.19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3944.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UNISWAP!$H$12:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>15.512887886284135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.854074007613512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.956677219651656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.451915559030496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.768876812058611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6194516720286316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2157038670067664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.602481446827059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0020764172829555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8646868070598068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4071059613684103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.529114702828777</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4060677527269323</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91644343044644128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.525769363872886</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.164639382714448</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.630833514913043</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.979915148873999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-45CB-475D-A087-FF3678C55DE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="275005536"/>
+        <c:axId val="275003040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="275005536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275003040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="275003040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275005536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -167,13 +1284,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -218,6 +1335,36 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>588308</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>150157</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -486,496 +1633,1389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C11:N28"/>
+  <dimension ref="B11:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="C11" s="5">
         <v>3999.75</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="I11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="C12" s="5">
         <v>3219.56</v>
       </c>
-      <c r="F12" s="1">
+      <c r="E12" s="1">
         <v>45608</v>
       </c>
-      <c r="G12">
+      <c r="F12">
         <v>3340.59</v>
       </c>
-      <c r="H12" s="3">
-        <f t="shared" ref="H12:H25" si="0">G12-$D$12</f>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G25" si="0">F12-$C$12</f>
         <v>121.0300000000002</v>
       </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H29" si="1">G12/$C$14</f>
+        <v>15.512887886284135</v>
+      </c>
       <c r="I12">
-        <f t="shared" ref="I12:I28" si="1">H12/$D$14</f>
-        <v>15.512887886284135</v>
-      </c>
-      <c r="J12">
         <v>18</v>
       </c>
+      <c r="L12">
+        <f>I12-H12</f>
+        <v>2.4871121137158649</v>
+      </c>
       <c r="M12">
-        <f>J12-I12</f>
-        <v>2.4871121137158649</v>
-      </c>
-      <c r="N12">
-        <f>(J12/I12-1)*100</f>
+        <f>(I12/H12-1)*100</f>
         <v>16.032553912252979</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3">
-        <f>D11-D12</f>
+      <c r="C13" s="3">
+        <f>C11-C12</f>
         <v>780.19</v>
       </c>
-      <c r="G13">
+      <c r="F13">
         <v>3335.45</v>
       </c>
-      <c r="H13" s="3">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>115.88999999999987</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>14.854074007613512</v>
+      </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>14.854074007613512</v>
-      </c>
-      <c r="J13">
         <v>17</v>
       </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L29" si="2">I13-H13</f>
+        <v>2.1459259923864877</v>
+      </c>
       <c r="M13">
-        <f t="shared" ref="M13:M28" si="2">J13-I13</f>
-        <v>2.1459259923864877</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ref="N13:N28" si="3">(J13/I13-1)*100</f>
+        <f t="shared" ref="M13:M29" si="3">(I13/H13-1)*100</f>
         <v>14.446716714125607</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>0.01</v>
       </c>
-      <c r="D14" s="5">
-        <f>D13/100</f>
+      <c r="C14" s="5">
+        <f>C13/100</f>
         <v>7.8019000000000007</v>
       </c>
-      <c r="G14">
+      <c r="F14">
         <v>3375.26</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>155.70000000000027</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>19.956677219651656</v>
+      </c>
       <c r="I14">
-        <f t="shared" si="1"/>
-        <v>19.956677219651656</v>
-      </c>
-      <c r="J14">
         <v>23</v>
       </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>3.043322780348344</v>
+      </c>
       <c r="M14">
-        <f t="shared" si="2"/>
-        <v>3.043322780348344</v>
-      </c>
-      <c r="N14">
         <f t="shared" si="3"/>
         <v>15.24964675658298</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F15">
         <v>3363.52</v>
       </c>
-      <c r="H15" s="3">
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>143.96000000000004</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>18.451915559030496</v>
+      </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>18.451915559030496</v>
-      </c>
-      <c r="J15">
         <v>21</v>
       </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>2.5480844409695038</v>
+      </c>
       <c r="M15">
-        <f t="shared" si="2"/>
-        <v>2.5480844409695038</v>
-      </c>
-      <c r="N15">
         <f t="shared" si="3"/>
         <v>13.809322033898287</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G16">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F16">
         <v>3436.21</v>
       </c>
-      <c r="H16" s="3">
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>216.65000000000009</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>27.768876812058611</v>
+      </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>27.768876812058611</v>
-      </c>
-      <c r="J16">
         <v>31</v>
       </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>3.2311231879413889</v>
+      </c>
       <c r="M16">
-        <f t="shared" si="2"/>
-        <v>3.2311231879413889</v>
-      </c>
-      <c r="N16">
         <f t="shared" si="3"/>
         <v>11.635771982460152</v>
       </c>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G17">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F17">
         <v>3294.61</v>
       </c>
-      <c r="H17" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>75.050000000000182</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>9.6194516720286316</v>
+      </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>9.6194516720286316</v>
-      </c>
-      <c r="J17">
         <v>12</v>
       </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2.3805483279713684</v>
+      </c>
       <c r="M17">
-        <f t="shared" si="2"/>
-        <v>2.3805483279713684</v>
-      </c>
-      <c r="N17">
         <f t="shared" si="3"/>
         <v>24.747235176548664</v>
       </c>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G18">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F18">
         <v>3291.46</v>
       </c>
-      <c r="H18" s="3">
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>71.900000000000091</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>9.2157038670067664</v>
+      </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>9.2157038670067664</v>
-      </c>
-      <c r="J18">
         <v>11</v>
       </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>1.7842961329932336</v>
+      </c>
       <c r="M18">
-        <f t="shared" si="2"/>
-        <v>1.7842961329932336</v>
-      </c>
-      <c r="N18">
         <f t="shared" si="3"/>
         <v>19.361474269819045</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G19">
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F19">
         <v>3263.27</v>
       </c>
-      <c r="H19" s="3">
+      <c r="G19" s="3">
         <f t="shared" si="0"/>
         <v>43.710000000000036</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>5.602481446827059</v>
+      </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>5.602481446827059</v>
-      </c>
-      <c r="J19">
         <v>7</v>
       </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>1.397518553172941</v>
+      </c>
       <c r="M19">
-        <f t="shared" si="2"/>
-        <v>1.397518553172941</v>
-      </c>
-      <c r="N19">
         <f t="shared" si="3"/>
         <v>24.94463509494387</v>
       </c>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G20">
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F20">
         <v>3235.18</v>
       </c>
-      <c r="H20" s="3">
+      <c r="G20" s="3">
         <f t="shared" si="0"/>
         <v>15.619999999999891</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>2.0020764172829555</v>
+      </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>2.0020764172829555</v>
-      </c>
-      <c r="J20">
         <v>4</v>
       </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>1.9979235827170445</v>
+      </c>
       <c r="M20">
-        <f t="shared" si="2"/>
-        <v>1.9979235827170445</v>
-      </c>
-      <c r="N20">
         <f t="shared" si="3"/>
         <v>99.792573623560926</v>
       </c>
     </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G21">
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F21">
         <v>3241.91</v>
       </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3">
         <f t="shared" si="0"/>
         <v>22.349999999999909</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>2.8646868070598068</v>
+      </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>2.8646868070598068</v>
-      </c>
-      <c r="J21">
         <v>4</v>
       </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>1.1353131929401932</v>
+      </c>
       <c r="M21">
-        <f t="shared" si="2"/>
-        <v>1.1353131929401932</v>
-      </c>
-      <c r="N21">
         <f t="shared" si="3"/>
         <v>39.631319910515117</v>
       </c>
     </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G22">
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F22">
         <v>3238.34</v>
       </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
         <v>18.7800000000002</v>
       </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>2.4071059613684103</v>
+      </c>
       <c r="I22">
-        <f t="shared" si="1"/>
-        <v>2.4071059613684103</v>
-      </c>
-      <c r="J22">
         <v>3</v>
       </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.59289403863158974</v>
+      </c>
       <c r="M22">
-        <f t="shared" si="2"/>
-        <v>0.59289403863158974</v>
-      </c>
-      <c r="N22">
         <f t="shared" si="3"/>
         <v>24.630990415334143</v>
       </c>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G23">
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F23">
         <v>3231.49</v>
       </c>
-      <c r="H23" s="3">
+      <c r="G23" s="3">
         <f t="shared" si="0"/>
         <v>11.929999999999836</v>
       </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1.529114702828777</v>
+      </c>
       <c r="I23">
-        <f t="shared" si="1"/>
-        <v>1.529114702828777</v>
-      </c>
-      <c r="J23">
         <v>2</v>
       </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0.47088529717122296</v>
+      </c>
       <c r="M23">
-        <f t="shared" si="2"/>
-        <v>0.47088529717122296</v>
-      </c>
-      <c r="N23">
         <f t="shared" si="3"/>
         <v>30.794635373011015</v>
       </c>
     </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F24" s="1">
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
         <v>45609</v>
       </c>
-      <c r="G24">
+      <c r="F24">
         <v>3230.53</v>
       </c>
-      <c r="H24" s="3">
+      <c r="G24" s="3">
         <f t="shared" si="0"/>
         <v>10.970000000000255</v>
       </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1.4060677527269323</v>
+      </c>
       <c r="I24">
-        <f t="shared" si="1"/>
-        <v>1.4060677527269323</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
         <v>16</v>
       </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0.5939322472730677</v>
+      </c>
       <c r="M24">
-        <f t="shared" si="2"/>
-        <v>0.5939322472730677</v>
-      </c>
-      <c r="N24">
         <f t="shared" si="3"/>
         <v>42.240656335457061</v>
       </c>
     </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G25">
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F25">
         <v>3226.71</v>
       </c>
-      <c r="H25" s="3">
+      <c r="G25" s="3">
         <f t="shared" si="0"/>
         <v>7.1500000000000909</v>
       </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.91644343044644128</v>
+      </c>
       <c r="I25">
-        <f t="shared" si="1"/>
-        <v>0.91644343044644128</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
         <v>5.78</v>
       </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>8.3556569553558724E-2</v>
+      </c>
       <c r="M25">
-        <f t="shared" si="2"/>
-        <v>8.3556569553558724E-2</v>
-      </c>
-      <c r="N25">
         <f t="shared" si="3"/>
         <v>9.1174825174811467</v>
       </c>
     </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F26" s="1">
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
         <v>45623</v>
       </c>
-      <c r="G26">
+      <c r="F26">
         <v>3379.7</v>
       </c>
-      <c r="H26" s="3">
-        <f>G26-$D$12</f>
+      <c r="G26" s="3">
+        <f>F26-$C$12</f>
         <v>160.13999999999987</v>
       </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>20.525769363872886</v>
+      </c>
       <c r="I26">
-        <f t="shared" si="1"/>
-        <v>20.525769363872886</v>
+        <v>23</v>
       </c>
       <c r="J26">
-        <v>23</v>
-      </c>
-      <c r="K26">
         <v>230.8</v>
       </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>2.474230636127114</v>
+      </c>
       <c r="M26">
-        <f t="shared" si="2"/>
-        <v>2.474230636127114</v>
-      </c>
-      <c r="N26">
         <f t="shared" si="3"/>
         <v>12.054265018109245</v>
       </c>
     </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F27" s="1">
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
         <v>45625</v>
       </c>
-      <c r="G27">
+      <c r="F27">
         <v>3571.93</v>
       </c>
-      <c r="H27" s="3">
-        <f>G27-$D$12</f>
+      <c r="G27" s="3">
+        <f>F27-$C$12</f>
         <v>352.36999999999989</v>
       </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>45.164639382714448</v>
+      </c>
       <c r="I27">
-        <f t="shared" si="1"/>
-        <v>45.164639382714448</v>
+        <v>48</v>
       </c>
       <c r="J27">
-        <v>48</v>
-      </c>
-      <c r="K27">
         <v>500.74</v>
       </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>2.8353606172855521</v>
+      </c>
       <c r="M27">
-        <f t="shared" si="2"/>
-        <v>2.8353606172855521</v>
-      </c>
-      <c r="N27">
         <f t="shared" si="3"/>
         <v>6.2778329596731242</v>
       </c>
     </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F28" s="1">
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
         <v>45630</v>
       </c>
-      <c r="G28">
+      <c r="F28">
         <v>3669.19</v>
       </c>
-      <c r="H28" s="3">
-        <f>G28-$D$12</f>
+      <c r="G28" s="3">
+        <f>F28-$C$12</f>
         <v>449.63000000000011</v>
       </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>57.630833514913043</v>
+      </c>
       <c r="I28">
-        <f t="shared" si="1"/>
-        <v>57.630833514913043</v>
+        <v>60</v>
       </c>
       <c r="J28">
-        <v>60</v>
-      </c>
-      <c r="K28">
         <v>634.54999999999995</v>
       </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>2.3691664850869572</v>
+      </c>
       <c r="M28">
-        <f t="shared" si="2"/>
-        <v>2.3691664850869572</v>
-      </c>
-      <c r="N28">
         <f t="shared" si="3"/>
         <v>4.1109356582078371</v>
       </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <v>45631</v>
+      </c>
+      <c r="F29">
+        <v>3944.98</v>
+      </c>
+      <c r="G29" s="3">
+        <f>F29-$C$12</f>
+        <v>725.42000000000007</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>92.979915148873999</v>
+      </c>
+      <c r="I29">
+        <v>94</v>
+      </c>
+      <c r="J29">
+        <v>1004.61</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>1.0200848511260006</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>1.0971023682831982</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F12:F12</xm:f>
+              <xm:sqref>I12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F13:F13</xm:f>
+              <xm:sqref>I13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F14:F14</xm:f>
+              <xm:sqref>I14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F15:F15</xm:f>
+              <xm:sqref>I15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F16:F16</xm:f>
+              <xm:sqref>I16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F17:F17</xm:f>
+              <xm:sqref>I17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F18:F18</xm:f>
+              <xm:sqref>I18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F19:F19</xm:f>
+              <xm:sqref>I19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F20:F20</xm:f>
+              <xm:sqref>I20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F21:F21</xm:f>
+              <xm:sqref>I21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F22:F22</xm:f>
+              <xm:sqref>I22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F23:F23</xm:f>
+              <xm:sqref>I23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F24:F24</xm:f>
+              <xm:sqref>I24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F25:F25</xm:f>
+              <xm:sqref>I25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F26:F26</xm:f>
+              <xm:sqref>I26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F27:F27</xm:f>
+              <xm:sqref>I27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F28:F28</xm:f>
+              <xm:sqref>I28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>UNISWAP!F29:F29</xm:f>
+              <xm:sqref>I29</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" ht="78" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B4">
+        <v>23.86</v>
+      </c>
+      <c r="C4">
+        <v>23.11</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <f>B4+C4</f>
+        <v>46.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>A4+1</f>
+        <v>45617</v>
+      </c>
+      <c r="B5">
+        <v>23.44</v>
+      </c>
+      <c r="C5">
+        <v>23.58</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <f>B5-B4</f>
+        <v>-0.41999999999999815</v>
+      </c>
+      <c r="I5">
+        <f>C5-C4</f>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K25" si="0">B5+C5</f>
+        <v>47.019999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" ref="A6:A25" si="1">A5+1</f>
+        <v>45618</v>
+      </c>
+      <c r="B6">
+        <v>22.87</v>
+      </c>
+      <c r="C6">
+        <v>24.28</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H25" si="2">B6-B5</f>
+        <v>-0.57000000000000028</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I25" si="3">C6-C5</f>
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>47.150000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>45619</v>
+      </c>
+      <c r="B7">
+        <v>22.02</v>
+      </c>
+      <c r="C7">
+        <v>24.9</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-0.85000000000000142</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.61999999999999744</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>46.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>45620</v>
+      </c>
+      <c r="B8">
+        <v>21.3</v>
+      </c>
+      <c r="C8">
+        <v>25.3</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-0.71999999999999886</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000213</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>45621</v>
+      </c>
+      <c r="B9">
+        <v>20.58</v>
+      </c>
+      <c r="C9">
+        <v>25.79</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-0.72000000000000242</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.48999999999999844</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>46.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>45622</v>
+      </c>
+      <c r="B10">
+        <v>20.58</v>
+      </c>
+      <c r="C10">
+        <v>26.37</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.58000000000000185</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>46.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="1"/>
+        <v>45623</v>
+      </c>
+      <c r="B11">
+        <v>19.21</v>
+      </c>
+      <c r="C11">
+        <v>26.74</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-1.3699999999999974</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.36999999999999744</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>45.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>45624</v>
+      </c>
+      <c r="B12">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C12">
+        <v>27.16</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>-0.60999999999999943</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>45.760000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>45625</v>
+      </c>
+      <c r="B13">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="C13">
+        <v>27.5</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.2099999999999973</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>47.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>45626</v>
+      </c>
+      <c r="B14">
+        <v>18.77</v>
+      </c>
+      <c r="C14">
+        <v>27.83</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>-1.0399999999999991</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>46.599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>45627</v>
+      </c>
+      <c r="B15">
+        <v>17.66</v>
+      </c>
+      <c r="C15">
+        <v>28.52</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>-1.1099999999999994</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.69000000000000128</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>46.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>45628</v>
+      </c>
+      <c r="B16">
+        <v>16.8</v>
+      </c>
+      <c r="C16">
+        <v>28.93</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>-0.85999999999999943</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>45.730000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>45629</v>
+      </c>
+      <c r="B17">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="C17">
+        <v>30.4</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-0.60999999999999943</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1.4699999999999989</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>46.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>45630</v>
+      </c>
+      <c r="B18">
+        <v>15.58</v>
+      </c>
+      <c r="C18">
+        <v>31.23</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>-0.61000000000000121</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.83000000000000185</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>46.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>45631</v>
+      </c>
+      <c r="B19">
+        <v>14.79</v>
+      </c>
+      <c r="C19">
+        <v>32.01</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>-0.79000000000000092</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.77999999999999758</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>45632</v>
+      </c>
+      <c r="B20">
+        <v>14.62</v>
+      </c>
+      <c r="C20">
+        <v>33.17</v>
+      </c>
+      <c r="D20">
+        <v>12.22</v>
+      </c>
+      <c r="E20">
+        <v>24.83</v>
+      </c>
+      <c r="F20">
+        <v>13.82</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>-0.16999999999999993</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>1.1600000000000037</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>47.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>45633</v>
+      </c>
+      <c r="B21">
+        <v>14.71</v>
+      </c>
+      <c r="C21">
+        <v>33.78</v>
+      </c>
+      <c r="D21">
+        <v>13.11</v>
+      </c>
+      <c r="E21">
+        <v>9.39</v>
+      </c>
+      <c r="F21">
+        <v>13.85</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>9.0000000000001634E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.60999999999999943</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>48.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>45634</v>
+      </c>
+      <c r="B22">
+        <v>14.12</v>
+      </c>
+      <c r="C22">
+        <v>34.01</v>
+      </c>
+      <c r="D22">
+        <v>13.16</v>
+      </c>
+      <c r="E22">
+        <v>5.76</v>
+      </c>
+      <c r="F22">
+        <v>13.56</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>-0.59000000000000163</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.22999999999999687</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>48.129999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>45635</v>
+      </c>
+      <c r="B23">
+        <v>13.5</v>
+      </c>
+      <c r="C23">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D23">
+        <v>13.3</v>
+      </c>
+      <c r="E23">
+        <v>5.03</v>
+      </c>
+      <c r="F23">
+        <v>13.3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>-0.61999999999999922</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>45636</v>
+      </c>
+      <c r="B24">
+        <v>12.7</v>
+      </c>
+      <c r="C24">
+        <v>35.86</v>
+      </c>
+      <c r="D24">
+        <v>13.29</v>
+      </c>
+      <c r="E24">
+        <v>27.86</v>
+      </c>
+      <c r="F24">
+        <v>13.44</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>1.5600000000000023</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>48.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>45637</v>
+      </c>
+      <c r="B25">
+        <v>11.89</v>
+      </c>
+      <c r="C25">
+        <v>36.44</v>
+      </c>
+      <c r="D25">
+        <v>13.29</v>
+      </c>
+      <c r="E25">
+        <v>9.67</v>
+      </c>
+      <c r="F25">
+        <v>12.67</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>-0.80999999999999872</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>48.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -170,7 +170,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2252,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K25"/>
+  <dimension ref="A3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,13 +2349,13 @@
         <v>0.46999999999999886</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K25" si="0">B5+C5</f>
+        <f t="shared" ref="K5:K26" si="0">B5+C5</f>
         <v>47.019999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" ref="A6:A25" si="1">A5+1</f>
+        <f t="shared" ref="A6:A32" si="1">A5+1</f>
         <v>45618</v>
       </c>
       <c r="B6">
@@ -3012,6 +3011,237 @@
       <c r="K25">
         <f t="shared" si="0"/>
         <v>48.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>45638</v>
+      </c>
+      <c r="B26">
+        <v>11.09</v>
+      </c>
+      <c r="C26">
+        <v>36.72</v>
+      </c>
+      <c r="D26">
+        <v>13.33</v>
+      </c>
+      <c r="E26">
+        <v>4.38</v>
+      </c>
+      <c r="F26">
+        <v>11.34</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26" si="4">B26-B25</f>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26" si="5">C26-C25</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>47.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>45639</v>
+      </c>
+      <c r="B27">
+        <v>10.42</v>
+      </c>
+      <c r="C27">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="D27">
+        <v>13.45</v>
+      </c>
+      <c r="E27">
+        <v>12.15</v>
+      </c>
+      <c r="F27">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H32" si="6">B27-B26</f>
+        <v>-0.66999999999999993</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I32" si="7">C27-C26</f>
+        <v>0.64999999999999858</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K32" si="8">B27+C27</f>
+        <v>47.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>45640</v>
+      </c>
+      <c r="B28">
+        <v>9.66</v>
+      </c>
+      <c r="C28">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="D28">
+        <v>13.57</v>
+      </c>
+      <c r="E28">
+        <v>5.2</v>
+      </c>
+      <c r="F28">
+        <v>9.57</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>-0.75999999999999979</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>47.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>45641</v>
+      </c>
+      <c r="B29">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="C29">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="D29">
+        <v>13.69</v>
+      </c>
+      <c r="E29">
+        <v>6.32</v>
+      </c>
+      <c r="F29">
+        <v>9.73</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>0.36000000000000654</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>47.050000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>45642</v>
+      </c>
+      <c r="B30">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C30">
+        <v>38.4</v>
+      </c>
+      <c r="D30">
+        <v>13.79</v>
+      </c>
+      <c r="E30">
+        <v>5.03</v>
+      </c>
+      <c r="F30">
+        <v>9.64</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>-0.76000000000000156</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>0.30999999999999517</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>46.599999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>45643</v>
+      </c>
+      <c r="B31">
+        <v>7.36</v>
+      </c>
+      <c r="C31">
+        <v>38.94</v>
+      </c>
+      <c r="D31">
+        <v>13.79</v>
+      </c>
+      <c r="E31">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="F31">
+        <v>7.21</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>-0.83999999999999897</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>0.53999999999999915</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>45644</v>
+      </c>
+      <c r="B32">
+        <v>6.96</v>
+      </c>
+      <c r="C32">
+        <v>39.56</v>
+      </c>
+      <c r="D32">
+        <v>14.64</v>
+      </c>
+      <c r="E32">
+        <v>11.11</v>
+      </c>
+      <c r="F32">
+        <v>7.34</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>0.62000000000000455</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="8"/>
+        <v>46.52</v>
       </c>
     </row>
   </sheetData>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
-    <sheet name="gUSD" sheetId="2" r:id="rId2"/>
+    <sheet name="gUSD 26.12.24" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2251,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K32"/>
+  <dimension ref="A3:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" ref="A6:A32" si="1">A5+1</f>
+        <f t="shared" ref="A6:A40" si="1">A5+1</f>
         <v>45618</v>
       </c>
       <c r="B6">
@@ -3075,7 +3075,7 @@
         <v>0.64999999999999858</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:K32" si="8">B27+C27</f>
+        <f t="shared" ref="K27:K33" si="8">B27+C27</f>
         <v>47.79</v>
       </c>
     </row>
@@ -3242,6 +3242,243 @@
       <c r="K32">
         <f t="shared" si="8"/>
         <v>46.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>45645</v>
+      </c>
+      <c r="B33">
+        <v>6.04</v>
+      </c>
+      <c r="C33">
+        <v>40.36</v>
+      </c>
+      <c r="D33">
+        <v>14.64</v>
+      </c>
+      <c r="E33">
+        <v>12.71</v>
+      </c>
+      <c r="F33">
+        <v>8.61</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H39" si="9">B33-B32</f>
+        <v>-0.91999999999999993</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:I39" si="10">C33-C32</f>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K39" si="11">B33+C33</f>
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>45646</v>
+      </c>
+      <c r="B34">
+        <v>5.22</v>
+      </c>
+      <c r="C34">
+        <v>41.64</v>
+      </c>
+      <c r="D34">
+        <v>14.84</v>
+      </c>
+      <c r="E34">
+        <v>22.58</v>
+      </c>
+      <c r="F34">
+        <v>10.1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="9"/>
+        <v>-0.82000000000000028</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="10"/>
+        <v>1.2800000000000011</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="11"/>
+        <v>46.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>45647</v>
+      </c>
+      <c r="B35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C35">
+        <v>43.08</v>
+      </c>
+      <c r="D35">
+        <v>14.87</v>
+      </c>
+      <c r="E35">
+        <v>26.01</v>
+      </c>
+      <c r="F35">
+        <v>12.98</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>-0.8199999999999994</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="10"/>
+        <v>1.4399999999999977</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="11"/>
+        <v>47.48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>45648</v>
+      </c>
+      <c r="B36">
+        <v>3.6</v>
+      </c>
+      <c r="C36">
+        <v>43.35</v>
+      </c>
+      <c r="D36">
+        <v>15.09</v>
+      </c>
+      <c r="E36">
+        <v>4.7</v>
+      </c>
+      <c r="F36">
+        <v>12.72</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>-0.80000000000000027</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="10"/>
+        <v>0.27000000000000313</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="11"/>
+        <v>46.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>45649</v>
+      </c>
+      <c r="B37">
+        <v>2.66</v>
+      </c>
+      <c r="C37">
+        <v>43.65</v>
+      </c>
+      <c r="D37">
+        <v>15.09</v>
+      </c>
+      <c r="E37">
+        <v>4.8</v>
+      </c>
+      <c r="F37">
+        <v>12.72</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="9"/>
+        <v>-0.94</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="10"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="11"/>
+        <v>46.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>45650</v>
+      </c>
+      <c r="B38">
+        <v>1.76</v>
+      </c>
+      <c r="C38">
+        <v>44.05</v>
+      </c>
+      <c r="D38">
+        <v>15.45</v>
+      </c>
+      <c r="E38">
+        <v>6.59</v>
+      </c>
+      <c r="F38">
+        <v>12.23</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="9"/>
+        <v>-0.90000000000000013</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="10"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="11"/>
+        <v>45.809999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>45651</v>
+      </c>
+      <c r="B39">
+        <v>0.83</v>
+      </c>
+      <c r="C39">
+        <v>44.97</v>
+      </c>
+      <c r="D39">
+        <v>15.54</v>
+      </c>
+      <c r="E39">
+        <v>15.49</v>
+      </c>
+      <c r="F39">
+        <v>12.89</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="9"/>
+        <v>-0.93</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="10"/>
+        <v>0.92000000000000171</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="11"/>
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>45652</v>
       </c>
     </row>
   </sheetData>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -2253,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,7 +3075,7 @@
         <v>0.64999999999999858</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:K33" si="8">B27+C27</f>
+        <f t="shared" ref="K27:K32" si="8">B27+C27</f>
         <v>47.79</v>
       </c>
     </row>
@@ -3479,6 +3479,25 @@
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>45652</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>C39+0.52</f>
+        <v>45.49</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40" si="12">B40-B39</f>
+        <v>-0.83</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40" si="13">C40-C39</f>
+        <v>0.52000000000000313</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ref="K40" si="14">B40+C40</f>
+        <v>45.49</v>
       </c>
     </row>
   </sheetData>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
     <sheet name="gUSD 26.12.24" sheetId="2" r:id="rId2"/>
+    <sheet name="gUSD 26.06.25" sheetId="3" r:id="rId3"/>
+    <sheet name="mPendle 27.03.25" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>расчет</t>
   </si>
@@ -71,12 +73,41 @@
   <si>
     <t>сумм. Rew+Pos</t>
   </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>1145,87 YT</t>
+  </si>
+  <si>
+    <t>2326,45 YT</t>
+  </si>
+  <si>
+    <t>1540,83  YT</t>
+  </si>
+  <si>
+    <t>изм. price</t>
+  </si>
+  <si>
+    <t>изм. Impl.APY</t>
+  </si>
+  <si>
+    <t>изм. undrl.APY 7d</t>
+  </si>
+  <si>
+    <t>изм. undrl.APY 1d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +128,38 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0219C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9933FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -123,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -138,12 +201,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9933FF"/>
+      <color rgb="FF9966FF"/>
+      <color rgb="FFCC66FF"/>
+      <color rgb="FF4E4454"/>
+      <color rgb="FF5D3B56"/>
+      <color rgb="FF0219C4"/>
+      <color rgb="FF1007BF"/>
+      <color rgb="FF247274"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -170,6 +268,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2251,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K40"/>
+  <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:K40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,6 +2365,11 @@
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="3" spans="1:11" ht="78" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
@@ -3504,4 +3608,1697 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" ht="88.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3.8280000000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>43.76</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>8.1</v>
+      </c>
+      <c r="F4">
+        <v>12.95</v>
+      </c>
+      <c r="G4">
+        <v>13.49</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L6" si="0">C4+D4</f>
+        <v>43.76</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A23" si="1">A4+1</f>
+        <v>45652</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3.7769999999999998E-2</v>
+      </c>
+      <c r="C5">
+        <v>43.28</v>
+      </c>
+      <c r="D5">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E5">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F5">
+        <v>12.52</v>
+      </c>
+      <c r="G5">
+        <v>10.75</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I4:J6" si="2">C5-C4</f>
+        <v>-0.47999999999999687</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>43.538000000000004</v>
+      </c>
+      <c r="N5" s="22">
+        <f>(B5/B4-1)*100</f>
+        <v>-1.3322884012539227</v>
+      </c>
+      <c r="O5" s="13">
+        <f>E5-E4</f>
+        <v>-7.0000000000000284E-2</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" ref="P5:Q5" si="3">F5-F4</f>
+        <v>-0.42999999999999972</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="1"/>
+        <v>45653</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3.6049999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>41.31</v>
+      </c>
+      <c r="D6">
+        <v>0.48609999999999998</v>
+      </c>
+      <c r="E6">
+        <v>7.69</v>
+      </c>
+      <c r="F6">
+        <v>10.11</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>-1.9699999999999989</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.22809999999999997</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>41.796100000000003</v>
+      </c>
+      <c r="N6" s="22">
+        <f t="shared" ref="N6:N23" si="4">(B6/B5-1)*100</f>
+        <v>-4.5538787397405356</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" ref="O6:O23" si="5">E6-E5</f>
+        <v>-0.33999999999999897</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" ref="P6:P23" si="6">F6-F5</f>
+        <v>-2.41</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" ref="Q6:Q23" si="7">G6-G5</f>
+        <v>-3.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>45654</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="I7">
+        <f t="shared" ref="I7:I23" si="8">C7-C6</f>
+        <v>-41.31</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J23" si="9">D7-D6</f>
+        <v>-0.48609999999999998</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L23" si="10">C7+D7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" si="5"/>
+        <v>-7.69</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="6"/>
+        <v>-10.11</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>45655</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="I8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>45656</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="I9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>45657</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="1"/>
+        <v>45658</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="I12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>45660</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>45661</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>45662</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>45663</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>45664</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>45665</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>45666</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>45667</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>45668</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>45669</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>45670</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="88.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.414E-2</v>
+      </c>
+      <c r="C5">
+        <v>21.79</v>
+      </c>
+      <c r="D5">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="E5">
+        <v>4.2</v>
+      </c>
+      <c r="F5">
+        <v>5.58</v>
+      </c>
+      <c r="G5">
+        <v>6.39</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="0">C5+D5</f>
+        <v>21.938299999999998</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" ref="A6:A27" si="1">A5+1</f>
+        <v>45654</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="I6">
+        <f t="shared" ref="I5:J7" si="2">C6-C5</f>
+        <v>-21.79</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>-0.14829999999999999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <f>(B6/B5-1)*100</f>
+        <v>-100</v>
+      </c>
+      <c r="O6" s="13">
+        <f>E6-E5</f>
+        <v>-4.2</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" ref="P6:Q21" si="3">F6-F5</f>
+        <v>-5.58</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="3"/>
+        <v>-6.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>45655</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="22" t="e">
+        <f t="shared" ref="N7:N24" si="4">(B7/B6-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" ref="O7:Q24" si="5">E7-E6</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>45656</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I27" si="6">C8-C7</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J27" si="7">D8-D7</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L27" si="8">C8+D8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>45657</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>45658</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>45660</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>45661</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>45662</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>45663</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>45664</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>45665</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>45666</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>45667</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>45668</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>45669</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>45670</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>45671</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>45672</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>45673</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="22" t="e">
+        <f t="shared" ref="N25:N27" si="9">(B25/B24-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="13">
+        <f t="shared" ref="O25:O27" si="10">E25-E24</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="17">
+        <f t="shared" ref="P25:P27" si="11">F25-F24</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="20">
+        <f t="shared" ref="Q25:Q27" si="12">G25-G24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>45674</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="22" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>45675</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="22" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -202,11 +202,11 @@
       <alignment horizontal="right" textRotation="90"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
@@ -214,16 +214,16 @@
       <alignment horizontal="right" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -268,7 +268,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3614,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,7 +3737,7 @@
         <v>10.75</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I4:J6" si="2">C5-C4</f>
+        <f t="shared" ref="I5:J6" si="2">C5-C4</f>
         <v>-0.47999999999999687</v>
       </c>
       <c r="J5">
@@ -3823,34 +3822,51 @@
         <f t="shared" si="1"/>
         <v>45654</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9">
+        <v>3.6889999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>42.27</v>
+      </c>
+      <c r="D7">
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="E7">
+        <v>7.93</v>
+      </c>
+      <c r="F7">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="G7">
+        <v>9.59</v>
+      </c>
       <c r="I7">
         <f t="shared" ref="I7:I23" si="8">C7-C6</f>
-        <v>-41.31</v>
+        <v>0.96000000000000085</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J23" si="9">D7-D6</f>
-        <v>-0.48609999999999998</v>
+        <v>0.28010000000000002</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:L23" si="10">C7+D7</f>
-        <v>0</v>
+        <v>43.036200000000001</v>
       </c>
       <c r="N7" s="22">
         <f t="shared" si="4"/>
-        <v>-100</v>
+        <v>2.3300970873786353</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="5"/>
-        <v>-7.69</v>
+        <v>0.23999999999999932</v>
       </c>
       <c r="P7" s="17">
         <f t="shared" si="6"/>
-        <v>-10.11</v>
+        <v>-2.0700000000000003</v>
       </c>
       <c r="Q7" s="20">
         <f t="shared" si="7"/>
-        <v>-7</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3861,31 +3877,31 @@
       <c r="B8" s="9"/>
       <c r="I8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-42.27</v>
       </c>
       <c r="J8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-0.76619999999999999</v>
       </c>
       <c r="L8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N8" s="22" t="e">
+      <c r="N8" s="22">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="O8" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-7.93</v>
       </c>
       <c r="P8" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-8.0399999999999991</v>
       </c>
       <c r="Q8" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-9.59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4459,8 +4475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4521,7 +4537,7 @@
       <c r="A5" s="1">
         <v>45653</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>1.414E-2</v>
       </c>
       <c r="C5">
@@ -4553,34 +4569,51 @@
         <f t="shared" ref="A6:A27" si="1">A5+1</f>
         <v>45654</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="10">
+        <v>1.6670000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>25.68</v>
+      </c>
+      <c r="D6">
+        <v>0.43109999999999998</v>
+      </c>
+      <c r="E6">
+        <v>4.74</v>
+      </c>
+      <c r="F6">
+        <v>5.38</v>
+      </c>
+      <c r="G6">
+        <v>4.51</v>
+      </c>
       <c r="I6">
-        <f t="shared" ref="I5:J7" si="2">C6-C5</f>
-        <v>-21.79</v>
+        <f t="shared" ref="I6:J7" si="2">C6-C5</f>
+        <v>3.8900000000000006</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>-0.14829999999999999</v>
+        <v>0.2828</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.1111</v>
       </c>
       <c r="N6" s="22">
         <f>(B6/B5-1)*100</f>
-        <v>-100</v>
+        <v>17.892503536067906</v>
       </c>
       <c r="O6" s="13">
         <f>E6-E5</f>
-        <v>-4.2</v>
+        <v>0.54</v>
       </c>
       <c r="P6" s="17">
         <f t="shared" ref="P6:Q21" si="3">F6-F5</f>
-        <v>-5.58</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="Q6" s="20">
         <f t="shared" si="3"/>
-        <v>-6.39</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4591,31 +4624,31 @@
       <c r="B7" s="9"/>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-25.68</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.43109999999999998</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="22" t="e">
+      <c r="N7" s="22">
         <f t="shared" ref="N7:N24" si="4">(B7/B6-1)*100</f>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" ref="O7:Q24" si="5">E7-E6</f>
-        <v>0</v>
+        <v>-4.74</v>
       </c>
       <c r="P7" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5.38</v>
       </c>
       <c r="Q7" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>расчет</t>
   </si>
@@ -77,9 +77,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>1145,87 YT</t>
-  </si>
-  <si>
     <t>2326,45 YT</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>изм. undrl.APY 1d</t>
+  </si>
+  <si>
+    <t>rewards</t>
+  </si>
+  <si>
+    <t>YT</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2369,7 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="78" x14ac:dyDescent="0.25">
@@ -3611,859 +3614,1072 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N1" s="11"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="11"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1145.8699999999999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" ht="88.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2887.68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" ht="88.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="Q4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="R4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45651</v>
       </c>
-      <c r="B4" s="9">
+      <c r="C5">
+        <v>43.76</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>8.1</v>
+      </c>
+      <c r="F5">
+        <v>12.95</v>
+      </c>
+      <c r="G5">
+        <v>13.49</v>
+      </c>
+      <c r="I5" s="9">
         <v>3.8280000000000002E-2</v>
       </c>
-      <c r="C4">
+      <c r="M5">
+        <f>C5+D5</f>
         <v>43.76</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>8.1</v>
-      </c>
-      <c r="F4">
-        <v>12.95</v>
-      </c>
-      <c r="G4">
-        <v>13.49</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L6" si="0">C4+D4</f>
-        <v>43.76</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="19"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" ref="A5:A23" si="1">A4+1</f>
-        <v>45652</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3.7769999999999998E-2</v>
-      </c>
-      <c r="C5">
-        <v>43.28</v>
-      </c>
-      <c r="D5">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="E5">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="F5">
-        <v>12.52</v>
-      </c>
-      <c r="G5">
-        <v>10.75</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:J6" si="2">C5-C4</f>
-        <v>-0.47999999999999687</v>
-      </c>
-      <c r="J5">
+      <c r="O5" s="5"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="I6" s="9"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45672</v>
+      </c>
+      <c r="C7">
+        <v>117.337</v>
+      </c>
+      <c r="D7">
+        <v>1.2149999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>9.84</v>
+      </c>
+      <c r="F7">
+        <v>23.6</v>
+      </c>
+      <c r="G7">
+        <v>25.96</v>
+      </c>
+      <c r="I7" s="9">
+        <f>C7/$A$3</f>
+        <v>4.0633657468971636E-2</v>
+      </c>
+      <c r="M7">
+        <f>C7+D7</f>
+        <v>117.34915000000001</v>
+      </c>
+      <c r="O7" s="22"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A24" si="0">A7+1</f>
+        <v>45673</v>
+      </c>
+      <c r="C8">
+        <v>115.15</v>
+      </c>
+      <c r="D8">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="E8">
+        <v>9.67</v>
+      </c>
+      <c r="F8">
+        <v>23.32</v>
+      </c>
+      <c r="G8">
+        <v>34.6</v>
+      </c>
+      <c r="I8" s="9">
+        <f>C8/$A$3</f>
+        <v>3.9876302083333336E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J24" si="1">C8-C7</f>
+        <v>-2.1869999999999976</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K24" si="2">D8-D7</f>
+        <v>0.73255000000000003</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M24" si="3">C8+D8</f>
+        <v>115.8947</v>
+      </c>
+      <c r="O8" s="22">
+        <f>(I8/I7-1)*100</f>
+        <v>-1.8638622088514301</v>
+      </c>
+      <c r="P8" s="13">
+        <f>E8-E7</f>
+        <v>-0.16999999999999993</v>
+      </c>
+      <c r="Q8" s="17">
+        <f>F8-F7</f>
+        <v>-0.28000000000000114</v>
+      </c>
+      <c r="R8" s="20">
+        <f>G8-G7</f>
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>45674</v>
+      </c>
+      <c r="C9">
+        <v>133.52500000000001</v>
+      </c>
+      <c r="D9">
+        <v>3.3002799999999999</v>
+      </c>
+      <c r="E9">
+        <v>11.41</v>
+      </c>
+      <c r="F9">
+        <v>27.28</v>
+      </c>
+      <c r="G9">
+        <v>38.93</v>
+      </c>
+      <c r="I9" s="9">
+        <f>C9/$A$3</f>
+        <v>4.6239541777482275E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>18.375</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="L5">
+        <v>2.55558</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>136.82527999999999</v>
+      </c>
+      <c r="O9" s="22">
+        <f>(I9/I8-1)*100</f>
+        <v>15.957446808510657</v>
+      </c>
+      <c r="P9" s="13">
+        <f>E9-E8</f>
+        <v>1.7400000000000002</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>F9-F8</f>
+        <v>3.9600000000000009</v>
+      </c>
+      <c r="R9" s="20">
+        <f>G9-G8</f>
+        <v>4.3299999999999983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>43.538000000000004</v>
-      </c>
-      <c r="N5" s="22">
-        <f>(B5/B4-1)*100</f>
-        <v>-1.3322884012539227</v>
-      </c>
-      <c r="O5" s="13">
-        <f>E5-E4</f>
-        <v>-7.0000000000000284E-2</v>
-      </c>
-      <c r="P5" s="17">
-        <f t="shared" ref="P5:Q5" si="3">F5-F4</f>
-        <v>-0.42999999999999972</v>
-      </c>
-      <c r="Q5" s="20">
-        <f t="shared" si="3"/>
-        <v>-2.74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="1"/>
-        <v>45653</v>
-      </c>
-      <c r="B6" s="9">
-        <v>3.6049999999999999E-2</v>
-      </c>
-      <c r="C6">
-        <v>41.31</v>
-      </c>
-      <c r="D6">
-        <v>0.48609999999999998</v>
-      </c>
-      <c r="E6">
-        <v>7.69</v>
-      </c>
-      <c r="F6">
+        <v>45675</v>
+      </c>
+      <c r="C10">
+        <v>142.691</v>
+      </c>
+      <c r="D10">
+        <v>5.9450599999999998</v>
+      </c>
+      <c r="E10">
+        <v>12.34</v>
+      </c>
+      <c r="F10">
+        <v>30.8</v>
+      </c>
+      <c r="G10">
+        <v>41.07</v>
+      </c>
+      <c r="I10" s="9">
+        <f>C10/$A$3</f>
+        <v>4.9413716201241138E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>9.1659999999999968</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>2.6447799999999999</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>148.63606000000001</v>
+      </c>
+      <c r="O10" s="22">
+        <f>(I10/I9-1)*100</f>
+        <v>6.8646320913686498</v>
+      </c>
+      <c r="P10" s="13">
+        <f>E10-E9</f>
+        <v>0.92999999999999972</v>
+      </c>
+      <c r="Q10" s="17">
+        <f>F10-F9</f>
+        <v>3.5199999999999996</v>
+      </c>
+      <c r="R10" s="20">
+        <f>G10-G9</f>
+        <v>2.1400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>45676</v>
+      </c>
+      <c r="C11">
+        <v>140.982</v>
+      </c>
+      <c r="D11">
+        <v>7.9575899999999997</v>
+      </c>
+      <c r="E11">
+        <v>12.26</v>
+      </c>
+      <c r="F11">
+        <v>34.15</v>
+      </c>
+      <c r="G11">
+        <v>29.59</v>
+      </c>
+      <c r="I11" s="9">
+        <f>C11/$A$3</f>
+        <v>4.8821891622340428E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>-1.7090000000000032</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>2.0125299999999999</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>148.93959000000001</v>
+      </c>
+      <c r="O11" s="22">
+        <f>(I11/I10-1)*100</f>
+        <v>-1.197692916862314</v>
+      </c>
+      <c r="P11" s="13">
+        <f>E11-E10</f>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="Q11" s="17">
+        <f>F11-F10</f>
+        <v>3.3499999999999979</v>
+      </c>
+      <c r="R11" s="20">
+        <f>G11-G10</f>
+        <v>-11.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>45677</v>
+      </c>
+      <c r="C12">
+        <v>142.87</v>
+      </c>
+      <c r="D12">
+        <v>10.8049</v>
+      </c>
+      <c r="E12">
+        <v>12.25</v>
+      </c>
+      <c r="F12">
+        <v>40.14</v>
+      </c>
+      <c r="G12">
+        <v>46.81</v>
+      </c>
+      <c r="I12" s="9">
+        <f>C12/$A$3</f>
+        <v>4.9475703679078019E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.8880000000000052</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>2.8473100000000002</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>153.67490000000001</v>
+      </c>
+      <c r="O12" s="22">
+        <f>(I12/I11-1)*100</f>
+        <v>1.3391780510987328</v>
+      </c>
+      <c r="P12" s="13">
+        <f>E12-E11</f>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="Q12" s="17">
+        <f>F12-F11</f>
+        <v>5.990000000000002</v>
+      </c>
+      <c r="R12" s="20">
+        <f>G12-G11</f>
+        <v>17.220000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>45678</v>
+      </c>
+      <c r="C13">
+        <v>151.39400000000001</v>
+      </c>
+      <c r="D13">
+        <v>12.1717</v>
+      </c>
+      <c r="E13">
+        <v>13.44</v>
+      </c>
+      <c r="F13">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="G13">
+        <v>18.97</v>
+      </c>
+      <c r="I13" s="9">
+        <f>C13/$A$3</f>
+        <v>5.2427554299645393E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>8.5240000000000009</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>1.3667999999999996</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>163.56569999999999</v>
+      </c>
+      <c r="O13" s="22">
+        <f>(I13/I12-1)*100</f>
+        <v>5.9662630363267244</v>
+      </c>
+      <c r="P13" s="13">
+        <f>E13-E12</f>
+        <v>1.1899999999999995</v>
+      </c>
+      <c r="Q13" s="17">
+        <f>F13-F12</f>
+        <v>-3.2999999999999972</v>
+      </c>
+      <c r="R13" s="20">
+        <f>G13-G12</f>
+        <v>-27.840000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>45679</v>
+      </c>
+      <c r="C14">
+        <v>146.56</v>
+      </c>
+      <c r="D14">
+        <v>13.2919</v>
+      </c>
+      <c r="E14">
+        <v>13.05</v>
+      </c>
+      <c r="F14">
+        <v>31.75</v>
+      </c>
+      <c r="G14">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="I14" s="9">
+        <f>C14/$A$3</f>
+        <v>5.0753546099290781E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>-4.8340000000000032</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>1.1202000000000005</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>159.8519</v>
+      </c>
+      <c r="O14" s="22">
+        <f>(I14/I13-1)*100</f>
+        <v>-3.1929931172965942</v>
+      </c>
+      <c r="P14" s="13">
+        <f>E14-E13</f>
+        <v>-0.38999999999999879</v>
+      </c>
+      <c r="Q14" s="17">
+        <f>F14-F13</f>
+        <v>-5.0900000000000034</v>
+      </c>
+      <c r="R14" s="20">
+        <f>G14-G13</f>
+        <v>0.7900000000000027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>45680</v>
+      </c>
+      <c r="C15">
+        <v>144.32499999999999</v>
+      </c>
+      <c r="D15">
+        <v>15.582000000000001</v>
+      </c>
+      <c r="E15">
+        <v>12.93</v>
+      </c>
+      <c r="F15">
+        <v>31.6</v>
+      </c>
+      <c r="G15">
+        <v>33.43</v>
+      </c>
+      <c r="I15" s="9">
+        <f>C15/$A$3</f>
+        <v>4.9979568373226951E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-2.2350000000000136</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>2.2901000000000007</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>159.90699999999998</v>
+      </c>
+      <c r="O15" s="22">
+        <f>(I15/I14-1)*100</f>
+        <v>-1.5249727074235775</v>
+      </c>
+      <c r="P15" s="13">
+        <f>E15-E14</f>
+        <v>-0.12000000000000099</v>
+      </c>
+      <c r="Q15" s="17">
+        <f>F15-F14</f>
+        <v>-0.14999999999999858</v>
+      </c>
+      <c r="R15" s="20">
+        <f>G15-G14</f>
+        <v>13.669999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>45681</v>
+      </c>
+      <c r="C16">
+        <v>137.53299999999999</v>
+      </c>
+      <c r="D16">
+        <v>16.714500000000001</v>
+      </c>
+      <c r="E16">
+        <v>12.35</v>
+      </c>
+      <c r="F16">
+        <v>28.26</v>
+      </c>
+      <c r="G16">
+        <v>15.95</v>
+      </c>
+      <c r="I16" s="9">
+        <f>C16/$A$3</f>
+        <v>4.7627507203014181E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>-6.7920000000000016</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>1.1325000000000003</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>154.2475</v>
+      </c>
+      <c r="O16" s="22">
+        <f>(I16/I15-1)*100</f>
+        <v>-4.7060453836826666</v>
+      </c>
+      <c r="P16" s="13">
+        <f>E16-E15</f>
+        <v>-0.58000000000000007</v>
+      </c>
+      <c r="Q16" s="17">
+        <f>F16-F15</f>
+        <v>-3.34</v>
+      </c>
+      <c r="R16" s="20">
+        <f>G16-G15</f>
+        <v>-17.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>45682</v>
+      </c>
+      <c r="C17">
+        <v>133.66399999999999</v>
+      </c>
+      <c r="D17">
+        <v>18.4328</v>
+      </c>
+      <c r="E17">
+        <v>12.06</v>
+      </c>
+      <c r="F17">
+        <v>25.91</v>
+      </c>
+      <c r="G17">
+        <v>22.86</v>
+      </c>
+      <c r="I17" s="9">
+        <f>C17/$A$3</f>
+        <v>4.6287677304964539E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>-3.8689999999999998</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>1.7182999999999993</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>152.09679999999997</v>
+      </c>
+      <c r="O17" s="22">
+        <f>(I17/I16-1)*100</f>
+        <v>-2.8131430274915825</v>
+      </c>
+      <c r="P17" s="13">
+        <f>E17-E16</f>
+        <v>-0.28999999999999915</v>
+      </c>
+      <c r="Q17" s="17">
+        <f>F17-F16</f>
+        <v>-2.3500000000000014</v>
+      </c>
+      <c r="R17" s="20">
+        <f>G17-G16</f>
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>45683</v>
+      </c>
+      <c r="C18">
+        <v>128.39699999999999</v>
+      </c>
+      <c r="D18">
+        <v>18.9741</v>
+      </c>
+      <c r="E18">
+        <v>11.62</v>
+      </c>
+      <c r="F18">
+        <v>23.49</v>
+      </c>
+      <c r="G18">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="I18" s="9">
+        <f>C18/$A$3</f>
+        <v>4.4463721742021275E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>-5.2669999999999959</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0.54129999999999967</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>147.37109999999998</v>
+      </c>
+      <c r="O18" s="22">
+        <f>(I18/I17-1)*100</f>
+        <v>-3.9404776155135268</v>
+      </c>
+      <c r="P18" s="13">
+        <f>E18-E17</f>
+        <v>-0.44000000000000128</v>
+      </c>
+      <c r="Q18" s="17">
+        <f>F18-F17</f>
+        <v>-2.4200000000000017</v>
+      </c>
+      <c r="R18" s="20">
+        <f>G18-G17</f>
+        <v>-13.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>45684</v>
+      </c>
+      <c r="C19">
+        <v>112.036</v>
+      </c>
+      <c r="D19">
+        <v>19.435099999999998</v>
+      </c>
+      <c r="E19">
         <v>10.11</v>
       </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="I6">
+      <c r="F19">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G19">
+        <v>5.85</v>
+      </c>
+      <c r="I19" s="9">
+        <f>C19/$A$3</f>
+        <v>3.8797927748226956E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>-16.36099999999999</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="2"/>
-        <v>-1.9699999999999989</v>
-      </c>
-      <c r="J6">
+        <v>0.46099999999999852</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>131.47110000000001</v>
+      </c>
+      <c r="O19" s="22">
+        <f>(I19/I18-1)*100</f>
+        <v>-12.742509560192206</v>
+      </c>
+      <c r="P19" s="13">
+        <f>E19-E18</f>
+        <v>-1.5099999999999998</v>
+      </c>
+      <c r="Q19" s="17">
+        <f>F19-F18</f>
+        <v>-6.0699999999999967</v>
+      </c>
+      <c r="R19" s="20">
+        <f>G19-G18</f>
+        <v>-3.1799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>45685</v>
+      </c>
+      <c r="C20">
+        <v>113.34699999999999</v>
+      </c>
+      <c r="D20">
+        <v>20.752099999999999</v>
+      </c>
+      <c r="E20">
+        <v>10.31</v>
+      </c>
+      <c r="F20">
+        <v>17.43</v>
+      </c>
+      <c r="G20">
+        <v>18.48</v>
+      </c>
+      <c r="I20" s="9">
+        <f>C20/$A$3</f>
+        <v>3.9251925421099294E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.3109999999999928</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="2"/>
-        <v>0.22809999999999997</v>
-      </c>
-      <c r="L6">
+        <v>1.3170000000000002</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>134.09909999999999</v>
+      </c>
+      <c r="O20" s="22">
+        <f>(I20/I19-1)*100</f>
+        <v>1.1701595915598606</v>
+      </c>
+      <c r="P20" s="13">
+        <f>E20-E19</f>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="Q20" s="17">
+        <f>F20-F19</f>
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="R20" s="20">
+        <f>G20-G19</f>
+        <v>12.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>41.796100000000003</v>
-      </c>
-      <c r="N6" s="22">
-        <f t="shared" ref="N6:N23" si="4">(B6/B5-1)*100</f>
-        <v>-4.5538787397405356</v>
-      </c>
-      <c r="O6" s="13">
-        <f t="shared" ref="O6:O23" si="5">E6-E5</f>
-        <v>-0.33999999999999897</v>
-      </c>
-      <c r="P6" s="17">
-        <f t="shared" ref="P6:P23" si="6">F6-F5</f>
-        <v>-2.41</v>
-      </c>
-      <c r="Q6" s="20">
-        <f t="shared" ref="Q6:Q23" si="7">G6-G5</f>
-        <v>-3.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="1"/>
-        <v>45654</v>
-      </c>
-      <c r="B7" s="9">
-        <v>3.6889999999999999E-2</v>
-      </c>
-      <c r="C7">
-        <v>42.27</v>
-      </c>
-      <c r="D7">
-        <v>0.76619999999999999</v>
-      </c>
-      <c r="E7">
-        <v>7.93</v>
-      </c>
-      <c r="F7">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="G7">
-        <v>9.59</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ref="I7:I23" si="8">C7-C6</f>
-        <v>0.96000000000000085</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ref="J7:J23" si="9">D7-D6</f>
-        <v>0.28010000000000002</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L23" si="10">C7+D7</f>
-        <v>43.036200000000001</v>
-      </c>
-      <c r="N7" s="22">
-        <f t="shared" si="4"/>
-        <v>2.3300970873786353</v>
-      </c>
-      <c r="O7" s="13">
-        <f t="shared" si="5"/>
-        <v>0.23999999999999932</v>
-      </c>
-      <c r="P7" s="17">
-        <f t="shared" si="6"/>
-        <v>-2.0700000000000003</v>
-      </c>
-      <c r="Q7" s="20">
-        <f t="shared" si="7"/>
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>45655</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="I8">
-        <f t="shared" si="8"/>
-        <v>-42.27</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="9"/>
-        <v>-0.76619999999999999</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="22">
-        <f t="shared" si="4"/>
+        <v>45686</v>
+      </c>
+      <c r="C21">
+        <v>112.652</v>
+      </c>
+      <c r="D21">
+        <v>22.1371</v>
+      </c>
+      <c r="E21">
+        <v>10.32</v>
+      </c>
+      <c r="F21">
+        <v>17.63</v>
+      </c>
+      <c r="G21">
+        <v>19.55</v>
+      </c>
+      <c r="I21" s="9">
+        <f>C21/$A$3</f>
+        <v>3.9011247783687947E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>-0.69499999999999318</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>1.3850000000000016</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>134.78909999999999</v>
+      </c>
+      <c r="O21" s="22">
+        <f>(I21/I20-1)*100</f>
+        <v>-0.61316135407201156</v>
+      </c>
+      <c r="P21" s="13">
+        <f>E21-E20</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="Q21" s="17">
+        <f>F21-F20</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="R21" s="20">
+        <f>G21-G20</f>
+        <v>1.0700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>45687</v>
+      </c>
+      <c r="C22">
+        <v>105.839</v>
+      </c>
+      <c r="D22">
+        <v>23.7316</v>
+      </c>
+      <c r="E22">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F22">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="G22">
+        <v>22.92</v>
+      </c>
+      <c r="I22" s="9">
+        <f>C22/$A$3</f>
+        <v>3.6651914339539009E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>-6.8130000000000024</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>1.5945</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>129.57060000000001</v>
+      </c>
+      <c r="O22" s="22">
+        <f>(I22/I21-1)*100</f>
+        <v>-6.0478287114298919</v>
+      </c>
+      <c r="P22" s="13">
+        <f>E22-E21</f>
+        <v>-0.59999999999999964</v>
+      </c>
+      <c r="Q22" s="17">
+        <f>F22-F21</f>
+        <v>-1.3699999999999974</v>
+      </c>
+      <c r="R22" s="20">
+        <f>G22-G21</f>
+        <v>3.370000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>45688</v>
+      </c>
+      <c r="I23" s="9">
+        <f>C23/$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>-105.839</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>-23.7316</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="22">
+        <f>(I23/I22-1)*100</f>
         <v>-100</v>
       </c>
-      <c r="O8" s="13">
-        <f t="shared" si="5"/>
-        <v>-7.93</v>
-      </c>
-      <c r="P8" s="17">
-        <f t="shared" si="6"/>
-        <v>-8.0399999999999991</v>
-      </c>
-      <c r="Q8" s="20">
-        <f t="shared" si="7"/>
-        <v>-9.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="1"/>
-        <v>45656</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="I9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="22" t="e">
-        <f t="shared" si="4"/>
+      <c r="P23" s="13">
+        <f>E23-E22</f>
+        <v>-9.7200000000000006</v>
+      </c>
+      <c r="Q23" s="17">
+        <f>F23-F22</f>
+        <v>-16.260000000000002</v>
+      </c>
+      <c r="R23" s="20">
+        <f>G23-G22</f>
+        <v>-22.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>45689</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="I24" s="9">
+        <f>C24/$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="22" t="e">
+        <f>(B24/I23-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>45657</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="I10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>45658</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="I11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>45659</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="I12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>45660</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="I13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>45661</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="I14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>45662</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="I15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>45663</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="I16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>45664</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="I17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>45665</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="I18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>45666</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="I19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>45667</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="I20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>45668</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="I21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>45669</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="I22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f t="shared" si="1"/>
-        <v>45670</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="I23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P24" s="13">
+        <f>E24-E23</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="17">
+        <f>F24-F23</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="20">
+        <f>G24-G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4475,7 +4691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -4486,7 +4702,7 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="88.5" x14ac:dyDescent="0.25">
@@ -4521,16 +4737,16 @@
         <v>14</v>
       </c>
       <c r="N4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\____  __ + _\фprttp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026349D4-60C4-4CF4-9FC9-0B870380C807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21600" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
     <sheet name="gUSD 26.06.25" sheetId="3" r:id="rId3"/>
     <sheet name="mPendle 27.03.25" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -104,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1355,7 +1365,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="AutoShape 3" descr="Uniswap png | PNGWing"/>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="Uniswap png | PNGWing">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1397,7 +1413,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1452,7 +1474,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1732,7 +1760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B11:M30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2260,7 +2288,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2351,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2372,7 +2400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3613,11 +3641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,7 +3685,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" ht="88.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="87.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -3761,7 +3789,7 @@
         <v>25.96</v>
       </c>
       <c r="I7" s="9">
-        <f>C7/$A$3</f>
+        <f t="shared" ref="I7:I46" si="0">C7/$A$3</f>
         <v>4.0633657468971636E-2</v>
       </c>
       <c r="M7">
@@ -3775,7 +3803,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A24" si="0">A7+1</f>
+        <f t="shared" ref="A8:A61" si="1">A7+1</f>
         <v>45673</v>
       </c>
       <c r="C8">
@@ -3794,41 +3822,41 @@
         <v>34.6</v>
       </c>
       <c r="I8" s="9">
-        <f>C8/$A$3</f>
+        <f t="shared" si="0"/>
         <v>3.9876302083333336E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J24" si="1">C8-C7</f>
+        <f t="shared" ref="J8:J24" si="2">C8-C7</f>
         <v>-2.1869999999999976</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K24" si="2">D8-D7</f>
+        <f t="shared" ref="K8:K24" si="3">D8-D7</f>
         <v>0.73255000000000003</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M24" si="3">C8+D8</f>
+        <f t="shared" ref="M8:M46" si="4">C8+D8</f>
         <v>115.8947</v>
       </c>
       <c r="O8" s="22">
-        <f>(I8/I7-1)*100</f>
+        <f t="shared" ref="O8:O23" si="5">(I8/I7-1)*100</f>
         <v>-1.8638622088514301</v>
       </c>
       <c r="P8" s="13">
-        <f>E8-E7</f>
+        <f t="shared" ref="P8:P24" si="6">E8-E7</f>
         <v>-0.16999999999999993</v>
       </c>
       <c r="Q8" s="17">
-        <f>F8-F7</f>
+        <f t="shared" ref="Q8:Q24" si="7">F8-F7</f>
         <v>-0.28000000000000114</v>
       </c>
       <c r="R8" s="20">
-        <f>G8-G7</f>
+        <f t="shared" ref="R8:R24" si="8">G8-G7</f>
         <v>8.64</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45674</v>
       </c>
       <c r="C9">
@@ -3847,41 +3875,41 @@
         <v>38.93</v>
       </c>
       <c r="I9" s="9">
-        <f>C9/$A$3</f>
+        <f t="shared" si="0"/>
         <v>4.6239541777482275E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.375</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.55558</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>136.82527999999999</v>
       </c>
       <c r="O9" s="22">
-        <f>(I9/I8-1)*100</f>
+        <f t="shared" si="5"/>
         <v>15.957446808510657</v>
       </c>
       <c r="P9" s="13">
-        <f>E9-E8</f>
+        <f t="shared" si="6"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="Q9" s="17">
-        <f>F9-F8</f>
+        <f t="shared" si="7"/>
         <v>3.9600000000000009</v>
       </c>
       <c r="R9" s="20">
-        <f>G9-G8</f>
+        <f t="shared" si="8"/>
         <v>4.3299999999999983</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45675</v>
       </c>
       <c r="C10">
@@ -3900,41 +3928,41 @@
         <v>41.07</v>
       </c>
       <c r="I10" s="9">
-        <f>C10/$A$3</f>
+        <f t="shared" si="0"/>
         <v>4.9413716201241138E-2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1659999999999968</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6447799999999999</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>148.63606000000001</v>
       </c>
       <c r="O10" s="22">
-        <f>(I10/I9-1)*100</f>
+        <f t="shared" si="5"/>
         <v>6.8646320913686498</v>
       </c>
       <c r="P10" s="13">
-        <f>E10-E9</f>
+        <f t="shared" si="6"/>
         <v>0.92999999999999972</v>
       </c>
       <c r="Q10" s="17">
-        <f>F10-F9</f>
+        <f t="shared" si="7"/>
         <v>3.5199999999999996</v>
       </c>
       <c r="R10" s="20">
-        <f>G10-G9</f>
+        <f t="shared" si="8"/>
         <v>2.1400000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45676</v>
       </c>
       <c r="C11">
@@ -3953,41 +3981,41 @@
         <v>29.59</v>
       </c>
       <c r="I11" s="9">
-        <f>C11/$A$3</f>
+        <f t="shared" si="0"/>
         <v>4.8821891622340428E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7090000000000032</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0125299999999999</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>148.93959000000001</v>
       </c>
       <c r="O11" s="22">
-        <f>(I11/I10-1)*100</f>
+        <f t="shared" si="5"/>
         <v>-1.197692916862314</v>
       </c>
       <c r="P11" s="13">
-        <f>E11-E10</f>
+        <f t="shared" si="6"/>
         <v>-8.0000000000000071E-2</v>
       </c>
       <c r="Q11" s="17">
-        <f>F11-F10</f>
+        <f t="shared" si="7"/>
         <v>3.3499999999999979</v>
       </c>
       <c r="R11" s="20">
-        <f>G11-G10</f>
+        <f t="shared" si="8"/>
         <v>-11.48</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45677</v>
       </c>
       <c r="C12">
@@ -4006,41 +4034,41 @@
         <v>46.81</v>
       </c>
       <c r="I12" s="9">
-        <f>C12/$A$3</f>
+        <f t="shared" si="0"/>
         <v>4.9475703679078019E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8880000000000052</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8473100000000002</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153.67490000000001</v>
       </c>
       <c r="O12" s="22">
-        <f>(I12/I11-1)*100</f>
+        <f t="shared" si="5"/>
         <v>1.3391780510987328</v>
       </c>
       <c r="P12" s="13">
-        <f>E12-E11</f>
+        <f t="shared" si="6"/>
         <v>-9.9999999999997868E-3</v>
       </c>
       <c r="Q12" s="17">
-        <f>F12-F11</f>
+        <f t="shared" si="7"/>
         <v>5.990000000000002</v>
       </c>
       <c r="R12" s="20">
-        <f>G12-G11</f>
+        <f t="shared" si="8"/>
         <v>17.220000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45678</v>
       </c>
       <c r="C13">
@@ -4059,41 +4087,41 @@
         <v>18.97</v>
       </c>
       <c r="I13" s="9">
-        <f>C13/$A$3</f>
+        <f t="shared" si="0"/>
         <v>5.2427554299645393E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5240000000000009</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3667999999999996</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>163.56569999999999</v>
       </c>
       <c r="O13" s="22">
-        <f>(I13/I12-1)*100</f>
+        <f t="shared" si="5"/>
         <v>5.9662630363267244</v>
       </c>
       <c r="P13" s="13">
-        <f>E13-E12</f>
+        <f t="shared" si="6"/>
         <v>1.1899999999999995</v>
       </c>
       <c r="Q13" s="17">
-        <f>F13-F12</f>
+        <f t="shared" si="7"/>
         <v>-3.2999999999999972</v>
       </c>
       <c r="R13" s="20">
-        <f>G13-G12</f>
+        <f t="shared" si="8"/>
         <v>-27.840000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45679</v>
       </c>
       <c r="C14">
@@ -4112,41 +4140,41 @@
         <v>19.760000000000002</v>
       </c>
       <c r="I14" s="9">
-        <f>C14/$A$3</f>
+        <f t="shared" si="0"/>
         <v>5.0753546099290781E-2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.8340000000000032</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1202000000000005</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>159.8519</v>
       </c>
       <c r="O14" s="22">
-        <f>(I14/I13-1)*100</f>
+        <f t="shared" si="5"/>
         <v>-3.1929931172965942</v>
       </c>
       <c r="P14" s="13">
-        <f>E14-E13</f>
+        <f t="shared" si="6"/>
         <v>-0.38999999999999879</v>
       </c>
       <c r="Q14" s="17">
-        <f>F14-F13</f>
+        <f t="shared" si="7"/>
         <v>-5.0900000000000034</v>
       </c>
       <c r="R14" s="20">
-        <f>G14-G13</f>
+        <f t="shared" si="8"/>
         <v>0.7900000000000027</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45680</v>
       </c>
       <c r="C15">
@@ -4165,41 +4193,41 @@
         <v>33.43</v>
       </c>
       <c r="I15" s="9">
-        <f>C15/$A$3</f>
+        <f t="shared" si="0"/>
         <v>4.9979568373226951E-2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.2350000000000136</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2901000000000007</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>159.90699999999998</v>
       </c>
       <c r="O15" s="22">
-        <f>(I15/I14-1)*100</f>
+        <f t="shared" si="5"/>
         <v>-1.5249727074235775</v>
       </c>
       <c r="P15" s="13">
-        <f>E15-E14</f>
+        <f t="shared" si="6"/>
         <v>-0.12000000000000099</v>
       </c>
       <c r="Q15" s="17">
-        <f>F15-F14</f>
+        <f t="shared" si="7"/>
         <v>-0.14999999999999858</v>
       </c>
       <c r="R15" s="20">
-        <f>G15-G14</f>
+        <f t="shared" si="8"/>
         <v>13.669999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45681</v>
       </c>
       <c r="C16">
@@ -4218,41 +4246,41 @@
         <v>15.95</v>
       </c>
       <c r="I16" s="9">
-        <f>C16/$A$3</f>
+        <f t="shared" si="0"/>
         <v>4.7627507203014181E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.7920000000000016</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1325000000000003</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154.2475</v>
       </c>
       <c r="O16" s="22">
-        <f>(I16/I15-1)*100</f>
+        <f t="shared" si="5"/>
         <v>-4.7060453836826666</v>
       </c>
       <c r="P16" s="13">
-        <f>E16-E15</f>
+        <f t="shared" si="6"/>
         <v>-0.58000000000000007</v>
       </c>
       <c r="Q16" s="17">
-        <f>F16-F15</f>
+        <f t="shared" si="7"/>
         <v>-3.34</v>
       </c>
       <c r="R16" s="20">
-        <f>G16-G15</f>
+        <f t="shared" si="8"/>
         <v>-17.48</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45682</v>
       </c>
       <c r="C17">
@@ -4271,41 +4299,41 @@
         <v>22.86</v>
       </c>
       <c r="I17" s="9">
-        <f>C17/$A$3</f>
+        <f t="shared" si="0"/>
         <v>4.6287677304964539E-2</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.8689999999999998</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7182999999999993</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152.09679999999997</v>
       </c>
       <c r="O17" s="22">
-        <f>(I17/I16-1)*100</f>
+        <f t="shared" si="5"/>
         <v>-2.8131430274915825</v>
       </c>
       <c r="P17" s="13">
-        <f>E17-E16</f>
+        <f t="shared" si="6"/>
         <v>-0.28999999999999915</v>
       </c>
       <c r="Q17" s="17">
-        <f>F17-F16</f>
+        <f t="shared" si="7"/>
         <v>-2.3500000000000014</v>
       </c>
       <c r="R17" s="20">
-        <f>G17-G16</f>
+        <f t="shared" si="8"/>
         <v>6.91</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45683</v>
       </c>
       <c r="C18">
@@ -4324,41 +4352,41 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="I18" s="9">
-        <f>C18/$A$3</f>
+        <f t="shared" si="0"/>
         <v>4.4463721742021275E-2</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.2669999999999959</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54129999999999967</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>147.37109999999998</v>
       </c>
       <c r="O18" s="22">
-        <f>(I18/I17-1)*100</f>
+        <f t="shared" si="5"/>
         <v>-3.9404776155135268</v>
       </c>
       <c r="P18" s="13">
-        <f>E18-E17</f>
+        <f t="shared" si="6"/>
         <v>-0.44000000000000128</v>
       </c>
       <c r="Q18" s="17">
-        <f>F18-F17</f>
+        <f t="shared" si="7"/>
         <v>-2.4200000000000017</v>
       </c>
       <c r="R18" s="20">
-        <f>G18-G17</f>
+        <f t="shared" si="8"/>
         <v>-13.83</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45684</v>
       </c>
       <c r="C19">
@@ -4377,41 +4405,41 @@
         <v>5.85</v>
       </c>
       <c r="I19" s="9">
-        <f>C19/$A$3</f>
+        <f t="shared" si="0"/>
         <v>3.8797927748226956E-2</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16.36099999999999</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46099999999999852</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131.47110000000001</v>
       </c>
       <c r="O19" s="22">
-        <f>(I19/I18-1)*100</f>
+        <f t="shared" si="5"/>
         <v>-12.742509560192206</v>
       </c>
       <c r="P19" s="13">
-        <f>E19-E18</f>
+        <f t="shared" si="6"/>
         <v>-1.5099999999999998</v>
       </c>
       <c r="Q19" s="17">
-        <f>F19-F18</f>
+        <f t="shared" si="7"/>
         <v>-6.0699999999999967</v>
       </c>
       <c r="R19" s="20">
-        <f>G19-G18</f>
+        <f t="shared" si="8"/>
         <v>-3.1799999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45685</v>
       </c>
       <c r="C20">
@@ -4430,41 +4458,41 @@
         <v>18.48</v>
       </c>
       <c r="I20" s="9">
-        <f>C20/$A$3</f>
+        <f t="shared" si="0"/>
         <v>3.9251925421099294E-2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3109999999999928</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3170000000000002</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>134.09909999999999</v>
       </c>
       <c r="O20" s="22">
-        <f>(I20/I19-1)*100</f>
+        <f t="shared" si="5"/>
         <v>1.1701595915598606</v>
       </c>
       <c r="P20" s="13">
-        <f>E20-E19</f>
+        <f t="shared" si="6"/>
         <v>0.20000000000000107</v>
       </c>
       <c r="Q20" s="17">
-        <f>F20-F19</f>
+        <f t="shared" si="7"/>
         <v>9.9999999999980105E-3</v>
       </c>
       <c r="R20" s="20">
-        <f>G20-G19</f>
+        <f t="shared" si="8"/>
         <v>12.63</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45686</v>
       </c>
       <c r="C21">
@@ -4483,41 +4511,41 @@
         <v>19.55</v>
       </c>
       <c r="I21" s="9">
-        <f>C21/$A$3</f>
+        <f t="shared" si="0"/>
         <v>3.9011247783687947E-2</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.69499999999999318</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3850000000000016</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>134.78909999999999</v>
       </c>
       <c r="O21" s="22">
-        <f>(I21/I20-1)*100</f>
+        <f t="shared" si="5"/>
         <v>-0.61316135407201156</v>
       </c>
       <c r="P21" s="13">
-        <f>E21-E20</f>
+        <f t="shared" si="6"/>
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="Q21" s="17">
-        <f>F21-F20</f>
+        <f t="shared" si="7"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="R21" s="20">
-        <f>G21-G20</f>
+        <f t="shared" si="8"/>
         <v>1.0700000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45687</v>
       </c>
       <c r="C22">
@@ -4536,150 +4564,884 @@
         <v>22.92</v>
       </c>
       <c r="I22" s="9">
-        <f>C22/$A$3</f>
+        <f t="shared" si="0"/>
         <v>3.6651914339539009E-2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.8130000000000024</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5945</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129.57060000000001</v>
       </c>
       <c r="O22" s="22">
-        <f>(I22/I21-1)*100</f>
+        <f t="shared" si="5"/>
         <v>-6.0478287114298919</v>
       </c>
       <c r="P22" s="13">
-        <f>E22-E21</f>
+        <f t="shared" si="6"/>
         <v>-0.59999999999999964</v>
       </c>
       <c r="Q22" s="17">
-        <f>F22-F21</f>
+        <f t="shared" si="7"/>
         <v>-1.3699999999999974</v>
       </c>
       <c r="R22" s="20">
-        <f>G22-G21</f>
+        <f t="shared" si="8"/>
         <v>3.370000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45688</v>
       </c>
+      <c r="C23">
+        <v>110.22499999999999</v>
+      </c>
+      <c r="D23">
+        <v>24.521599999999999</v>
+      </c>
+      <c r="E23">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="F23">
+        <v>15.46</v>
+      </c>
+      <c r="G23">
+        <v>10.64</v>
+      </c>
       <c r="I23" s="9">
-        <f>C23/$A$3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.8170780695921988E-2</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>-105.839</v>
+        <f t="shared" si="2"/>
+        <v>4.3859999999999957</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
-        <v>-23.7316</v>
+        <f t="shared" si="3"/>
+        <v>0.78999999999999915</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>134.7466</v>
       </c>
       <c r="O23" s="22">
-        <f>(I23/I22-1)*100</f>
-        <v>-100</v>
+        <f t="shared" si="5"/>
+        <v>4.144030083428607</v>
       </c>
       <c r="P23" s="13">
-        <f>E23-E22</f>
-        <v>-9.7200000000000006</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="Q23" s="17">
-        <f>F23-F22</f>
-        <v>-16.260000000000002</v>
+        <f t="shared" si="7"/>
+        <v>-0.80000000000000071</v>
       </c>
       <c r="R23" s="20">
-        <f>G23-G22</f>
-        <v>-22.92</v>
+        <f t="shared" si="8"/>
+        <v>-12.280000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45689</v>
       </c>
       <c r="B24" s="9"/>
+      <c r="C24">
+        <v>106.53400000000001</v>
+      </c>
+      <c r="D24">
+        <v>25.128900000000002</v>
+      </c>
+      <c r="E24">
+        <v>9.93</v>
+      </c>
+      <c r="F24">
+        <v>14.9</v>
+      </c>
+      <c r="G24">
+        <v>20.2</v>
+      </c>
       <c r="I24" s="9">
-        <f>C24/$A$3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.6892591976950356E-2</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-3.6909999999999883</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.60730000000000217</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>131.66290000000001</v>
+      </c>
+      <c r="O24" s="22">
         <f>(B24/I23-1)*100</f>
-        <v>#DIV/0!</v>
+        <v>-100</v>
       </c>
       <c r="P24" s="13">
-        <f>E24-E23</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-0.29000000000000092</v>
       </c>
       <c r="Q24" s="17">
-        <f>F24-F23</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.5600000000000005</v>
       </c>
       <c r="R24" s="20">
-        <f>G24-G23</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>9.5599999999999987</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>45690</v>
+      </c>
       <c r="B25" s="9"/>
+      <c r="C25">
+        <v>106.206</v>
+      </c>
+      <c r="D25">
+        <v>26.807400000000001</v>
+      </c>
+      <c r="E25">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F25">
+        <v>15.52</v>
+      </c>
+      <c r="G25">
+        <v>11.92</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6779005984042559E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>133.01339999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>45691</v>
+      </c>
       <c r="B26" s="9"/>
+      <c r="C26">
+        <v>111.667</v>
+      </c>
+      <c r="D26">
+        <v>31.0703</v>
+      </c>
+      <c r="E26">
+        <v>10.6</v>
+      </c>
+      <c r="F26">
+        <v>23.87</v>
+      </c>
+      <c r="G26">
+        <v>73.06</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8670143506205679E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>142.7373</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>45692</v>
+      </c>
       <c r="B27" s="9"/>
+      <c r="C27">
+        <v>117.45699999999999</v>
+      </c>
+      <c r="D27">
+        <v>33.302599999999998</v>
+      </c>
+      <c r="E27">
+        <v>11.27</v>
+      </c>
+      <c r="F27">
+        <v>26.03</v>
+      </c>
+      <c r="G27">
+        <v>33.86</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="0"/>
+        <v>4.0675213320035458E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>150.75959999999998</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>45693</v>
+      </c>
       <c r="B28" s="9"/>
+      <c r="C28">
+        <v>120.175</v>
+      </c>
+      <c r="D28">
+        <v>34.4452</v>
+      </c>
+      <c r="E28">
+        <v>11.64</v>
+      </c>
+      <c r="F28">
+        <v>25.47</v>
+      </c>
+      <c r="G28">
+        <v>15.86</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1616453346631208E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>154.62020000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>45694</v>
+      </c>
       <c r="B29" s="9"/>
+      <c r="C29">
+        <v>106.816</v>
+      </c>
+      <c r="D29">
+        <v>34.731999999999999</v>
+      </c>
+      <c r="E29">
+        <v>10.33</v>
+      </c>
+      <c r="F29">
+        <v>22.51</v>
+      </c>
+      <c r="G29">
+        <v>3.83</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6990248226950358E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>141.548</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>45695</v>
+      </c>
       <c r="B30" s="9"/>
+      <c r="C30">
+        <v>104.64</v>
+      </c>
+      <c r="D30">
+        <v>35.201099999999997</v>
+      </c>
+      <c r="E30">
+        <v>10.18</v>
+      </c>
+      <c r="F30">
+        <v>21.77</v>
+      </c>
+      <c r="G30">
+        <v>6.23</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="0"/>
+        <v>3.623670212765958E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>139.84109999999998</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>45696</v>
+      </c>
       <c r="B31" s="9"/>
+      <c r="C31">
+        <v>103.977</v>
+      </c>
+      <c r="D31">
+        <v>35.698099999999997</v>
+      </c>
+      <c r="E31">
+        <v>10.18</v>
+      </c>
+      <c r="F31">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="G31">
+        <v>7.58</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6007106050531916E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>139.67509999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>45697</v>
+      </c>
       <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>103.911</v>
+      </c>
+      <c r="D32">
+        <v>36.447699999999998</v>
+      </c>
+      <c r="E32">
+        <v>10.26</v>
+      </c>
+      <c r="F32">
+        <v>19.45</v>
+      </c>
+      <c r="G32">
+        <v>9.98</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5984250332446809E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>140.3587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>45698</v>
+      </c>
       <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>102.681</v>
+      </c>
+      <c r="D33">
+        <v>37.048499999999997</v>
+      </c>
+      <c r="E33">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="F33">
+        <v>11.74</v>
+      </c>
+      <c r="G33">
+        <v>8.01</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5558302859042552E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>139.7295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>45699</v>
+      </c>
       <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>103.977</v>
+      </c>
+      <c r="D34">
+        <v>38.031799999999997</v>
+      </c>
+      <c r="E34">
+        <v>10.43</v>
+      </c>
+      <c r="F34">
+        <v>9.08</v>
+      </c>
+      <c r="G34">
+        <v>13.37</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6007106050531916E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>142.00880000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>45700</v>
+      </c>
       <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>103.26900000000001</v>
+      </c>
+      <c r="D35">
+        <v>38.4895</v>
+      </c>
+      <c r="E35">
+        <v>10.43</v>
+      </c>
+      <c r="F35">
+        <v>7.72</v>
+      </c>
+      <c r="G35">
+        <v>6.09</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5761926529255327E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>141.7585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>45701</v>
+      </c>
       <c r="B36" s="8"/>
+      <c r="C36">
+        <v>103.248</v>
+      </c>
+      <c r="D36">
+        <v>39.648200000000003</v>
+      </c>
+      <c r="E36">
+        <v>10.51</v>
+      </c>
+      <c r="F36">
+        <v>9.44</v>
+      </c>
+      <c r="G36">
+        <v>16.05</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5754654255319152E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>142.89620000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>45702</v>
+      </c>
+      <c r="C37">
+        <v>101.52200000000001</v>
+      </c>
+      <c r="D37">
+        <v>40.183700000000002</v>
+      </c>
+      <c r="E37">
+        <v>10.41</v>
+      </c>
+      <c r="F37">
+        <v>9.52</v>
+      </c>
+      <c r="G37">
+        <v>6.74</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5156942597517733E-2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>141.70570000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>45703</v>
+      </c>
+      <c r="C38">
+        <v>99.904499999999999</v>
+      </c>
+      <c r="D38">
+        <v>41.178800000000003</v>
+      </c>
+      <c r="E38">
+        <v>10.31</v>
+      </c>
+      <c r="F38">
+        <v>10.56</v>
+      </c>
+      <c r="G38">
+        <v>14.05</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="0"/>
+        <v>3.459680435505319E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>141.08330000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>45704</v>
+      </c>
+      <c r="C39">
+        <v>98.828199999999995</v>
+      </c>
+      <c r="D39">
+        <v>41.495600000000003</v>
+      </c>
+      <c r="E39">
+        <v>10.27</v>
+      </c>
+      <c r="F39">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G39">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4224083000886522E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>140.32380000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>45705</v>
+      </c>
+      <c r="C40">
+        <v>98.962900000000005</v>
+      </c>
+      <c r="D40">
+        <v>42.1785</v>
+      </c>
+      <c r="E40">
+        <v>10.37</v>
+      </c>
+      <c r="F40">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="G40">
+        <v>9.1</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4270729443705676E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>141.1414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>45706</v>
+      </c>
+      <c r="C41">
+        <v>107.637</v>
+      </c>
+      <c r="D41">
+        <v>43.469700000000003</v>
+      </c>
+      <c r="E41">
+        <v>11.45</v>
+      </c>
+      <c r="F41">
+        <v>10.49</v>
+      </c>
+      <c r="G41">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="0"/>
+        <v>3.7274559507978727E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>151.10669999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>45707</v>
+      </c>
+      <c r="C42">
+        <v>105.32899999999999</v>
+      </c>
+      <c r="D42">
+        <v>45.008600000000001</v>
+      </c>
+      <c r="E42">
+        <v>11.27</v>
+      </c>
+      <c r="F42">
+        <v>12.72</v>
+      </c>
+      <c r="G42">
+        <v>22.05</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6475301972517728E-2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>150.33760000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>45708</v>
+      </c>
+      <c r="C43">
+        <v>102.74</v>
+      </c>
+      <c r="D43">
+        <v>45.391300000000001</v>
+      </c>
+      <c r="E43">
+        <v>11.07</v>
+      </c>
+      <c r="F43">
+        <v>11.12</v>
+      </c>
+      <c r="G43">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5578734485815604E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>148.13130000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>45709</v>
+      </c>
+      <c r="C44">
+        <v>100.922</v>
+      </c>
+      <c r="D44">
+        <v>45.9285</v>
+      </c>
+      <c r="E44">
+        <v>10.95</v>
+      </c>
+      <c r="F44">
+        <v>11.16</v>
+      </c>
+      <c r="G44">
+        <v>6.93</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="0"/>
+        <v>3.494916334219858E-2</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>146.85050000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>45710</v>
+      </c>
+      <c r="C45">
+        <v>99.844300000000004</v>
+      </c>
+      <c r="D45">
+        <v>46.458300000000001</v>
+      </c>
+      <c r="E45">
+        <v>10.92</v>
+      </c>
+      <c r="F45">
+        <v>10.16</v>
+      </c>
+      <c r="G45">
+        <v>6.94</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4575957169769508E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>146.30260000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>45711</v>
+      </c>
+      <c r="C46">
+        <v>99.4208</v>
+      </c>
+      <c r="D46">
+        <v>46.971800000000002</v>
+      </c>
+      <c r="E46">
+        <v>10.97</v>
+      </c>
+      <c r="F46">
+        <v>10.47</v>
+      </c>
+      <c r="G46">
+        <v>6.24</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4429299645390071E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>146.39260000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f t="shared" si="1"/>
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <f t="shared" si="1"/>
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <f t="shared" si="1"/>
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <f t="shared" si="1"/>
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <f t="shared" si="1"/>
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <f t="shared" si="1"/>
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <f t="shared" si="1"/>
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <f t="shared" si="1"/>
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <f t="shared" si="1"/>
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <f t="shared" si="1"/>
+        <v>45726</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4688,7 +5450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4705,7 +5467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="88.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="87.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimitri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026349D4-60C4-4CF4-9FC9-0B870380C807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21600" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10995" windowHeight="11295" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="gUSD 26.06.25" sheetId="3" r:id="rId3"/>
     <sheet name="mPendle 27.03.25" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1760,7 +1759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:M30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2288,7 +2287,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2379,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2400,7 +2399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="78" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3641,11 +3640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,7 +3684,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" ht="87.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="88.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>25.96</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" ref="I7:I46" si="0">C7/$A$3</f>
+        <f t="shared" ref="I7:I63" si="0">C7/$A$3</f>
         <v>4.0633657468971636E-2</v>
       </c>
       <c r="M7">
@@ -3803,7 +3802,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A61" si="1">A7+1</f>
+        <f t="shared" ref="A8:A63" si="1">A7+1</f>
         <v>45673</v>
       </c>
       <c r="C8">
@@ -3834,7 +3833,7 @@
         <v>0.73255000000000003</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M46" si="4">C8+D8</f>
+        <f t="shared" ref="M8:M47" si="4">C8+D8</f>
         <v>115.8947</v>
       </c>
       <c r="O8" s="22">
@@ -4728,9 +4727,33 @@
         <f t="shared" si="0"/>
         <v>3.6779005984042559E-2</v>
       </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J63" si="9">C25-C24</f>
+        <v>-0.32800000000000296</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K63" si="10">D25-D24</f>
+        <v>1.6784999999999997</v>
+      </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M25:M63" si="11">C25+D25</f>
         <v>133.01339999999999</v>
+      </c>
+      <c r="O25" s="22">
+        <f t="shared" ref="O25:O63" si="12">(B25/I24-1)*100</f>
+        <v>-100</v>
+      </c>
+      <c r="P25" s="13">
+        <f t="shared" ref="P25:P63" si="13">E25-E24</f>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" ref="Q25:Q63" si="14">F25-F24</f>
+        <v>0.61999999999999922</v>
+      </c>
+      <c r="R25" s="20">
+        <f t="shared" ref="R25:R63" si="15">G25-G24</f>
+        <v>-8.2799999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -4758,9 +4781,33 @@
         <f t="shared" si="0"/>
         <v>3.8670143506205679E-2</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>5.4609999999999985</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="10"/>
+        <v>4.2628999999999984</v>
+      </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>142.7373</v>
+      </c>
+      <c r="O26" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P26" s="13">
+        <f t="shared" si="13"/>
+        <v>0.62999999999999901</v>
+      </c>
+      <c r="Q26" s="17">
+        <f t="shared" si="14"/>
+        <v>8.3500000000000014</v>
+      </c>
+      <c r="R26" s="20">
+        <f t="shared" si="15"/>
+        <v>61.14</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -4788,9 +4835,33 @@
         <f t="shared" si="0"/>
         <v>4.0675213320035458E-2</v>
       </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>5.789999999999992</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="10"/>
+        <v>2.2322999999999986</v>
+      </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>150.75959999999998</v>
+      </c>
+      <c r="O27" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" si="13"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="Q27" s="17">
+        <f t="shared" si="14"/>
+        <v>2.16</v>
+      </c>
+      <c r="R27" s="20">
+        <f t="shared" si="15"/>
+        <v>-39.200000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -4818,9 +4889,33 @@
         <f t="shared" si="0"/>
         <v>4.1616453346631208E-2</v>
       </c>
+      <c r="J28">
+        <f t="shared" si="9"/>
+        <v>2.7180000000000035</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="10"/>
+        <v>1.1426000000000016</v>
+      </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>154.62020000000001</v>
+      </c>
+      <c r="O28" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P28" s="13">
+        <f t="shared" si="13"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="Q28" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.56000000000000227</v>
+      </c>
+      <c r="R28" s="20">
+        <f t="shared" si="15"/>
+        <v>-18</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -4848,9 +4943,33 @@
         <f t="shared" si="0"/>
         <v>3.6990248226950358E-2</v>
       </c>
+      <c r="J29">
+        <f t="shared" si="9"/>
+        <v>-13.358999999999995</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="10"/>
+        <v>0.2867999999999995</v>
+      </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>141.548</v>
+      </c>
+      <c r="O29" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" si="13"/>
+        <v>-1.3100000000000005</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="14"/>
+        <v>-2.9599999999999973</v>
+      </c>
+      <c r="R29" s="20">
+        <f t="shared" si="15"/>
+        <v>-12.03</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -4878,9 +4997,33 @@
         <f t="shared" si="0"/>
         <v>3.623670212765958E-2</v>
       </c>
+      <c r="J30">
+        <f t="shared" si="9"/>
+        <v>-2.1760000000000019</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="10"/>
+        <v>0.46909999999999741</v>
+      </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>139.84109999999998</v>
+      </c>
+      <c r="O30" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="Q30" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.74000000000000199</v>
+      </c>
+      <c r="R30" s="20">
+        <f t="shared" si="15"/>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -4908,9 +5051,33 @@
         <f t="shared" si="0"/>
         <v>3.6007106050531916E-2</v>
       </c>
+      <c r="J31">
+        <f t="shared" si="9"/>
+        <v>-0.6629999999999967</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="10"/>
+        <v>0.49699999999999989</v>
+      </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>139.67509999999999</v>
+      </c>
+      <c r="O31" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P31" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="17">
+        <f t="shared" si="14"/>
+        <v>-1.4400000000000013</v>
+      </c>
+      <c r="R31" s="20">
+        <f t="shared" si="15"/>
+        <v>1.3499999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -4938,12 +5105,36 @@
         <f t="shared" si="0"/>
         <v>3.5984250332446809E-2</v>
       </c>
+      <c r="J32">
+        <f t="shared" si="9"/>
+        <v>-6.6000000000002501E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>0.74960000000000093</v>
+      </c>
       <c r="M32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>140.3587</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O32" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P32" s="13">
+        <f t="shared" si="13"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Q32" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.87999999999999901</v>
+      </c>
+      <c r="R32" s="20">
+        <f t="shared" si="15"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>45698</v>
@@ -4968,12 +5159,36 @@
         <f t="shared" si="0"/>
         <v>3.5558302859042552E-2</v>
       </c>
+      <c r="J33">
+        <f t="shared" si="9"/>
+        <v>-1.230000000000004</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="10"/>
+        <v>0.60079999999999956</v>
+      </c>
       <c r="M33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>139.7295</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O33" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P33" s="13">
+        <f t="shared" si="13"/>
+        <v>-4.9999999999998934E-2</v>
+      </c>
+      <c r="Q33" s="17">
+        <f t="shared" si="14"/>
+        <v>-7.7099999999999991</v>
+      </c>
+      <c r="R33" s="20">
+        <f t="shared" si="15"/>
+        <v>-1.9700000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>45699</v>
@@ -4998,12 +5213,36 @@
         <f t="shared" si="0"/>
         <v>3.6007106050531916E-2</v>
       </c>
+      <c r="J34">
+        <f t="shared" si="9"/>
+        <v>1.2960000000000065</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="10"/>
+        <v>0.98329999999999984</v>
+      </c>
       <c r="M34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>142.00880000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P34" s="13">
+        <f t="shared" si="13"/>
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="Q34" s="17">
+        <f t="shared" si="14"/>
+        <v>-2.66</v>
+      </c>
+      <c r="R34" s="20">
+        <f t="shared" si="15"/>
+        <v>5.3599999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>45700</v>
@@ -5028,12 +5267,36 @@
         <f t="shared" si="0"/>
         <v>3.5761926529255327E-2</v>
       </c>
+      <c r="J35">
+        <f t="shared" si="9"/>
+        <v>-0.70799999999999841</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="10"/>
+        <v>0.45770000000000266</v>
+      </c>
       <c r="M35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>141.7585</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O35" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P35" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="17">
+        <f t="shared" si="14"/>
+        <v>-1.3600000000000003</v>
+      </c>
+      <c r="R35" s="20">
+        <f t="shared" si="15"/>
+        <v>-7.2799999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>45701</v>
@@ -5058,12 +5321,36 @@
         <f t="shared" si="0"/>
         <v>3.5754654255319152E-2</v>
       </c>
+      <c r="J36">
+        <f t="shared" si="9"/>
+        <v>-2.1000000000000796E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="10"/>
+        <v>1.1587000000000032</v>
+      </c>
       <c r="M36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>142.89620000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O36" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P36" s="13">
+        <f t="shared" si="13"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Q36" s="17">
+        <f t="shared" si="14"/>
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="R36" s="20">
+        <f t="shared" si="15"/>
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>45702</v>
@@ -5087,12 +5374,36 @@
         <f t="shared" si="0"/>
         <v>3.5156942597517733E-2</v>
       </c>
+      <c r="J37">
+        <f t="shared" si="9"/>
+        <v>-1.7259999999999991</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="10"/>
+        <v>0.53549999999999898</v>
+      </c>
       <c r="M37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>141.70570000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O37" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P37" s="13">
+        <f t="shared" si="13"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="Q37" s="17">
+        <f t="shared" si="14"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="R37" s="20">
+        <f t="shared" si="15"/>
+        <v>-9.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>45703</v>
@@ -5116,12 +5427,36 @@
         <f t="shared" si="0"/>
         <v>3.459680435505319E-2</v>
       </c>
+      <c r="J38">
+        <f t="shared" si="9"/>
+        <v>-1.6175000000000068</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="10"/>
+        <v>0.99510000000000076</v>
+      </c>
       <c r="M38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>141.08330000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O38" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P38" s="13">
+        <f t="shared" si="13"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="Q38" s="17">
+        <f t="shared" si="14"/>
+        <v>1.0400000000000009</v>
+      </c>
+      <c r="R38" s="20">
+        <f t="shared" si="15"/>
+        <v>7.3100000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>45704</v>
@@ -5145,12 +5480,36 @@
         <f t="shared" si="0"/>
         <v>3.4224083000886522E-2</v>
       </c>
+      <c r="J39">
+        <f t="shared" si="9"/>
+        <v>-1.0763000000000034</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="10"/>
+        <v>0.31680000000000064</v>
+      </c>
       <c r="M39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>140.32380000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O39" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P39" s="13">
+        <f t="shared" si="13"/>
+        <v>-4.0000000000000924E-2</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.84999999999999964</v>
+      </c>
+      <c r="R39" s="20">
+        <f t="shared" si="15"/>
+        <v>-9.740000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>45705</v>
@@ -5174,12 +5533,36 @@
         <f t="shared" si="0"/>
         <v>3.4270729443705676E-2</v>
       </c>
+      <c r="J40">
+        <f t="shared" si="9"/>
+        <v>0.13470000000000937</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="10"/>
+        <v>0.68289999999999651</v>
+      </c>
       <c r="M40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>141.1414</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O40" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P40" s="13">
+        <f t="shared" si="13"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="Q40" s="17">
+        <f t="shared" si="14"/>
+        <v>0.15999999999999837</v>
+      </c>
+      <c r="R40" s="20">
+        <f t="shared" si="15"/>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>45706</v>
@@ -5203,12 +5586,36 @@
         <f t="shared" si="0"/>
         <v>3.7274559507978727E-2</v>
       </c>
+      <c r="J41">
+        <f t="shared" si="9"/>
+        <v>8.6740999999999957</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="10"/>
+        <v>1.2912000000000035</v>
+      </c>
       <c r="M41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>151.10669999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O41" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P41" s="13">
+        <f t="shared" si="13"/>
+        <v>1.08</v>
+      </c>
+      <c r="Q41" s="17">
+        <f t="shared" si="14"/>
+        <v>0.62000000000000099</v>
+      </c>
+      <c r="R41" s="20">
+        <f t="shared" si="15"/>
+        <v>8.8899999999999988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>45707</v>
@@ -5232,12 +5639,36 @@
         <f t="shared" si="0"/>
         <v>3.6475301972517728E-2</v>
       </c>
+      <c r="J42">
+        <f t="shared" si="9"/>
+        <v>-2.3080000000000069</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="10"/>
+        <v>1.5388999999999982</v>
+      </c>
       <c r="M42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>150.33760000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O42" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P42" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.17999999999999972</v>
+      </c>
+      <c r="Q42" s="17">
+        <f t="shared" si="14"/>
+        <v>2.2300000000000004</v>
+      </c>
+      <c r="R42" s="20">
+        <f t="shared" si="15"/>
+        <v>4.0600000000000023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>45708</v>
@@ -5261,12 +5692,36 @@
         <f t="shared" si="0"/>
         <v>3.5578734485815604E-2</v>
       </c>
+      <c r="J43">
+        <f t="shared" si="9"/>
+        <v>-2.5889999999999986</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="10"/>
+        <v>0.38269999999999982</v>
+      </c>
       <c r="M43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>148.13130000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O43" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P43" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" si="14"/>
+        <v>-1.6000000000000014</v>
+      </c>
+      <c r="R43" s="20">
+        <f t="shared" si="15"/>
+        <v>-17.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>45709</v>
@@ -5290,12 +5745,36 @@
         <f t="shared" si="0"/>
         <v>3.494916334219858E-2</v>
       </c>
+      <c r="J44">
+        <f t="shared" si="9"/>
+        <v>-1.8179999999999978</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="10"/>
+        <v>0.53719999999999857</v>
+      </c>
       <c r="M44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>146.85050000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O44" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P44" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.12000000000000099</v>
+      </c>
+      <c r="Q44" s="17">
+        <f t="shared" si="14"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="R44" s="20">
+        <f t="shared" si="15"/>
+        <v>1.9100000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>45710</v>
@@ -5319,12 +5798,36 @@
         <f t="shared" si="0"/>
         <v>3.4575957169769508E-2</v>
       </c>
+      <c r="J45">
+        <f t="shared" si="9"/>
+        <v>-1.077699999999993</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="10"/>
+        <v>0.5298000000000016</v>
+      </c>
       <c r="M45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>146.30260000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O45" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P45" s="13">
+        <f t="shared" si="13"/>
+        <v>-2.9999999999999361E-2</v>
+      </c>
+      <c r="Q45" s="17">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="R45" s="20">
+        <f t="shared" si="15"/>
+        <v>1.0000000000000675E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
         <v>45711</v>
@@ -5348,99 +5851,934 @@
         <f t="shared" si="0"/>
         <v>3.4429299645390071E-2</v>
       </c>
+      <c r="J46">
+        <f t="shared" si="9"/>
+        <v>-0.42350000000000421</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="10"/>
+        <v>0.51350000000000051</v>
+      </c>
       <c r="M46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>146.39260000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O46" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P46" s="13">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="Q46" s="17">
+        <f t="shared" si="14"/>
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="R46" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
         <v>45712</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>98.978200000000001</v>
+      </c>
+      <c r="D47">
+        <v>47.378500000000003</v>
+      </c>
+      <c r="E47">
+        <v>11.01</v>
+      </c>
+      <c r="F47">
+        <v>9.99</v>
+      </c>
+      <c r="G47">
+        <v>5.54</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4276027814716316E-2</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="9"/>
+        <v>-0.44259999999999877</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="10"/>
+        <v>0.40670000000000073</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="11"/>
+        <v>146.35669999999999</v>
+      </c>
+      <c r="O47" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P47" s="13">
+        <f t="shared" si="13"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="Q47" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.48000000000000043</v>
+      </c>
+      <c r="R47" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
         <v>45713</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>96.511200000000002</v>
+      </c>
+      <c r="D48">
+        <v>48.132399999999997</v>
+      </c>
+      <c r="E48">
+        <v>10.8</v>
+      </c>
+      <c r="F48">
+        <v>8.93</v>
+      </c>
+      <c r="G48">
+        <v>11.72</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3421708776595747E-2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="9"/>
+        <v>-2.4669999999999987</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="10"/>
+        <v>0.75389999999999446</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="11"/>
+        <v>144.64359999999999</v>
+      </c>
+      <c r="O48" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P48" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.20999999999999908</v>
+      </c>
+      <c r="Q48" s="17">
+        <f t="shared" si="14"/>
+        <v>-1.0600000000000005</v>
+      </c>
+      <c r="R48" s="20">
+        <f t="shared" si="15"/>
+        <v>6.1800000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
         <v>45714</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>95.649000000000001</v>
+      </c>
+      <c r="D49">
+        <v>48.988799999999998</v>
+      </c>
+      <c r="E49">
+        <v>10.8</v>
+      </c>
+      <c r="F49">
+        <v>7.52</v>
+      </c>
+      <c r="G49">
+        <v>10.25</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3123129986702131E-2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="9"/>
+        <v>-0.86220000000000141</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="10"/>
+        <v>0.85640000000000072</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="11"/>
+        <v>144.6378</v>
+      </c>
+      <c r="O49" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P49" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="17">
+        <f t="shared" si="14"/>
+        <v>-1.4100000000000001</v>
+      </c>
+      <c r="R49" s="20">
+        <f t="shared" si="15"/>
+        <v>-1.4700000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
         <v>45715</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>102.702</v>
+      </c>
+      <c r="D50">
+        <v>49.462600000000002</v>
+      </c>
+      <c r="E50">
+        <v>11.76</v>
+      </c>
+      <c r="F50">
+        <v>7.68</v>
+      </c>
+      <c r="G50">
+        <v>6.21</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5565575132978727E-2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="9"/>
+        <v>7.0529999999999973</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="10"/>
+        <v>0.47380000000000422</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="11"/>
+        <v>152.16460000000001</v>
+      </c>
+      <c r="O50" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P50" s="13">
+        <f t="shared" si="13"/>
+        <v>0.95999999999999908</v>
+      </c>
+      <c r="Q50" s="17">
+        <f t="shared" si="14"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="R50" s="20">
+        <f t="shared" si="15"/>
+        <v>-4.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
         <v>45716</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>99.729100000000003</v>
+      </c>
+      <c r="D51">
+        <v>49.823500000000003</v>
+      </c>
+      <c r="E51">
+        <v>11.49</v>
+      </c>
+      <c r="F51">
+        <v>7.38</v>
+      </c>
+      <c r="G51">
+        <v>5.26</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4536063552748228E-2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="9"/>
+        <v>-2.9728999999999957</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="10"/>
+        <v>0.36090000000000089</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="11"/>
+        <v>149.55260000000001</v>
+      </c>
+      <c r="O51" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P51" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.26999999999999957</v>
+      </c>
+      <c r="Q51" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="R51" s="20">
+        <f t="shared" si="15"/>
+        <v>-0.95000000000000018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
         <v>45717</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>97.6233</v>
+      </c>
+      <c r="D52">
+        <v>50.767600000000002</v>
+      </c>
+      <c r="E52">
+        <v>11.34</v>
+      </c>
+      <c r="F52">
+        <v>8.14</v>
+      </c>
+      <c r="G52">
+        <v>11.38</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3806827626329791E-2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="9"/>
+        <v>-2.1058000000000021</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="10"/>
+        <v>0.94409999999999883</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="11"/>
+        <v>148.39089999999999</v>
+      </c>
+      <c r="O52" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P52" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="Q52" s="17">
+        <f t="shared" si="14"/>
+        <v>0.76000000000000068</v>
+      </c>
+      <c r="R52" s="20">
+        <f t="shared" si="15"/>
+        <v>6.120000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
         <v>45718</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>96.746300000000005</v>
+      </c>
+      <c r="D53">
+        <v>50.938699999999997</v>
+      </c>
+      <c r="E53">
+        <v>11.33</v>
+      </c>
+      <c r="F53">
+        <v>7.53</v>
+      </c>
+      <c r="G53">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I53" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3503123614804967E-2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="9"/>
+        <v>-0.87699999999999534</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="10"/>
+        <v>0.17109999999999559</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="11"/>
+        <v>147.685</v>
+      </c>
+      <c r="O53" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P53" s="13">
+        <f t="shared" si="13"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="Q53" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.61000000000000032</v>
+      </c>
+      <c r="R53" s="20">
+        <f t="shared" si="15"/>
+        <v>-9.370000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>45719</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>93.099100000000007</v>
+      </c>
+      <c r="D54">
+        <v>52.011499999999998</v>
+      </c>
+      <c r="E54">
+        <v>10.97</v>
+      </c>
+      <c r="F54">
+        <v>8.83</v>
+      </c>
+      <c r="G54">
+        <v>14.76</v>
+      </c>
+      <c r="I54" s="9">
+        <f t="shared" si="0"/>
+        <v>3.2240102781471637E-2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="9"/>
+        <v>-3.647199999999998</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="10"/>
+        <v>1.0728000000000009</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="11"/>
+        <v>145.11060000000001</v>
+      </c>
+      <c r="O54" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P54" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.35999999999999943</v>
+      </c>
+      <c r="Q54" s="17">
+        <f t="shared" si="14"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="R54" s="20">
+        <f t="shared" si="15"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
         <v>45720</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>92.088800000000006</v>
+      </c>
+      <c r="D55">
+        <v>53.161700000000003</v>
+      </c>
+      <c r="E55">
+        <v>10.94</v>
+      </c>
+      <c r="F55">
+        <v>9.43</v>
+      </c>
+      <c r="G55">
+        <v>16.09</v>
+      </c>
+      <c r="I55" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1890237145390077E-2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="9"/>
+        <v>-1.0103000000000009</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="10"/>
+        <v>1.1502000000000052</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="11"/>
+        <v>145.25050000000002</v>
+      </c>
+      <c r="O55" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P55" s="13">
+        <f t="shared" si="13"/>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="Q55" s="17">
+        <f t="shared" si="14"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="R55" s="20">
+        <f t="shared" si="15"/>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
         <v>45721</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>90.948099999999997</v>
+      </c>
+      <c r="D56">
+        <v>54.155700000000003</v>
+      </c>
+      <c r="E56">
+        <v>10.9</v>
+      </c>
+      <c r="F56">
+        <v>9.9</v>
+      </c>
+      <c r="G56">
+        <v>13.48</v>
+      </c>
+      <c r="I56" s="9">
+        <f t="shared" si="0"/>
+        <v>3.149521415115248E-2</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="9"/>
+        <v>-1.1407000000000096</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="10"/>
+        <v>0.99399999999999977</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="11"/>
+        <v>145.10380000000001</v>
+      </c>
+      <c r="O56" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P56" s="13">
+        <f t="shared" si="13"/>
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="Q56" s="17">
+        <f t="shared" si="14"/>
+        <v>0.47000000000000064</v>
+      </c>
+      <c r="R56" s="20">
+        <f t="shared" si="15"/>
+        <v>-2.6099999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
         <v>45722</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>89.752099999999999</v>
+      </c>
+      <c r="D57">
+        <v>54.419899999999998</v>
+      </c>
+      <c r="E57">
+        <v>10.85</v>
+      </c>
+      <c r="F57">
+        <v>9.52</v>
+      </c>
+      <c r="G57">
+        <v>3.42</v>
+      </c>
+      <c r="I57" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1081040835549648E-2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="9"/>
+        <v>-1.195999999999998</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="10"/>
+        <v>0.26419999999999533</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="11"/>
+        <v>144.172</v>
+      </c>
+      <c r="O57" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P57" s="13">
+        <f t="shared" si="13"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="Q57" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.38000000000000078</v>
+      </c>
+      <c r="R57" s="20">
+        <f t="shared" si="15"/>
+        <v>-10.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
         <v>45723</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>88.156999999999996</v>
+      </c>
+      <c r="D58">
+        <v>55.257199999999997</v>
+      </c>
+      <c r="E58">
+        <v>10.74</v>
+      </c>
+      <c r="F58">
+        <v>10.28</v>
+      </c>
+      <c r="G58">
+        <v>11.34</v>
+      </c>
+      <c r="I58" s="9">
+        <f t="shared" si="0"/>
+        <v>3.0528659685283687E-2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="9"/>
+        <v>-1.5951000000000022</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="10"/>
+        <v>0.83729999999999905</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="11"/>
+        <v>143.41419999999999</v>
+      </c>
+      <c r="O58" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P58" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="Q58" s="17">
+        <f t="shared" si="14"/>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="R58" s="20">
+        <f t="shared" si="15"/>
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
         <v>45724</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>86.425899999999999</v>
+      </c>
+      <c r="D59">
+        <v>55.955500000000001</v>
+      </c>
+      <c r="E59">
+        <v>10.62</v>
+      </c>
+      <c r="F59">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="G59">
+        <v>9.27</v>
+      </c>
+      <c r="I59" s="9">
+        <f t="shared" si="0"/>
+        <v>2.9929181903812059E-2</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="9"/>
+        <v>-1.7310999999999979</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="10"/>
+        <v>0.69830000000000325</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="11"/>
+        <v>142.38139999999999</v>
+      </c>
+      <c r="O59" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P59" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.12000000000000099</v>
+      </c>
+      <c r="Q59" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.31999999999999851</v>
+      </c>
+      <c r="R59" s="20">
+        <f t="shared" si="15"/>
+        <v>-2.0700000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
         <v>45725</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>85.294600000000003</v>
+      </c>
+      <c r="D60">
+        <v>56.543300000000002</v>
+      </c>
+      <c r="E60">
+        <v>10.57</v>
+      </c>
+      <c r="F60">
+        <v>10.78</v>
+      </c>
+      <c r="G60">
+        <v>7.35</v>
+      </c>
+      <c r="I60" s="9">
+        <f t="shared" si="0"/>
+        <v>2.9537414117907803E-2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="9"/>
+        <v>-1.131299999999996</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="10"/>
+        <v>0.58780000000000143</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="11"/>
+        <v>141.83789999999999</v>
+      </c>
+      <c r="O60" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P60" s="13">
+        <f t="shared" si="13"/>
+        <v>-4.9999999999998934E-2</v>
+      </c>
+      <c r="Q60" s="17">
+        <f t="shared" si="14"/>
+        <v>0.81999999999999851</v>
+      </c>
+      <c r="R60" s="20">
+        <f t="shared" si="15"/>
+        <v>-1.92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" si="1"/>
         <v>45726</v>
+      </c>
+      <c r="C61">
+        <v>84.926500000000004</v>
+      </c>
+      <c r="D61">
+        <v>58.529200000000003</v>
+      </c>
+      <c r="E61">
+        <v>10.62</v>
+      </c>
+      <c r="F61">
+        <v>12.67</v>
+      </c>
+      <c r="G61">
+        <v>28.98</v>
+      </c>
+      <c r="I61" s="9">
+        <f t="shared" si="0"/>
+        <v>2.9409941544769506E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="9"/>
+        <v>-0.36809999999999832</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="10"/>
+        <v>1.9859000000000009</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="11"/>
+        <v>143.45570000000001</v>
+      </c>
+      <c r="O61" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P61" s="13">
+        <f t="shared" si="13"/>
+        <v>4.9999999999998934E-2</v>
+      </c>
+      <c r="Q61" s="17">
+        <f t="shared" si="14"/>
+        <v>1.8900000000000006</v>
+      </c>
+      <c r="R61" s="20">
+        <f t="shared" si="15"/>
+        <v>21.630000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <f t="shared" si="1"/>
+        <v>45727</v>
+      </c>
+      <c r="C62">
+        <v>79.314899999999994</v>
+      </c>
+      <c r="D62">
+        <v>62.142400000000002</v>
+      </c>
+      <c r="E62">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F62">
+        <v>17.75</v>
+      </c>
+      <c r="G62">
+        <v>58.53</v>
+      </c>
+      <c r="I62" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7466651429521278E-2</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="9"/>
+        <v>-5.6116000000000099</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="10"/>
+        <v>3.6131999999999991</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="11"/>
+        <v>141.4573</v>
+      </c>
+      <c r="O62" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P62" s="13">
+        <f t="shared" si="13"/>
+        <v>-0.64999999999999858</v>
+      </c>
+      <c r="Q62" s="17">
+        <f t="shared" si="14"/>
+        <v>5.08</v>
+      </c>
+      <c r="R62" s="20">
+        <f t="shared" si="15"/>
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <f t="shared" si="1"/>
+        <v>45728</v>
+      </c>
+      <c r="C63">
+        <v>78.558700000000002</v>
+      </c>
+      <c r="D63">
+        <v>62.697800000000001</v>
+      </c>
+      <c r="E63">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F63">
+        <v>16.86</v>
+      </c>
+      <c r="G63">
+        <v>7.85</v>
+      </c>
+      <c r="I63" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7204780308067378E-2</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="9"/>
+        <v>-0.75619999999999266</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="10"/>
+        <v>0.55539999999999878</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="11"/>
+        <v>141.25650000000002</v>
+      </c>
+      <c r="O63" s="22">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="P63" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="17">
+        <f t="shared" si="14"/>
+        <v>-0.89000000000000057</v>
+      </c>
+      <c r="R63" s="20">
+        <f t="shared" si="15"/>
+        <v>-50.68</v>
       </c>
     </row>
   </sheetData>
@@ -5450,7 +6788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5467,7 +6805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="87.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="88.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimitri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\____  __ + _\фprttp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10995" windowHeight="11295" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="11295" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
     <sheet name="gUSD 26.12.24" sheetId="2" r:id="rId2"/>
     <sheet name="gUSD 26.06.25" sheetId="3" r:id="rId3"/>
-    <sheet name="mPendle 27.03.25" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>расчет</t>
   </si>
@@ -87,9 +86,6 @@
   </si>
   <si>
     <t>2326,45 YT</t>
-  </si>
-  <si>
-    <t>1540,83  YT</t>
   </si>
   <si>
     <t>изм. price</t>
@@ -3641,10 +3637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,7 +3661,7 @@
         <v>1145.8699999999999</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -3677,7 +3673,13 @@
         <v>2887.68</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>5170.7299999999996</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -3692,7 +3694,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>8</v>
@@ -3717,16 +3719,16 @@
         <v>14</v>
       </c>
       <c r="O4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3802,7 +3804,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A63" si="1">A7+1</f>
+        <f t="shared" ref="A8:A72" si="1">A7+1</f>
         <v>45673</v>
       </c>
       <c r="C8">
@@ -3833,11 +3835,11 @@
         <v>0.73255000000000003</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M47" si="4">C8+D8</f>
+        <f t="shared" ref="M8:M24" si="4">C8+D8</f>
         <v>115.8947</v>
       </c>
       <c r="O8" s="22">
-        <f t="shared" ref="O8:O23" si="5">(I8/I7-1)*100</f>
+        <f t="shared" ref="O8:O71" si="5">(I8/I7-1)*100</f>
         <v>-1.8638622088514301</v>
       </c>
       <c r="P8" s="13">
@@ -4686,8 +4688,8 @@
         <v>131.66290000000001</v>
       </c>
       <c r="O24" s="22">
-        <f>(B24/I23-1)*100</f>
-        <v>-100</v>
+        <f t="shared" si="5"/>
+        <v>-3.3486051258788896</v>
       </c>
       <c r="P24" s="13">
         <f t="shared" si="6"/>
@@ -4740,19 +4742,19 @@
         <v>133.01339999999999</v>
       </c>
       <c r="O25" s="22">
-        <f t="shared" ref="O25:O63" si="12">(B25/I24-1)*100</f>
-        <v>-100</v>
+        <f t="shared" si="5"/>
+        <v>-0.30788292939342154</v>
       </c>
       <c r="P25" s="13">
-        <f t="shared" ref="P25:P63" si="13">E25-E24</f>
+        <f t="shared" ref="P25:P63" si="12">E25-E24</f>
         <v>4.0000000000000924E-2</v>
       </c>
       <c r="Q25" s="17">
-        <f t="shared" ref="Q25:Q63" si="14">F25-F24</f>
+        <f t="shared" ref="Q25:Q63" si="13">F25-F24</f>
         <v>0.61999999999999922</v>
       </c>
       <c r="R25" s="20">
-        <f t="shared" ref="R25:R63" si="15">G25-G24</f>
+        <f t="shared" ref="R25:R63" si="14">G25-G24</f>
         <v>-8.2799999999999994</v>
       </c>
     </row>
@@ -4794,19 +4796,19 @@
         <v>142.7373</v>
       </c>
       <c r="O26" s="22">
+        <f t="shared" si="5"/>
+        <v>5.1418940549498027</v>
+      </c>
+      <c r="P26" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P26" s="13">
+        <v>0.62999999999999901</v>
+      </c>
+      <c r="Q26" s="17">
         <f t="shared" si="13"/>
-        <v>0.62999999999999901</v>
-      </c>
-      <c r="Q26" s="17">
+        <v>8.3500000000000014</v>
+      </c>
+      <c r="R26" s="20">
         <f t="shared" si="14"/>
-        <v>8.3500000000000014</v>
-      </c>
-      <c r="R26" s="20">
-        <f t="shared" si="15"/>
         <v>61.14</v>
       </c>
     </row>
@@ -4848,19 +4850,19 @@
         <v>150.75959999999998</v>
       </c>
       <c r="O27" s="22">
+        <f t="shared" si="5"/>
+        <v>5.1850591490771425</v>
+      </c>
+      <c r="P27" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P27" s="13">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="Q27" s="17">
         <f t="shared" si="13"/>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="Q27" s="17">
+        <v>2.16</v>
+      </c>
+      <c r="R27" s="20">
         <f t="shared" si="14"/>
-        <v>2.16</v>
-      </c>
-      <c r="R27" s="20">
-        <f t="shared" si="15"/>
         <v>-39.200000000000003</v>
       </c>
     </row>
@@ -4902,19 +4904,19 @@
         <v>154.62020000000001</v>
       </c>
       <c r="O28" s="22">
+        <f t="shared" si="5"/>
+        <v>2.314038328920387</v>
+      </c>
+      <c r="P28" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P28" s="13">
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="Q28" s="17">
         <f t="shared" si="13"/>
-        <v>0.37000000000000099</v>
-      </c>
-      <c r="Q28" s="17">
+        <v>-0.56000000000000227</v>
+      </c>
+      <c r="R28" s="20">
         <f t="shared" si="14"/>
-        <v>-0.56000000000000227</v>
-      </c>
-      <c r="R28" s="20">
-        <f t="shared" si="15"/>
         <v>-18</v>
       </c>
     </row>
@@ -4956,19 +4958,19 @@
         <v>141.548</v>
       </c>
       <c r="O29" s="22">
+        <f t="shared" si="5"/>
+        <v>-11.116288745579361</v>
+      </c>
+      <c r="P29" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P29" s="13">
+        <v>-1.3100000000000005</v>
+      </c>
+      <c r="Q29" s="17">
         <f t="shared" si="13"/>
-        <v>-1.3100000000000005</v>
-      </c>
-      <c r="Q29" s="17">
+        <v>-2.9599999999999973</v>
+      </c>
+      <c r="R29" s="20">
         <f t="shared" si="14"/>
-        <v>-2.9599999999999973</v>
-      </c>
-      <c r="R29" s="20">
-        <f t="shared" si="15"/>
         <v>-12.03</v>
       </c>
     </row>
@@ -5010,19 +5012,19 @@
         <v>139.84109999999998</v>
       </c>
       <c r="O30" s="22">
+        <f t="shared" si="5"/>
+        <v>-2.0371479928100622</v>
+      </c>
+      <c r="P30" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P30" s="13">
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="Q30" s="17">
         <f t="shared" si="13"/>
-        <v>-0.15000000000000036</v>
-      </c>
-      <c r="Q30" s="17">
+        <v>-0.74000000000000199</v>
+      </c>
+      <c r="R30" s="20">
         <f t="shared" si="14"/>
-        <v>-0.74000000000000199</v>
-      </c>
-      <c r="R30" s="20">
-        <f t="shared" si="15"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -5064,19 +5066,19 @@
         <v>139.67509999999999</v>
       </c>
       <c r="O31" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.63360091743120961</v>
+      </c>
+      <c r="P31" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="17">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="17">
+        <v>-1.4400000000000013</v>
+      </c>
+      <c r="R31" s="20">
         <f t="shared" si="14"/>
-        <v>-1.4400000000000013</v>
-      </c>
-      <c r="R31" s="20">
-        <f t="shared" si="15"/>
         <v>1.3499999999999996</v>
       </c>
     </row>
@@ -5118,19 +5120,19 @@
         <v>140.3587</v>
       </c>
       <c r="O32" s="22">
+        <f t="shared" si="5"/>
+        <v>-6.3475576329385941E-2</v>
+      </c>
+      <c r="P32" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P32" s="13">
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Q32" s="17">
         <f t="shared" si="13"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="Q32" s="17">
+        <v>-0.87999999999999901</v>
+      </c>
+      <c r="R32" s="20">
         <f t="shared" si="14"/>
-        <v>-0.87999999999999901</v>
-      </c>
-      <c r="R32" s="20">
-        <f t="shared" si="15"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -5172,19 +5174,19 @@
         <v>139.7295</v>
       </c>
       <c r="O33" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.1837052862545883</v>
+      </c>
+      <c r="P33" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P33" s="13">
+        <v>-4.9999999999998934E-2</v>
+      </c>
+      <c r="Q33" s="17">
         <f t="shared" si="13"/>
-        <v>-4.9999999999998934E-2</v>
-      </c>
-      <c r="Q33" s="17">
+        <v>-7.7099999999999991</v>
+      </c>
+      <c r="R33" s="20">
         <f t="shared" si="14"/>
-        <v>-7.7099999999999991</v>
-      </c>
-      <c r="R33" s="20">
-        <f t="shared" si="15"/>
         <v>-1.9700000000000006</v>
       </c>
     </row>
@@ -5226,19 +5228,19 @@
         <v>142.00880000000001</v>
       </c>
       <c r="O34" s="22">
+        <f t="shared" si="5"/>
+        <v>1.2621614514856772</v>
+      </c>
+      <c r="P34" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P34" s="13">
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="Q34" s="17">
         <f t="shared" si="13"/>
-        <v>0.21999999999999886</v>
-      </c>
-      <c r="Q34" s="17">
+        <v>-2.66</v>
+      </c>
+      <c r="R34" s="20">
         <f t="shared" si="14"/>
-        <v>-2.66</v>
-      </c>
-      <c r="R34" s="20">
-        <f t="shared" si="15"/>
         <v>5.3599999999999994</v>
       </c>
     </row>
@@ -5280,19 +5282,19 @@
         <v>141.7585</v>
       </c>
       <c r="O35" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.68091981880606944</v>
+      </c>
+      <c r="P35" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="17">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="17">
+        <v>-1.3600000000000003</v>
+      </c>
+      <c r="R35" s="20">
         <f t="shared" si="14"/>
-        <v>-1.3600000000000003</v>
-      </c>
-      <c r="R35" s="20">
-        <f t="shared" si="15"/>
         <v>-7.2799999999999994</v>
       </c>
     </row>
@@ -5334,19 +5336,19 @@
         <v>142.89620000000002</v>
       </c>
       <c r="O36" s="22">
+        <f t="shared" si="5"/>
+        <v>-2.0335240972624291E-2</v>
+      </c>
+      <c r="P36" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P36" s="13">
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Q36" s="17">
         <f t="shared" si="13"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="Q36" s="17">
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="R36" s="20">
         <f t="shared" si="14"/>
-        <v>1.7199999999999998</v>
-      </c>
-      <c r="R36" s="20">
-        <f t="shared" si="15"/>
         <v>9.9600000000000009</v>
       </c>
     </row>
@@ -5387,19 +5389,19 @@
         <v>141.70570000000001</v>
       </c>
       <c r="O37" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.6717030838369729</v>
+      </c>
+      <c r="P37" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P37" s="13">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="Q37" s="17">
         <f t="shared" si="13"/>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="Q37" s="17">
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="R37" s="20">
         <f t="shared" si="14"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="R37" s="20">
-        <f t="shared" si="15"/>
         <v>-9.31</v>
       </c>
     </row>
@@ -5440,19 +5442,19 @@
         <v>141.08330000000001</v>
       </c>
       <c r="O38" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.5932507239810212</v>
+      </c>
+      <c r="P38" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P38" s="13">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="Q38" s="17">
         <f t="shared" si="13"/>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="Q38" s="17">
+        <v>1.0400000000000009</v>
+      </c>
+      <c r="R38" s="20">
         <f t="shared" si="14"/>
-        <v>1.0400000000000009</v>
-      </c>
-      <c r="R38" s="20">
-        <f t="shared" si="15"/>
         <v>7.3100000000000005</v>
       </c>
     </row>
@@ -5493,19 +5495,19 @@
         <v>140.32380000000001</v>
       </c>
       <c r="O39" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.0773288490508515</v>
+      </c>
+      <c r="P39" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P39" s="13">
+        <v>-4.0000000000000924E-2</v>
+      </c>
+      <c r="Q39" s="17">
         <f t="shared" si="13"/>
-        <v>-4.0000000000000924E-2</v>
-      </c>
-      <c r="Q39" s="17">
+        <v>-0.84999999999999964</v>
+      </c>
+      <c r="R39" s="20">
         <f t="shared" si="14"/>
-        <v>-0.84999999999999964</v>
-      </c>
-      <c r="R39" s="20">
-        <f t="shared" si="15"/>
         <v>-9.740000000000002</v>
       </c>
     </row>
@@ -5546,19 +5548,19 @@
         <v>141.1414</v>
       </c>
       <c r="O40" s="22">
+        <f t="shared" si="5"/>
+        <v>0.13629712976661601</v>
+      </c>
+      <c r="P40" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P40" s="13">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="Q40" s="17">
         <f t="shared" si="13"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="Q40" s="17">
+        <v>0.15999999999999837</v>
+      </c>
+      <c r="R40" s="20">
         <f t="shared" si="14"/>
-        <v>0.15999999999999837</v>
-      </c>
-      <c r="R40" s="20">
-        <f t="shared" si="15"/>
         <v>4.79</v>
       </c>
     </row>
@@ -5599,19 +5601,19 @@
         <v>151.10669999999999</v>
       </c>
       <c r="O41" s="22">
+        <f t="shared" si="5"/>
+        <v>8.7650018340206248</v>
+      </c>
+      <c r="P41" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P41" s="13">
+        <v>1.08</v>
+      </c>
+      <c r="Q41" s="17">
         <f t="shared" si="13"/>
-        <v>1.08</v>
-      </c>
-      <c r="Q41" s="17">
+        <v>0.62000000000000099</v>
+      </c>
+      <c r="R41" s="20">
         <f t="shared" si="14"/>
-        <v>0.62000000000000099</v>
-      </c>
-      <c r="R41" s="20">
-        <f t="shared" si="15"/>
         <v>8.8899999999999988</v>
       </c>
     </row>
@@ -5652,19 +5654,19 @@
         <v>150.33760000000001</v>
       </c>
       <c r="O42" s="22">
+        <f t="shared" si="5"/>
+        <v>-2.144244079638058</v>
+      </c>
+      <c r="P42" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P42" s="13">
+        <v>-0.17999999999999972</v>
+      </c>
+      <c r="Q42" s="17">
         <f t="shared" si="13"/>
-        <v>-0.17999999999999972</v>
-      </c>
-      <c r="Q42" s="17">
+        <v>2.2300000000000004</v>
+      </c>
+      <c r="R42" s="20">
         <f t="shared" si="14"/>
-        <v>2.2300000000000004</v>
-      </c>
-      <c r="R42" s="20">
-        <f t="shared" si="15"/>
         <v>4.0600000000000023</v>
       </c>
     </row>
@@ -5705,19 +5707,19 @@
         <v>148.13130000000001</v>
       </c>
       <c r="O43" s="22">
+        <f t="shared" si="5"/>
+        <v>-2.4580125131730024</v>
+      </c>
+      <c r="P43" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P43" s="13">
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="Q43" s="17">
         <f t="shared" si="13"/>
-        <v>-0.19999999999999929</v>
-      </c>
-      <c r="Q43" s="17">
+        <v>-1.6000000000000014</v>
+      </c>
+      <c r="R43" s="20">
         <f t="shared" si="14"/>
-        <v>-1.6000000000000014</v>
-      </c>
-      <c r="R43" s="20">
-        <f t="shared" si="15"/>
         <v>-17.03</v>
       </c>
     </row>
@@ -5758,19 +5760,19 @@
         <v>146.85050000000001</v>
       </c>
       <c r="O44" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.7695152812925885</v>
+      </c>
+      <c r="P44" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P44" s="13">
+        <v>-0.12000000000000099</v>
+      </c>
+      <c r="Q44" s="17">
         <f t="shared" si="13"/>
-        <v>-0.12000000000000099</v>
-      </c>
-      <c r="Q44" s="17">
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="R44" s="20">
         <f t="shared" si="14"/>
-        <v>4.0000000000000924E-2</v>
-      </c>
-      <c r="R44" s="20">
-        <f t="shared" si="15"/>
         <v>1.9100000000000001</v>
       </c>
     </row>
@@ -5811,19 +5813,19 @@
         <v>146.30260000000001</v>
       </c>
       <c r="O45" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.0678543825924813</v>
+      </c>
+      <c r="P45" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P45" s="13">
+        <v>-2.9999999999999361E-2</v>
+      </c>
+      <c r="Q45" s="17">
         <f t="shared" si="13"/>
-        <v>-2.9999999999999361E-2</v>
-      </c>
-      <c r="Q45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="R45" s="20">
         <f t="shared" si="14"/>
-        <v>-1</v>
-      </c>
-      <c r="R45" s="20">
-        <f t="shared" si="15"/>
         <v>1.0000000000000675E-2</v>
       </c>
     </row>
@@ -5864,19 +5866,19 @@
         <v>146.39260000000002</v>
       </c>
       <c r="O46" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.42416041777048052</v>
+      </c>
+      <c r="P46" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P46" s="13">
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="Q46" s="17">
         <f t="shared" si="13"/>
-        <v>5.0000000000000711E-2</v>
-      </c>
-      <c r="Q46" s="17">
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="R46" s="20">
         <f t="shared" si="14"/>
-        <v>0.3100000000000005</v>
-      </c>
-      <c r="R46" s="20">
-        <f t="shared" si="15"/>
         <v>-0.70000000000000018</v>
       </c>
     </row>
@@ -5917,19 +5919,19 @@
         <v>146.35669999999999</v>
       </c>
       <c r="O47" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.44517847371977615</v>
+      </c>
+      <c r="P47" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P47" s="13">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="Q47" s="17">
         <f t="shared" si="13"/>
-        <v>3.9999999999999147E-2</v>
-      </c>
-      <c r="Q47" s="17">
+        <v>-0.48000000000000043</v>
+      </c>
+      <c r="R47" s="20">
         <f t="shared" si="14"/>
-        <v>-0.48000000000000043</v>
-      </c>
-      <c r="R47" s="20">
-        <f t="shared" si="15"/>
         <v>-0.70000000000000018</v>
       </c>
     </row>
@@ -5970,19 +5972,19 @@
         <v>144.64359999999999</v>
       </c>
       <c r="O48" s="22">
+        <f t="shared" si="5"/>
+        <v>-2.4924680384165399</v>
+      </c>
+      <c r="P48" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P48" s="13">
+        <v>-0.20999999999999908</v>
+      </c>
+      <c r="Q48" s="17">
         <f t="shared" si="13"/>
-        <v>-0.20999999999999908</v>
-      </c>
-      <c r="Q48" s="17">
+        <v>-1.0600000000000005</v>
+      </c>
+      <c r="R48" s="20">
         <f t="shared" si="14"/>
-        <v>-1.0600000000000005</v>
-      </c>
-      <c r="R48" s="20">
-        <f t="shared" si="15"/>
         <v>6.1800000000000006</v>
       </c>
     </row>
@@ -6023,19 +6025,19 @@
         <v>144.6378</v>
       </c>
       <c r="O49" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.89336781637778806</v>
+      </c>
+      <c r="P49" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P49" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="17">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="17">
+        <v>-1.4100000000000001</v>
+      </c>
+      <c r="R49" s="20">
         <f t="shared" si="14"/>
-        <v>-1.4100000000000001</v>
-      </c>
-      <c r="R49" s="20">
-        <f t="shared" si="15"/>
         <v>-1.4700000000000006</v>
       </c>
     </row>
@@ -6076,19 +6078,19 @@
         <v>152.16460000000001</v>
       </c>
       <c r="O50" s="22">
+        <f t="shared" si="5"/>
+        <v>7.3738355863626426</v>
+      </c>
+      <c r="P50" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P50" s="13">
+        <v>0.95999999999999908</v>
+      </c>
+      <c r="Q50" s="17">
         <f t="shared" si="13"/>
-        <v>0.95999999999999908</v>
-      </c>
-      <c r="Q50" s="17">
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="R50" s="20">
         <f t="shared" si="14"/>
-        <v>0.16000000000000014</v>
-      </c>
-      <c r="R50" s="20">
-        <f t="shared" si="15"/>
         <v>-4.04</v>
       </c>
     </row>
@@ -6129,19 +6131,19 @@
         <v>149.55260000000001</v>
       </c>
       <c r="O51" s="22">
+        <f t="shared" si="5"/>
+        <v>-2.894685595217239</v>
+      </c>
+      <c r="P51" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P51" s="13">
+        <v>-0.26999999999999957</v>
+      </c>
+      <c r="Q51" s="17">
         <f t="shared" si="13"/>
-        <v>-0.26999999999999957</v>
-      </c>
-      <c r="Q51" s="17">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="R51" s="20">
         <f t="shared" si="14"/>
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="R51" s="20">
-        <f t="shared" si="15"/>
         <v>-0.95000000000000018</v>
       </c>
     </row>
@@ -6182,19 +6184,19 @@
         <v>148.39089999999999</v>
       </c>
       <c r="O52" s="22">
+        <f t="shared" si="5"/>
+        <v>-2.1115201079724866</v>
+      </c>
+      <c r="P52" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P52" s="13">
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="Q52" s="17">
         <f t="shared" si="13"/>
-        <v>-0.15000000000000036</v>
-      </c>
-      <c r="Q52" s="17">
+        <v>0.76000000000000068</v>
+      </c>
+      <c r="R52" s="20">
         <f t="shared" si="14"/>
-        <v>0.76000000000000068</v>
-      </c>
-      <c r="R52" s="20">
-        <f t="shared" si="15"/>
         <v>6.120000000000001</v>
       </c>
     </row>
@@ -6235,19 +6237,19 @@
         <v>147.685</v>
       </c>
       <c r="O53" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.89835111085161401</v>
+      </c>
+      <c r="P53" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P53" s="13">
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="Q53" s="17">
         <f t="shared" si="13"/>
-        <v>-9.9999999999997868E-3</v>
-      </c>
-      <c r="Q53" s="17">
+        <v>-0.61000000000000032</v>
+      </c>
+      <c r="R53" s="20">
         <f t="shared" si="14"/>
-        <v>-0.61000000000000032</v>
-      </c>
-      <c r="R53" s="20">
-        <f t="shared" si="15"/>
         <v>-9.370000000000001</v>
       </c>
     </row>
@@ -6288,19 +6290,19 @@
         <v>145.11060000000001</v>
       </c>
       <c r="O54" s="22">
+        <f t="shared" si="5"/>
+        <v>-3.7698599326279059</v>
+      </c>
+      <c r="P54" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P54" s="13">
+        <v>-0.35999999999999943</v>
+      </c>
+      <c r="Q54" s="17">
         <f t="shared" si="13"/>
-        <v>-0.35999999999999943</v>
-      </c>
-      <c r="Q54" s="17">
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="R54" s="20">
         <f t="shared" si="14"/>
-        <v>1.2999999999999998</v>
-      </c>
-      <c r="R54" s="20">
-        <f t="shared" si="15"/>
         <v>12.75</v>
       </c>
     </row>
@@ -6341,19 +6343,19 @@
         <v>145.25050000000002</v>
       </c>
       <c r="O55" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.0851877193227444</v>
+      </c>
+      <c r="P55" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P55" s="13">
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="Q55" s="17">
         <f t="shared" si="13"/>
-        <v>-3.0000000000001137E-2</v>
-      </c>
-      <c r="Q55" s="17">
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="R55" s="20">
         <f t="shared" si="14"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="R55" s="20">
-        <f t="shared" si="15"/>
         <v>1.33</v>
       </c>
     </row>
@@ -6394,19 +6396,19 @@
         <v>145.10380000000001</v>
       </c>
       <c r="O56" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.2386956937217364</v>
+      </c>
+      <c r="P56" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P56" s="13">
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="Q56" s="17">
         <f t="shared" si="13"/>
-        <v>-3.9999999999999147E-2</v>
-      </c>
-      <c r="Q56" s="17">
+        <v>0.47000000000000064</v>
+      </c>
+      <c r="R56" s="20">
         <f t="shared" si="14"/>
-        <v>0.47000000000000064</v>
-      </c>
-      <c r="R56" s="20">
-        <f t="shared" si="15"/>
         <v>-2.6099999999999994</v>
       </c>
     </row>
@@ -6447,19 +6449,19 @@
         <v>144.172</v>
       </c>
       <c r="O57" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.3150357181733185</v>
+      </c>
+      <c r="P57" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P57" s="13">
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="Q57" s="17">
         <f t="shared" si="13"/>
-        <v>-5.0000000000000711E-2</v>
-      </c>
-      <c r="Q57" s="17">
+        <v>-0.38000000000000078</v>
+      </c>
+      <c r="R57" s="20">
         <f t="shared" si="14"/>
-        <v>-0.38000000000000078</v>
-      </c>
-      <c r="R57" s="20">
-        <f t="shared" si="15"/>
         <v>-10.06</v>
       </c>
     </row>
@@ -6500,19 +6502,19 @@
         <v>143.41419999999999</v>
       </c>
       <c r="O58" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.7772286108068913</v>
+      </c>
+      <c r="P58" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P58" s="13">
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="Q58" s="17">
         <f t="shared" si="13"/>
-        <v>-0.10999999999999943</v>
-      </c>
-      <c r="Q58" s="17">
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="R58" s="20">
         <f t="shared" si="14"/>
-        <v>0.75999999999999979</v>
-      </c>
-      <c r="R58" s="20">
-        <f t="shared" si="15"/>
         <v>7.92</v>
       </c>
     </row>
@@ -6553,19 +6555,19 @@
         <v>142.38139999999999</v>
       </c>
       <c r="O59" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.9636557505359642</v>
+      </c>
+      <c r="P59" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P59" s="13">
+        <v>-0.12000000000000099</v>
+      </c>
+      <c r="Q59" s="17">
         <f t="shared" si="13"/>
-        <v>-0.12000000000000099</v>
-      </c>
-      <c r="Q59" s="17">
+        <v>-0.31999999999999851</v>
+      </c>
+      <c r="R59" s="20">
         <f t="shared" si="14"/>
-        <v>-0.31999999999999851</v>
-      </c>
-      <c r="R59" s="20">
-        <f t="shared" si="15"/>
         <v>-2.0700000000000003</v>
       </c>
     </row>
@@ -6606,19 +6608,19 @@
         <v>141.83789999999999</v>
       </c>
       <c r="O60" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.308982608222764</v>
+      </c>
+      <c r="P60" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P60" s="13">
+        <v>-4.9999999999998934E-2</v>
+      </c>
+      <c r="Q60" s="17">
         <f t="shared" si="13"/>
-        <v>-4.9999999999998934E-2</v>
-      </c>
-      <c r="Q60" s="17">
+        <v>0.81999999999999851</v>
+      </c>
+      <c r="R60" s="20">
         <f t="shared" si="14"/>
-        <v>0.81999999999999851</v>
-      </c>
-      <c r="R60" s="20">
-        <f t="shared" si="15"/>
         <v>-1.92</v>
       </c>
     </row>
@@ -6659,19 +6661,19 @@
         <v>143.45570000000001</v>
       </c>
       <c r="O61" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.43156307667776561</v>
+      </c>
+      <c r="P61" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P61" s="13">
+        <v>4.9999999999998934E-2</v>
+      </c>
+      <c r="Q61" s="17">
         <f t="shared" si="13"/>
-        <v>4.9999999999998934E-2</v>
-      </c>
-      <c r="Q61" s="17">
+        <v>1.8900000000000006</v>
+      </c>
+      <c r="R61" s="20">
         <f t="shared" si="14"/>
-        <v>1.8900000000000006</v>
-      </c>
-      <c r="R61" s="20">
-        <f t="shared" si="15"/>
         <v>21.630000000000003</v>
       </c>
     </row>
@@ -6712,19 +6714,19 @@
         <v>141.4573</v>
       </c>
       <c r="O62" s="22">
+        <f t="shared" si="5"/>
+        <v>-6.6075959800533379</v>
+      </c>
+      <c r="P62" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P62" s="13">
+        <v>-0.64999999999999858</v>
+      </c>
+      <c r="Q62" s="17">
         <f t="shared" si="13"/>
-        <v>-0.64999999999999858</v>
-      </c>
-      <c r="Q62" s="17">
+        <v>5.08</v>
+      </c>
+      <c r="R62" s="20">
         <f t="shared" si="14"/>
-        <v>5.08</v>
-      </c>
-      <c r="R62" s="20">
-        <f t="shared" si="15"/>
         <v>29.55</v>
       </c>
     </row>
@@ -6765,889 +6767,819 @@
         <v>141.25650000000002</v>
       </c>
       <c r="O63" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.95341480604526074</v>
+      </c>
+      <c r="P63" s="13">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="P63" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="17">
         <f t="shared" si="13"/>
+        <v>-0.89000000000000057</v>
+      </c>
+      <c r="R63" s="20">
+        <f t="shared" si="14"/>
+        <v>-50.68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <f>A63</f>
+        <v>45728</v>
+      </c>
+      <c r="C64">
+        <v>140.25399999999999</v>
+      </c>
+      <c r="D64">
         <v>0</v>
       </c>
-      <c r="Q63" s="17">
-        <f t="shared" si="14"/>
-        <v>-0.89000000000000057</v>
-      </c>
-      <c r="R63" s="20">
-        <f t="shared" si="15"/>
-        <v>-50.68</v>
+      <c r="E64">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F64">
+        <v>16.88</v>
+      </c>
+      <c r="G64">
+        <v>7.42</v>
+      </c>
+      <c r="I64" s="9">
+        <f>C64/$D$3</f>
+        <v>2.712460329585958E-2</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ref="J64" si="15">C64-C63</f>
+        <v>61.695299999999989</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ref="K64" si="16">D64-D63</f>
+        <v>-62.697800000000001</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ref="M64:M78" si="17">C64+D64</f>
+        <v>140.25399999999999</v>
+      </c>
+      <c r="O64" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.29471663178262109</v>
+      </c>
+      <c r="P64" s="13">
+        <f t="shared" ref="P64" si="18">E64-E63</f>
+        <v>-2.000000000000135E-2</v>
+      </c>
+      <c r="Q64" s="17">
+        <f t="shared" ref="Q64" si="19">F64-F63</f>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="R64" s="20">
+        <f t="shared" ref="R64" si="20">G64-G63</f>
+        <v>-0.42999999999999972</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <f>A63+1</f>
+        <v>45729</v>
+      </c>
+      <c r="C65">
+        <v>138.97999999999999</v>
+      </c>
+      <c r="D65">
+        <v>1.3774999999999999</v>
+      </c>
+      <c r="E65">
+        <v>9.94</v>
+      </c>
+      <c r="F65">
+        <v>18.09</v>
+      </c>
+      <c r="G65">
+        <v>11.25</v>
+      </c>
+      <c r="I65" s="9">
+        <f t="shared" ref="I65:I78" si="21">C65/$D$3</f>
+        <v>2.6878216422052594E-2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65:J78" si="22">C65-C64</f>
+        <v>-1.2740000000000009</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65:K78" si="23">D65-D64</f>
+        <v>1.3774999999999999</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65:M78" si="24">C65+D65</f>
+        <v>140.35749999999999</v>
+      </c>
+      <c r="O65" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.90835198996106481</v>
+      </c>
+      <c r="P65" s="13">
+        <f t="shared" ref="P65:P78" si="25">E65-E64</f>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="Q65" s="17">
+        <f t="shared" ref="Q65:Q78" si="26">F65-F64</f>
+        <v>1.2100000000000009</v>
+      </c>
+      <c r="R65" s="20">
+        <f t="shared" ref="R65:R78" si="27">G65-G64</f>
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <f t="shared" si="1"/>
+        <v>45730</v>
+      </c>
+      <c r="C66">
+        <v>136.643</v>
+      </c>
+      <c r="D66">
+        <v>2.319</v>
+      </c>
+      <c r="E66">
+        <v>9.86</v>
+      </c>
+      <c r="F66">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="G66">
+        <v>7.1</v>
+      </c>
+      <c r="I66" s="9">
+        <f t="shared" si="21"/>
+        <v>2.6426249291686091E-2</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="22"/>
+        <v>-2.3369999999999891</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="23"/>
+        <v>0.9415</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="24"/>
+        <v>138.96199999999999</v>
+      </c>
+      <c r="O66" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.6815369117858636</v>
+      </c>
+      <c r="P66" s="13">
+        <f t="shared" si="25"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="Q66" s="17">
+        <f t="shared" si="26"/>
+        <v>-0.64999999999999858</v>
+      </c>
+      <c r="R66" s="20">
+        <f t="shared" si="27"/>
+        <v>-4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <f t="shared" si="1"/>
+        <v>45731</v>
+      </c>
+      <c r="C67">
+        <v>132.672</v>
+      </c>
+      <c r="D67">
+        <v>3.3439999999999999</v>
+      </c>
+      <c r="E67">
+        <v>9.66</v>
+      </c>
+      <c r="F67">
+        <v>17.12</v>
+      </c>
+      <c r="G67">
+        <v>7.61</v>
+      </c>
+      <c r="I67" s="9">
+        <f t="shared" si="21"/>
+        <v>2.5658272623014546E-2</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="22"/>
+        <v>-3.9710000000000036</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="23"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="24"/>
+        <v>136.01599999999999</v>
+      </c>
+      <c r="O67" s="22">
+        <f t="shared" si="5"/>
+        <v>-2.9061130098139043</v>
+      </c>
+      <c r="P67" s="13">
+        <f t="shared" si="25"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="Q67" s="17">
+        <f t="shared" si="26"/>
+        <v>-0.32000000000000028</v>
+      </c>
+      <c r="R67" s="20">
+        <f t="shared" si="27"/>
+        <v>0.51000000000000068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>45732</v>
+      </c>
+      <c r="C68">
+        <v>131.12</v>
+      </c>
+      <c r="D68">
+        <v>3.3370000000000002</v>
+      </c>
+      <c r="E68">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F68">
+        <v>16.38</v>
+      </c>
+      <c r="G68">
+        <v>2.57</v>
+      </c>
+      <c r="I68" s="9">
+        <f t="shared" si="21"/>
+        <v>2.5358121580511844E-2</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="22"/>
+        <v>-1.5519999999999925</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="23"/>
+        <v>-6.9999999999996732E-3</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="24"/>
+        <v>134.45699999999999</v>
+      </c>
+      <c r="O68" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.1698022190062662</v>
+      </c>
+      <c r="P68" s="13">
+        <f t="shared" si="25"/>
+        <v>-2.9999999999999361E-2</v>
+      </c>
+      <c r="Q68" s="17">
+        <f t="shared" si="26"/>
+        <v>-0.74000000000000199</v>
+      </c>
+      <c r="R68" s="20">
+        <f t="shared" si="27"/>
+        <v>-5.0400000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>45733</v>
+      </c>
+      <c r="C69">
+        <v>128.75200000000001</v>
+      </c>
+      <c r="D69">
+        <v>4.056</v>
+      </c>
+      <c r="E69">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="F69">
+        <v>12.65</v>
+      </c>
+      <c r="G69">
+        <v>2.84</v>
+      </c>
+      <c r="I69" s="9">
+        <f t="shared" si="21"/>
+        <v>2.4900159165146898E-2</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="22"/>
+        <v>-2.367999999999995</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="23"/>
+        <v>0.71899999999999986</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="24"/>
+        <v>132.80800000000002</v>
+      </c>
+      <c r="O69" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.8059792556436749</v>
+      </c>
+      <c r="P69" s="13">
+        <f t="shared" si="25"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="Q69" s="17">
+        <f t="shared" si="26"/>
+        <v>-3.7299999999999986</v>
+      </c>
+      <c r="R69" s="20">
+        <f t="shared" si="27"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>45734</v>
+      </c>
+      <c r="C70">
+        <v>127.181</v>
+      </c>
+      <c r="D70">
+        <v>4.7337800000000003</v>
+      </c>
+      <c r="E70">
+        <v>9.52</v>
+      </c>
+      <c r="F70">
+        <v>6.26</v>
+      </c>
+      <c r="G70">
+        <v>5.07</v>
+      </c>
+      <c r="I70" s="9">
+        <f t="shared" si="21"/>
+        <v>2.459633359312902E-2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="22"/>
+        <v>-1.5710000000000122</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="23"/>
+        <v>0.67778000000000027</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="24"/>
+        <v>131.91478000000001</v>
+      </c>
+      <c r="O70" s="22">
+        <f t="shared" si="5"/>
+        <v>-1.2201752205791006</v>
+      </c>
+      <c r="P70" s="13">
+        <f t="shared" si="25"/>
+        <v>-3.0000000000001137E-2</v>
+      </c>
+      <c r="Q70" s="17">
+        <f t="shared" si="26"/>
+        <v>-6.3900000000000006</v>
+      </c>
+      <c r="R70" s="20">
+        <f t="shared" si="27"/>
+        <v>2.2300000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>45735</v>
+      </c>
+      <c r="C71">
+        <v>126.43</v>
+      </c>
+      <c r="D71">
+        <v>5.5140000000000002</v>
+      </c>
+      <c r="E71">
+        <v>9.56</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
+        <v>5.81</v>
+      </c>
+      <c r="I71" s="9">
+        <f t="shared" si="21"/>
+        <v>2.4451092979134479E-2</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="22"/>
+        <v>-0.75099999999999056</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="23"/>
+        <v>0.78021999999999991</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="24"/>
+        <v>131.94400000000002</v>
+      </c>
+      <c r="O71" s="22">
+        <f t="shared" si="5"/>
+        <v>-0.59049700820090756</v>
+      </c>
+      <c r="P71" s="13">
+        <f t="shared" si="25"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="Q71" s="17">
+        <f t="shared" si="26"/>
+        <v>-0.25999999999999979</v>
+      </c>
+      <c r="R71" s="20">
+        <f t="shared" si="27"/>
+        <v>0.73999999999999932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>45736</v>
+      </c>
+      <c r="C72">
+        <v>121.411</v>
+      </c>
+      <c r="D72">
+        <v>6.8895499999999998</v>
+      </c>
+      <c r="E72">
+        <v>9.26</v>
+      </c>
+      <c r="F72">
+        <v>5.9</v>
+      </c>
+      <c r="G72">
+        <v>10.51</v>
+      </c>
+      <c r="I72" s="9">
+        <f t="shared" si="21"/>
+        <v>2.3480436998257501E-2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="22"/>
+        <v>-5.0190000000000055</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="23"/>
+        <v>1.3755499999999996</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="24"/>
+        <v>128.30054999999999</v>
+      </c>
+      <c r="O72" s="22">
+        <f t="shared" ref="O72:O78" si="28">(I72/I71-1)*100</f>
+        <v>-3.9697856521395347</v>
+      </c>
+      <c r="P72" s="13">
+        <f t="shared" si="25"/>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="Q72" s="17">
+        <f t="shared" si="26"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="R72" s="20">
+        <f t="shared" si="27"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <f t="shared" ref="A73:A78" si="29">A72+1</f>
+        <v>45737</v>
+      </c>
+      <c r="C73">
+        <v>119.363</v>
+      </c>
+      <c r="D73">
+        <v>7.6387999999999998</v>
+      </c>
+      <c r="E73">
+        <v>9.19</v>
+      </c>
+      <c r="F73">
+        <v>5.69</v>
+      </c>
+      <c r="G73">
+        <v>5.62</v>
+      </c>
+      <c r="I73" s="9">
+        <f t="shared" si="21"/>
+        <v>2.3084361395779709E-2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="22"/>
+        <v>-2.0480000000000018</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="23"/>
+        <v>0.74924999999999997</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="24"/>
+        <v>127.0018</v>
+      </c>
+      <c r="O73" s="22">
+        <f t="shared" si="28"/>
+        <v>-1.6868323298547927</v>
+      </c>
+      <c r="P73" s="13">
+        <f t="shared" si="25"/>
+        <v>-7.0000000000000284E-2</v>
+      </c>
+      <c r="Q73" s="17">
+        <f t="shared" si="26"/>
+        <v>-0.20999999999999996</v>
+      </c>
+      <c r="R73" s="20">
+        <f t="shared" si="27"/>
+        <v>-4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <f t="shared" si="29"/>
+        <v>45738</v>
+      </c>
+      <c r="C74">
+        <v>117.53400000000001</v>
+      </c>
+      <c r="D74">
+        <v>7.9554</v>
+      </c>
+      <c r="E74">
+        <v>9.14</v>
+      </c>
+      <c r="F74">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G74">
+        <v>2.61</v>
+      </c>
+      <c r="I74" s="9">
+        <f t="shared" si="21"/>
+        <v>2.2730639580871563E-2</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="22"/>
+        <v>-1.8289999999999935</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="23"/>
+        <v>0.31660000000000021</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="24"/>
+        <v>125.4894</v>
+      </c>
+      <c r="O74" s="22">
+        <f t="shared" si="28"/>
+        <v>-1.5323006291731889</v>
+      </c>
+      <c r="P74" s="13">
+        <f t="shared" si="25"/>
+        <v>-4.9999999999998934E-2</v>
+      </c>
+      <c r="Q74" s="17">
+        <f t="shared" si="26"/>
+        <v>-0.75</v>
+      </c>
+      <c r="R74" s="20">
+        <f t="shared" si="27"/>
+        <v>-3.0100000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <f t="shared" si="29"/>
+        <v>45739</v>
+      </c>
+      <c r="C75">
+        <v>119.497</v>
+      </c>
+      <c r="D75">
+        <v>8.2043999999999997</v>
+      </c>
+      <c r="E75">
+        <v>9.41</v>
+      </c>
+      <c r="F75">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G75">
+        <v>1.78</v>
+      </c>
+      <c r="I75" s="9">
+        <f t="shared" si="21"/>
+        <v>2.3110276498676204E-2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="22"/>
+        <v>1.9629999999999939</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="23"/>
+        <v>0.24899999999999967</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="24"/>
+        <v>127.70140000000001</v>
+      </c>
+      <c r="O75" s="22">
+        <f t="shared" si="28"/>
+        <v>1.6701550189732295</v>
+      </c>
+      <c r="P75" s="13">
+        <f t="shared" si="25"/>
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="Q75" s="17">
+        <f t="shared" si="26"/>
+        <v>-0.13000000000000078</v>
+      </c>
+      <c r="R75" s="20">
+        <f t="shared" si="27"/>
+        <v>-0.82999999999999985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <f t="shared" si="29"/>
+        <v>45740</v>
+      </c>
+      <c r="C76">
+        <v>121.249</v>
+      </c>
+      <c r="D76">
+        <v>8.5545000000000009</v>
+      </c>
+      <c r="E76">
+        <v>9.66</v>
+      </c>
+      <c r="F76">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G76">
+        <v>2.63</v>
+      </c>
+      <c r="I76" s="9">
+        <f t="shared" si="21"/>
+        <v>2.3449106799233378E-2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="22"/>
+        <v>1.7519999999999953</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="23"/>
+        <v>0.35010000000000119</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="24"/>
+        <v>129.80349999999999</v>
+      </c>
+      <c r="O76" s="22">
+        <f t="shared" si="28"/>
+        <v>1.4661455936132217</v>
+      </c>
+      <c r="P76" s="13">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q76" s="17">
+        <f t="shared" si="26"/>
+        <v>-0.32999999999999918</v>
+      </c>
+      <c r="R76" s="20">
+        <f t="shared" si="27"/>
+        <v>0.84999999999999987</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <f t="shared" si="29"/>
+        <v>45741</v>
+      </c>
+      <c r="C77">
+        <v>119.36799999999999</v>
+      </c>
+      <c r="D77">
+        <v>9.3547999999999991</v>
+      </c>
+      <c r="E77">
+        <v>9.61</v>
+      </c>
+      <c r="F77">
+        <v>4.91</v>
+      </c>
+      <c r="G77">
+        <v>5.98</v>
+      </c>
+      <c r="I77" s="9">
+        <f t="shared" si="21"/>
+        <v>2.3085328377231068E-2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="22"/>
+        <v>-1.8810000000000002</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="23"/>
+        <v>0.80029999999999824</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="24"/>
+        <v>128.72280000000001</v>
+      </c>
+      <c r="O77" s="22">
+        <f t="shared" si="28"/>
+        <v>-1.551353000849498</v>
+      </c>
+      <c r="P77" s="13">
+        <f t="shared" si="25"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="Q77" s="17">
+        <f t="shared" si="26"/>
+        <v>0.42999999999999972</v>
+      </c>
+      <c r="R77" s="20">
+        <f t="shared" si="27"/>
+        <v>3.3500000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <f t="shared" si="29"/>
+        <v>45742</v>
+      </c>
+      <c r="C78">
+        <v>118.843</v>
+      </c>
+      <c r="D78">
+        <v>10.0709</v>
+      </c>
+      <c r="E78">
+        <v>9.67</v>
+      </c>
+      <c r="F78">
+        <v>4.84</v>
+      </c>
+      <c r="G78">
+        <v>5.79</v>
+      </c>
+      <c r="I78" s="9">
+        <f t="shared" si="21"/>
+        <v>2.2983795324838081E-2</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="22"/>
+        <v>-0.52499999999999147</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="23"/>
+        <v>0.71610000000000085</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="24"/>
+        <v>128.91390000000001</v>
+      </c>
+      <c r="O78" s="22">
+        <f t="shared" si="28"/>
+        <v>-0.43981636619528919</v>
+      </c>
+      <c r="P78" s="13">
+        <f t="shared" si="25"/>
+        <v>6.0000000000000497E-2</v>
+      </c>
+      <c r="Q78" s="17">
+        <f t="shared" si="26"/>
+        <v>-7.0000000000000284E-2</v>
+      </c>
+      <c r="R78" s="20">
+        <f t="shared" si="27"/>
+        <v>-0.19000000000000039</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="88.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45653</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1.414E-2</v>
-      </c>
-      <c r="C5">
-        <v>21.79</v>
-      </c>
-      <c r="D5">
-        <v>0.14829999999999999</v>
-      </c>
-      <c r="E5">
-        <v>4.2</v>
-      </c>
-      <c r="F5">
-        <v>5.58</v>
-      </c>
-      <c r="G5">
-        <v>6.39</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ref="L5:L7" si="0">C5+D5</f>
-        <v>21.938299999999998</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" ref="A6:A27" si="1">A5+1</f>
-        <v>45654</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1.6670000000000001E-2</v>
-      </c>
-      <c r="C6">
-        <v>25.68</v>
-      </c>
-      <c r="D6">
-        <v>0.43109999999999998</v>
-      </c>
-      <c r="E6">
-        <v>4.74</v>
-      </c>
-      <c r="F6">
-        <v>5.38</v>
-      </c>
-      <c r="G6">
-        <v>4.51</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6:J7" si="2">C6-C5</f>
-        <v>3.8900000000000006</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>0.2828</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>26.1111</v>
-      </c>
-      <c r="N6" s="22">
-        <f>(B6/B5-1)*100</f>
-        <v>17.892503536067906</v>
-      </c>
-      <c r="O6" s="13">
-        <f>E6-E5</f>
-        <v>0.54</v>
-      </c>
-      <c r="P6" s="17">
-        <f t="shared" ref="P6:Q21" si="3">F6-F5</f>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="Q6" s="20">
-        <f t="shared" si="3"/>
-        <v>-1.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="1"/>
-        <v>45655</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>-25.68</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>-0.43109999999999998</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
-        <f t="shared" ref="N7:N24" si="4">(B7/B6-1)*100</f>
-        <v>-100</v>
-      </c>
-      <c r="O7" s="13">
-        <f t="shared" ref="O7:Q24" si="5">E7-E6</f>
-        <v>-4.74</v>
-      </c>
-      <c r="P7" s="17">
-        <f t="shared" si="3"/>
-        <v>-5.38</v>
-      </c>
-      <c r="Q7" s="20">
-        <f t="shared" si="3"/>
-        <v>-4.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>45656</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I27" si="6">C8-C7</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J27" si="7">D8-D7</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8:L27" si="8">C8+D8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="1"/>
-        <v>45657</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>45658</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>45659</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>45660</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>45661</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>45662</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>45663</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>45664</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>45665</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>45666</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>45667</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>45668</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>45669</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>45670</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f t="shared" si="1"/>
-        <v>45671</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>45672</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="1"/>
-        <v>45673</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="22" t="e">
-        <f t="shared" ref="N25:N27" si="9">(B25/B24-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="13">
-        <f t="shared" ref="O25:O27" si="10">E25-E24</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="17">
-        <f t="shared" ref="P25:P27" si="11">F25-F24</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="20">
-        <f t="shared" ref="Q25:Q27" si="12">G25-G24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f t="shared" si="1"/>
-        <v>45674</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="22" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f t="shared" si="1"/>
-        <v>45675</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="22" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -3637,10 +3637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6816,7 +6816,7 @@
         <v>-62.697800000000001</v>
       </c>
       <c r="M64">
-        <f t="shared" ref="M64:M78" si="17">C64+D64</f>
+        <f t="shared" ref="M64" si="17">C64+D64</f>
         <v>140.25399999999999</v>
       </c>
       <c r="O64" s="22">
@@ -6857,7 +6857,7 @@
         <v>11.25</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" ref="I65:I78" si="21">C65/$D$3</f>
+        <f t="shared" ref="I65:I92" si="21">C65/$D$3</f>
         <v>2.6878216422052594E-2</v>
       </c>
       <c r="J65">
@@ -6869,7 +6869,7 @@
         <v>1.3774999999999999</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M78" si="24">C65+D65</f>
+        <f t="shared" ref="M65:M92" si="24">C65+D65</f>
         <v>140.35749999999999</v>
       </c>
       <c r="O65" s="22">
@@ -7262,7 +7262,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <f t="shared" ref="A73:A78" si="29">A72+1</f>
+        <f t="shared" ref="A73:A115" si="29">A72+1</f>
         <v>45737</v>
       </c>
       <c r="C73">
@@ -7576,6 +7576,550 @@
       <c r="R78" s="20">
         <f t="shared" si="27"/>
         <v>-0.19000000000000039</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <f t="shared" si="29"/>
+        <v>45743</v>
+      </c>
+      <c r="C79">
+        <v>110.343</v>
+      </c>
+      <c r="D79">
+        <v>10.728</v>
+      </c>
+      <c r="E79">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="F79">
+        <v>4.08</v>
+      </c>
+      <c r="G79">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I79" s="9">
+        <f t="shared" si="21"/>
+        <v>2.133992685752302E-2</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="24"/>
+        <v>121.071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <f t="shared" si="29"/>
+        <v>45744</v>
+      </c>
+      <c r="C80">
+        <v>107.351</v>
+      </c>
+      <c r="D80">
+        <v>11.851599999999999</v>
+      </c>
+      <c r="E80">
+        <v>8.89</v>
+      </c>
+      <c r="F80">
+        <v>4.47</v>
+      </c>
+      <c r="G80">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="I80" s="9">
+        <f t="shared" si="21"/>
+        <v>2.0761285157028121E-2</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="24"/>
+        <v>119.2026</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <f t="shared" si="29"/>
+        <v>45745</v>
+      </c>
+      <c r="C81">
+        <v>108.438</v>
+      </c>
+      <c r="D81">
+        <v>13.044700000000001</v>
+      </c>
+      <c r="E81">
+        <v>9.09</v>
+      </c>
+      <c r="F81">
+        <v>5.4</v>
+      </c>
+      <c r="G81">
+        <v>8.92</v>
+      </c>
+      <c r="I81" s="9">
+        <f t="shared" si="21"/>
+        <v>2.0971506924554177E-2</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="24"/>
+        <v>121.48270000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <f t="shared" si="29"/>
+        <v>45746</v>
+      </c>
+      <c r="C82">
+        <v>103.883</v>
+      </c>
+      <c r="D82">
+        <v>13.5844</v>
+      </c>
+      <c r="E82">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F82">
+        <v>5.76</v>
+      </c>
+      <c r="G82">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I82" s="9">
+        <f t="shared" si="21"/>
+        <v>2.0090586822363574E-2</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="24"/>
+        <v>117.4674</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <f t="shared" si="29"/>
+        <v>45747</v>
+      </c>
+      <c r="C83">
+        <v>102.515</v>
+      </c>
+      <c r="D83">
+        <v>13.894500000000001</v>
+      </c>
+      <c r="E83">
+        <v>8.77</v>
+      </c>
+      <c r="F83">
+        <v>5.69</v>
+      </c>
+      <c r="G83">
+        <v>2.27</v>
+      </c>
+      <c r="I83" s="9">
+        <f t="shared" si="21"/>
+        <v>1.9826020697270987E-2</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="24"/>
+        <v>116.40950000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <f t="shared" si="29"/>
+        <v>45748</v>
+      </c>
+      <c r="C84">
+        <v>100.98699999999999</v>
+      </c>
+      <c r="D84">
+        <v>14.9101</v>
+      </c>
+      <c r="E84">
+        <v>8.75</v>
+      </c>
+      <c r="F84">
+        <v>5.85</v>
+      </c>
+      <c r="G84">
+        <v>7.34</v>
+      </c>
+      <c r="I84" s="9">
+        <f t="shared" si="21"/>
+        <v>1.9530511165734819E-2</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="24"/>
+        <v>115.89709999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <f t="shared" si="29"/>
+        <v>45749</v>
+      </c>
+      <c r="C85">
+        <v>100.123</v>
+      </c>
+      <c r="D85">
+        <v>16.0169</v>
+      </c>
+      <c r="E85">
+        <v>8.77</v>
+      </c>
+      <c r="F85">
+        <v>6.36</v>
+      </c>
+      <c r="G85">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="I85" s="9">
+        <f t="shared" si="21"/>
+        <v>1.9363416770939501E-2</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="24"/>
+        <v>116.13990000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <f t="shared" si="29"/>
+        <v>45750</v>
+      </c>
+      <c r="C86">
+        <v>99.153099999999995</v>
+      </c>
+      <c r="D86">
+        <v>17.5504</v>
+      </c>
+      <c r="E86">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F86">
+        <v>7.29</v>
+      </c>
+      <c r="G86">
+        <v>14.25</v>
+      </c>
+      <c r="I86" s="9">
+        <f t="shared" si="21"/>
+        <v>1.9175841709004337E-2</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="24"/>
+        <v>116.70349999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <f t="shared" si="29"/>
+        <v>45751</v>
+      </c>
+      <c r="C87">
+        <v>97.343999999999994</v>
+      </c>
+      <c r="D87">
+        <v>18.4267</v>
+      </c>
+      <c r="E87">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="F87">
+        <v>7.05</v>
+      </c>
+      <c r="G87">
+        <v>6.57</v>
+      </c>
+      <c r="I87" s="9">
+        <f t="shared" si="21"/>
+        <v>1.8825968480272612E-2</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="24"/>
+        <v>115.77069999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <f t="shared" si="29"/>
+        <v>45752</v>
+      </c>
+      <c r="C88">
+        <v>94.789900000000003</v>
+      </c>
+      <c r="D88">
+        <v>19.793299999999999</v>
+      </c>
+      <c r="E88">
+        <v>8.59</v>
+      </c>
+      <c r="F88">
+        <v>7.21</v>
+      </c>
+      <c r="G88">
+        <v>10.33</v>
+      </c>
+      <c r="I88" s="9">
+        <f t="shared" si="21"/>
+        <v>1.8332015015287979E-2</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="24"/>
+        <v>114.58320000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <f t="shared" si="29"/>
+        <v>45753</v>
+      </c>
+      <c r="C89">
+        <v>93.755300000000005</v>
+      </c>
+      <c r="D89">
+        <v>20.310700000000001</v>
+      </c>
+      <c r="E89">
+        <v>8.61</v>
+      </c>
+      <c r="F89">
+        <v>7.15</v>
+      </c>
+      <c r="G89">
+        <v>4.2</v>
+      </c>
+      <c r="I89" s="9">
+        <f t="shared" si="21"/>
+        <v>1.8131927213372194E-2</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="24"/>
+        <v>114.066</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <f t="shared" si="29"/>
+        <v>45754</v>
+      </c>
+      <c r="C90">
+        <v>93.126900000000006</v>
+      </c>
+      <c r="D90">
+        <v>22.566700000000001</v>
+      </c>
+      <c r="E90">
+        <v>8.65</v>
+      </c>
+      <c r="F90">
+        <v>9.4</v>
+      </c>
+      <c r="G90">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="I90" s="9">
+        <f t="shared" si="21"/>
+        <v>1.8010396984565046E-2</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="24"/>
+        <v>115.6936</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <f t="shared" si="29"/>
+        <v>45755</v>
+      </c>
+      <c r="C91">
+        <v>93.148799999999994</v>
+      </c>
+      <c r="D91">
+        <v>31.1221</v>
+      </c>
+      <c r="E91">
+        <v>8.77</v>
+      </c>
+      <c r="F91">
+        <v>18.47</v>
+      </c>
+      <c r="G91">
+        <v>85.73</v>
+      </c>
+      <c r="I91" s="9">
+        <f t="shared" si="21"/>
+        <v>1.8014632363322007E-2</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="24"/>
+        <v>124.2709</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <f t="shared" si="29"/>
+        <v>45756</v>
+      </c>
+      <c r="C92">
+        <v>93.037199999999999</v>
+      </c>
+      <c r="D92">
+        <v>34.067900000000002</v>
+      </c>
+      <c r="E92">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="F92">
+        <v>20.53</v>
+      </c>
+      <c r="G92">
+        <v>26.51</v>
+      </c>
+      <c r="I92" s="9">
+        <f t="shared" si="21"/>
+        <v>1.7993049337327614E-2</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="24"/>
+        <v>127.10509999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <f t="shared" si="29"/>
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <f t="shared" si="29"/>
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <f t="shared" si="29"/>
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <f t="shared" si="29"/>
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <f t="shared" si="29"/>
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <f t="shared" si="29"/>
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <f t="shared" si="29"/>
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <f t="shared" si="29"/>
+        <v>45764</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <f t="shared" si="29"/>
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <f t="shared" si="29"/>
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <f t="shared" si="29"/>
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <f t="shared" si="29"/>
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <f t="shared" si="29"/>
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <f t="shared" si="29"/>
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <f t="shared" si="29"/>
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <f t="shared" si="29"/>
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <f t="shared" si="29"/>
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <f t="shared" si="29"/>
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <f t="shared" si="29"/>
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <f t="shared" si="29"/>
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <f t="shared" si="29"/>
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <f t="shared" si="29"/>
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <f t="shared" si="29"/>
+        <v>45779</v>
       </c>
     </row>
   </sheetData>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\____  __ + _\фprttp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitri\Desktop\213\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3FF741-BAB7-4E55-BCFC-1CE5350FDA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="11295" activeTab="2"/>
+    <workbookView xWindow="1515" yWindow="2145" windowWidth="14280" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
     <sheet name="gUSD 26.12.24" sheetId="2" r:id="rId2"/>
     <sheet name="gUSD 26.06.25" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1755,7 +1756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B11:M30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2283,7 +2284,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2374,7 +2375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3636,11 +3637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,7 +6858,7 @@
         <v>11.25</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" ref="I65:I92" si="21">C65/$D$3</f>
+        <f t="shared" ref="I65:I103" si="21">C65/$D$3</f>
         <v>2.6878216422052594E-2</v>
       </c>
       <c r="J65">
@@ -6869,7 +6870,7 @@
         <v>1.3774999999999999</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M92" si="24">C65+D65</f>
+        <f t="shared" ref="M65:M103" si="24">C65+D65</f>
         <v>140.35749999999999</v>
       </c>
       <c r="O65" s="22">
@@ -7989,116 +7990,369 @@
         <f t="shared" si="29"/>
         <v>45757</v>
       </c>
+      <c r="C93">
+        <v>90.405299999999997</v>
+      </c>
+      <c r="D93">
+        <v>36.2363</v>
+      </c>
+      <c r="E93">
+        <v>8.73</v>
+      </c>
+      <c r="F93">
+        <v>21.31</v>
+      </c>
+      <c r="G93">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="I93" s="9">
+        <f t="shared" si="21"/>
+        <v>1.7484049640959787E-2</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="24"/>
+        <v>126.6416</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="29"/>
         <v>45758</v>
       </c>
+      <c r="C94">
+        <v>90.409899999999993</v>
+      </c>
+      <c r="D94">
+        <v>37.698500000000003</v>
+      </c>
+      <c r="E94">
+        <v>8.85</v>
+      </c>
+      <c r="F94">
+        <v>22.04</v>
+      </c>
+      <c r="G94">
+        <v>11.14</v>
+      </c>
+      <c r="I94" s="9">
+        <f t="shared" si="21"/>
+        <v>1.7484939263895039E-2</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="24"/>
+        <v>128.10839999999999</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="29"/>
         <v>45759</v>
       </c>
+      <c r="C95">
+        <v>89.385999999999996</v>
+      </c>
+      <c r="D95">
+        <v>38.912199999999999</v>
+      </c>
+      <c r="E95">
+        <v>8.86</v>
+      </c>
+      <c r="F95">
+        <v>21.86</v>
+      </c>
+      <c r="G95">
+        <v>9.16</v>
+      </c>
+      <c r="I95" s="9">
+        <f t="shared" si="21"/>
+        <v>1.728692080228517E-2</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="24"/>
+        <v>128.29820000000001</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="29"/>
         <v>45760</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>88.315600000000003</v>
+      </c>
+      <c r="D96">
+        <v>39.662300000000002</v>
+      </c>
+      <c r="E96">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="F96">
+        <v>22.19</v>
+      </c>
+      <c r="G96">
+        <v>5.59</v>
+      </c>
+      <c r="I96" s="9">
+        <f t="shared" si="21"/>
+        <v>1.7079909413177639E-2</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="24"/>
+        <v>127.97790000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="29"/>
         <v>45761</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>88.866900000000001</v>
+      </c>
+      <c r="D97">
+        <v>41.546300000000002</v>
+      </c>
+      <c r="E97">
+        <v>9.06</v>
+      </c>
+      <c r="F97">
+        <v>21.67</v>
+      </c>
+      <c r="G97">
+        <v>14.57</v>
+      </c>
+      <c r="I97" s="9">
+        <f t="shared" si="21"/>
+        <v>1.7186528788004789E-2</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="24"/>
+        <v>130.41320000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="29"/>
         <v>45762</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>83.053799999999995</v>
+      </c>
+      <c r="D98">
+        <v>42.134399999999999</v>
+      </c>
+      <c r="E98">
+        <v>8.56</v>
+      </c>
+      <c r="F98">
+        <v>12.41</v>
+      </c>
+      <c r="G98">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I98" s="9">
+        <f t="shared" si="21"/>
+        <v>1.6062296813022531E-2</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="24"/>
+        <v>125.18819999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" si="29"/>
         <v>45763</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>76.781599999999997</v>
+      </c>
+      <c r="D99">
+        <v>42.8001</v>
+      </c>
+      <c r="E99">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>9.42</v>
+      </c>
+      <c r="G99">
+        <v>4.74</v>
+      </c>
+      <c r="I99" s="9">
+        <f t="shared" si="21"/>
+        <v>1.4849276601176237E-2</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="24"/>
+        <v>119.5817</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" si="29"/>
         <v>45764</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>75.685699999999997</v>
+      </c>
+      <c r="D100">
+        <v>44.094999999999999</v>
+      </c>
+      <c r="E100">
+        <v>7.99</v>
+      </c>
+      <c r="F100">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="G100">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="I100" s="9">
+        <f t="shared" si="21"/>
+        <v>1.4637333606666757E-2</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="24"/>
+        <v>119.7807</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="29"/>
         <v>45765</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>72.999600000000001</v>
+      </c>
+      <c r="D101">
+        <v>45.314700000000002</v>
+      </c>
+      <c r="E101">
+        <v>7.82</v>
+      </c>
+      <c r="F101">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G101">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I101" s="9">
+        <f t="shared" si="21"/>
+        <v>1.4117851831366173E-2</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="24"/>
+        <v>118.3143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="29"/>
         <v>45766</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>72.515000000000001</v>
+      </c>
+      <c r="D102">
+        <v>46.799700000000001</v>
+      </c>
+      <c r="E102">
+        <v>7.88</v>
+      </c>
+      <c r="F102">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="G102">
+        <v>12.29</v>
+      </c>
+      <c r="I102" s="9">
+        <f t="shared" si="21"/>
+        <v>1.4024131989100186E-2</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="24"/>
+        <v>119.3147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="29"/>
         <v>45767</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>71.372600000000006</v>
+      </c>
+      <c r="D103">
+        <v>47.039299999999997</v>
+      </c>
+      <c r="E103">
+        <v>7.88</v>
+      </c>
+      <c r="F103">
+        <v>7.88</v>
+      </c>
+      <c r="G103">
+        <v>1.41</v>
+      </c>
+      <c r="I103" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3803196067093043E-2</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="24"/>
+        <v>118.4119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="29"/>
         <v>45768</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="29"/>
         <v>45769</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="29"/>
         <v>45770</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="29"/>
         <v>45771</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="29"/>
         <v>45772</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="29"/>
         <v>45773</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="29"/>
         <v>45774</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="29"/>
         <v>45775</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="29"/>
         <v>45776</v>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitri\Desktop\213\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\____  __ + _\фprttp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3FF741-BAB7-4E55-BCFC-1CE5350FDA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="2145" windowWidth="14280" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="2145" windowWidth="14280" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
     <sheet name="gUSD 26.12.24" sheetId="2" r:id="rId2"/>
     <sheet name="gUSD 26.06.25" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1756,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:M30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2284,7 +2283,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2375,7 +2374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3637,11 +3636,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6858,7 +6857,7 @@
         <v>11.25</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" ref="I65:I103" si="21">C65/$D$3</f>
+        <f t="shared" ref="I65:I142" si="21">C65/$D$3</f>
         <v>2.6878216422052594E-2</v>
       </c>
       <c r="J65">
@@ -6870,7 +6869,7 @@
         <v>1.3774999999999999</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M103" si="24">C65+D65</f>
+        <f t="shared" ref="M65:M142" si="24">C65+D65</f>
         <v>140.35749999999999</v>
       </c>
       <c r="O65" s="22">
@@ -7263,7 +7262,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <f t="shared" ref="A73:A115" si="29">A72+1</f>
+        <f t="shared" ref="A73:A136" si="29">A72+1</f>
         <v>45737</v>
       </c>
       <c r="C73">
@@ -8309,71 +8308,1298 @@
         <f t="shared" si="29"/>
         <v>45768</v>
       </c>
+      <c r="C104">
+        <v>70.163799999999995</v>
+      </c>
+      <c r="D104">
+        <v>47.615499999999997</v>
+      </c>
+      <c r="E104">
+        <v>7.86</v>
+      </c>
+      <c r="F104">
+        <v>6.45</v>
+      </c>
+      <c r="G104">
+        <v>4.25</v>
+      </c>
+      <c r="I104" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3569418631411813E-2</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="24"/>
+        <v>117.77929999999999</v>
+      </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="29"/>
         <v>45769</v>
       </c>
+      <c r="C105">
+        <v>69.078299999999999</v>
+      </c>
+      <c r="D105">
+        <v>48.551400000000001</v>
+      </c>
+      <c r="E105">
+        <v>7.85</v>
+      </c>
+      <c r="F105">
+        <v>6.82</v>
+      </c>
+      <c r="G105">
+        <v>6.95</v>
+      </c>
+      <c r="I105" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3359486958321166E-2</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="24"/>
+        <v>117.6297</v>
+      </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="29"/>
         <v>45770</v>
       </c>
+      <c r="C106">
+        <v>67.983599999999996</v>
+      </c>
+      <c r="D106">
+        <v>49.427599999999998</v>
+      </c>
+      <c r="E106">
+        <v>7.85</v>
+      </c>
+      <c r="F106">
+        <v>7.09</v>
+      </c>
+      <c r="G106">
+        <v>6.71</v>
+      </c>
+      <c r="I106" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3147776039360013E-2</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="24"/>
+        <v>117.41119999999999</v>
+      </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="29"/>
         <v>45771</v>
       </c>
+      <c r="C107">
+        <v>66.631600000000006</v>
+      </c>
+      <c r="D107">
+        <v>50.068399999999997</v>
+      </c>
+      <c r="E107">
+        <v>7.81</v>
+      </c>
+      <c r="F107">
+        <v>6.35</v>
+      </c>
+      <c r="G107">
+        <v>4.84</v>
+      </c>
+      <c r="I107" s="9">
+        <f t="shared" si="21"/>
+        <v>1.2886304254911784E-2</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="24"/>
+        <v>116.7</v>
+      </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="29"/>
         <v>45772</v>
       </c>
+      <c r="C108">
+        <v>65.548199999999994</v>
+      </c>
+      <c r="D108">
+        <v>50.804000000000002</v>
+      </c>
+      <c r="E108">
+        <v>7.81</v>
+      </c>
+      <c r="F108">
+        <v>5.85</v>
+      </c>
+      <c r="G108">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I108" s="9">
+        <f t="shared" si="21"/>
+        <v>1.2676778714030707E-2</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="24"/>
+        <v>116.3522</v>
+      </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="29"/>
         <v>45773</v>
       </c>
+      <c r="C109">
+        <v>63.905500000000004</v>
+      </c>
+      <c r="D109">
+        <v>51.475200000000001</v>
+      </c>
+      <c r="E109">
+        <v>7.73</v>
+      </c>
+      <c r="F109">
+        <v>4.91</v>
+      </c>
+      <c r="G109">
+        <v>4.88</v>
+      </c>
+      <c r="I109" s="9">
+        <f t="shared" si="21"/>
+        <v>1.2359086628000303E-2</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="24"/>
+        <v>115.3807</v>
+      </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="29"/>
         <v>45774</v>
       </c>
+      <c r="C110">
+        <v>62.9895</v>
+      </c>
+      <c r="D110">
+        <v>51.7577</v>
+      </c>
+      <c r="E110">
+        <v>7.74</v>
+      </c>
+      <c r="F110">
+        <v>4.99</v>
+      </c>
+      <c r="G110">
+        <v>2.29</v>
+      </c>
+      <c r="I110" s="9">
+        <f t="shared" si="21"/>
+        <v>1.2181935626110821E-2</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="24"/>
+        <v>114.74719999999999</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="29"/>
         <v>45775</v>
       </c>
+      <c r="C111">
+        <v>62.342399999999998</v>
+      </c>
+      <c r="D111">
+        <v>52.163899999999998</v>
+      </c>
+      <c r="E111">
+        <v>7.8</v>
+      </c>
+      <c r="F111">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G111">
+        <v>2.84</v>
+      </c>
+      <c r="I111" s="9">
+        <f t="shared" si="21"/>
+        <v>1.2056788886675576E-2</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="24"/>
+        <v>114.5063</v>
+      </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="29"/>
         <v>45776</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>60.798999999999999</v>
+      </c>
+      <c r="D112">
+        <v>52.847999999999999</v>
+      </c>
+      <c r="E112">
+        <v>7.74</v>
+      </c>
+      <c r="F112">
+        <v>4.55</v>
+      </c>
+      <c r="G112">
+        <v>5.04</v>
+      </c>
+      <c r="I112" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1758301052269216E-2</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="24"/>
+        <v>113.64699999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="29"/>
         <v>45777</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>60.6098</v>
+      </c>
+      <c r="D113">
+        <v>53.219200000000001</v>
+      </c>
+      <c r="E113">
+        <v>7.85</v>
+      </c>
+      <c r="F113">
+        <v>3.98</v>
+      </c>
+      <c r="G113">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I113" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1721710474149686E-2</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="24"/>
+        <v>113.82900000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="29"/>
         <v>45778</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>60.091900000000003</v>
+      </c>
+      <c r="D114">
+        <v>53.499000000000002</v>
+      </c>
+      <c r="E114">
+        <v>7.93</v>
+      </c>
+      <c r="F114">
+        <v>3.52</v>
+      </c>
+      <c r="G114">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I114" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1621550535417632E-2</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="24"/>
+        <v>113.5909</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="29"/>
         <v>45779</v>
+      </c>
+      <c r="C115">
+        <v>59.073700000000002</v>
+      </c>
+      <c r="D115">
+        <v>55.452800000000003</v>
+      </c>
+      <c r="E115">
+        <v>7.95</v>
+      </c>
+      <c r="F115">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G115">
+        <v>14.79</v>
+      </c>
+      <c r="I115" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1424634432662313E-2</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="24"/>
+        <v>114.5265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <f t="shared" si="29"/>
+        <v>45780</v>
+      </c>
+      <c r="C116">
+        <v>58.235799999999998</v>
+      </c>
+      <c r="D116">
+        <v>56.515000000000001</v>
+      </c>
+      <c r="E116">
+        <v>7.95</v>
+      </c>
+      <c r="F116">
+        <v>5.36</v>
+      </c>
+      <c r="G116">
+        <v>10.63</v>
+      </c>
+      <c r="I116" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1262587681043103E-2</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="24"/>
+        <v>114.7508</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <f t="shared" si="29"/>
+        <v>45781</v>
+      </c>
+      <c r="C117">
+        <v>56.9084</v>
+      </c>
+      <c r="D117">
+        <v>57.362699999999997</v>
+      </c>
+      <c r="E117">
+        <v>7.96</v>
+      </c>
+      <c r="F117">
+        <v>5.81</v>
+      </c>
+      <c r="G117">
+        <v>5.3</v>
+      </c>
+      <c r="I117" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1005873445335573E-2</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="24"/>
+        <v>114.27109999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <f t="shared" si="29"/>
+        <v>45782</v>
+      </c>
+      <c r="C118">
+        <v>55.3889</v>
+      </c>
+      <c r="D118">
+        <v>58.029200000000003</v>
+      </c>
+      <c r="E118">
+        <v>7.94</v>
+      </c>
+      <c r="F118">
+        <v>5.73</v>
+      </c>
+      <c r="G118">
+        <v>4.13</v>
+      </c>
+      <c r="I118" s="9">
+        <f t="shared" si="21"/>
+        <v>1.0712007782266721E-2</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="24"/>
+        <v>113.41810000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <f t="shared" si="29"/>
+        <v>45783</v>
+      </c>
+      <c r="C119">
+        <v>54.8386</v>
+      </c>
+      <c r="D119">
+        <v>58.220999999999997</v>
+      </c>
+      <c r="E119">
+        <v>7.94</v>
+      </c>
+      <c r="F119">
+        <v>5.66</v>
+      </c>
+      <c r="G119">
+        <v>2.56</v>
+      </c>
+      <c r="I119" s="9">
+        <f t="shared" si="21"/>
+        <v>1.0605581803729842E-2</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="24"/>
+        <v>113.05959999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <f t="shared" si="29"/>
+        <v>45784</v>
+      </c>
+      <c r="C120">
+        <v>53.768799999999999</v>
+      </c>
+      <c r="D120">
+        <v>59.178899999999999</v>
+      </c>
+      <c r="E120">
+        <v>7.94</v>
+      </c>
+      <c r="F120">
+        <v>6.32</v>
+      </c>
+      <c r="G120">
+        <v>7.13</v>
+      </c>
+      <c r="I120" s="9">
+        <f t="shared" si="21"/>
+        <v>1.039868645239647E-2</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="24"/>
+        <v>112.9477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <f t="shared" si="29"/>
+        <v>45785</v>
+      </c>
+      <c r="C121">
+        <v>52.698500000000003</v>
+      </c>
+      <c r="D121">
+        <v>60.8902</v>
+      </c>
+      <c r="E121">
+        <v>7.94</v>
+      </c>
+      <c r="F121">
+        <v>8.6</v>
+      </c>
+      <c r="G121">
+        <v>18.34</v>
+      </c>
+      <c r="I121" s="9">
+        <f t="shared" si="21"/>
+        <v>1.0191694402917964E-2</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="24"/>
+        <v>113.5887</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <f t="shared" si="29"/>
+        <v>45786</v>
+      </c>
+      <c r="C122">
+        <v>50.773800000000001</v>
+      </c>
+      <c r="D122">
+        <v>63.1175</v>
+      </c>
+      <c r="E122">
+        <v>7.82</v>
+      </c>
+      <c r="F122">
+        <v>9.01</v>
+      </c>
+      <c r="G122">
+        <v>15.92</v>
+      </c>
+      <c r="I122" s="9">
+        <f t="shared" si="21"/>
+        <v>9.8194645630307522E-3</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="24"/>
+        <v>113.8913</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <f t="shared" si="29"/>
+        <v>45787</v>
+      </c>
+      <c r="C123">
+        <v>59.223300000000002</v>
+      </c>
+      <c r="D123">
+        <v>65.715999999999994</v>
+      </c>
+      <c r="E123">
+        <v>9.39</v>
+      </c>
+      <c r="F123">
+        <v>10.57</v>
+      </c>
+      <c r="G123">
+        <v>20.76</v>
+      </c>
+      <c r="I123" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1453566517687058E-2</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="24"/>
+        <v>124.9393</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <f t="shared" si="29"/>
+        <v>45788</v>
+      </c>
+      <c r="C124">
+        <v>57.726599999999998</v>
+      </c>
+      <c r="D124">
+        <v>66.4726</v>
+      </c>
+      <c r="E124">
+        <v>9.33</v>
+      </c>
+      <c r="F124">
+        <v>10.64</v>
+      </c>
+      <c r="G124">
+        <v>5.78</v>
+      </c>
+      <c r="I124" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1164110290036416E-2</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="24"/>
+        <v>124.19919999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <f t="shared" si="29"/>
+        <v>45789</v>
+      </c>
+      <c r="C125">
+        <v>60.073999999999998</v>
+      </c>
+      <c r="D125">
+        <v>68.870699999999999</v>
+      </c>
+      <c r="E125">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="F125">
+        <v>12.79</v>
+      </c>
+      <c r="G125">
+        <v>19.18</v>
+      </c>
+      <c r="I125" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1618088741821755E-2</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="24"/>
+        <v>128.94470000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <f t="shared" si="29"/>
+        <v>45790</v>
+      </c>
+      <c r="C126">
+        <v>59.6815</v>
+      </c>
+      <c r="D126">
+        <v>71.581800000000001</v>
+      </c>
+      <c r="E126">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F126">
+        <v>15.58</v>
+      </c>
+      <c r="G126">
+        <v>21.7</v>
+      </c>
+      <c r="I126" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1542180697889854E-2</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="24"/>
+        <v>131.26330000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <f t="shared" si="29"/>
+        <v>45791</v>
+      </c>
+      <c r="C127">
+        <v>60.859200000000001</v>
+      </c>
+      <c r="D127">
+        <v>73.139300000000006</v>
+      </c>
+      <c r="E127">
+        <v>10.59</v>
+      </c>
+      <c r="F127">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="G127">
+        <v>18.68</v>
+      </c>
+      <c r="I127" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1769943508943613E-2</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="24"/>
+        <v>133.99850000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <f t="shared" si="29"/>
+        <v>45792</v>
+      </c>
+      <c r="C128">
+        <v>62.162100000000002</v>
+      </c>
+      <c r="D128">
+        <v>74.329300000000003</v>
+      </c>
+      <c r="E128">
+        <v>11.1</v>
+      </c>
+      <c r="F128">
+        <v>15.86</v>
+      </c>
+      <c r="G128">
+        <v>9</v>
+      </c>
+      <c r="I128" s="9">
+        <f t="shared" si="21"/>
+        <v>1.2021919535539471E-2</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="24"/>
+        <v>136.4914</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <f t="shared" si="29"/>
+        <v>45793</v>
+      </c>
+      <c r="C129">
+        <v>57.298000000000002</v>
+      </c>
+      <c r="D129">
+        <v>75.082899999999995</v>
+      </c>
+      <c r="E129">
+        <v>10.44</v>
+      </c>
+      <c r="F129">
+        <v>14.36</v>
+      </c>
+      <c r="G129">
+        <v>5.82</v>
+      </c>
+      <c r="I129" s="9">
+        <f t="shared" si="21"/>
+        <v>1.1081220640025684E-2</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="24"/>
+        <v>132.3809</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <f t="shared" si="29"/>
+        <v>45794</v>
+      </c>
+      <c r="C130">
+        <v>56.741199999999999</v>
+      </c>
+      <c r="D130">
+        <v>75.601100000000002</v>
+      </c>
+      <c r="E130">
+        <v>10.62</v>
+      </c>
+      <c r="F130">
+        <v>11.71</v>
+      </c>
+      <c r="G130">
+        <v>3.77</v>
+      </c>
+      <c r="I130" s="9">
+        <f t="shared" si="21"/>
+        <v>1.0973537585602034E-2</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="24"/>
+        <v>132.34229999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <f t="shared" si="29"/>
+        <v>45795</v>
+      </c>
+      <c r="C131">
+        <v>53.582999999999998</v>
+      </c>
+      <c r="D131">
+        <v>75.851799999999997</v>
+      </c>
+      <c r="E131">
+        <v>10.24</v>
+      </c>
+      <c r="F131">
+        <v>11.45</v>
+      </c>
+      <c r="G131">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I131" s="9">
+        <f t="shared" si="21"/>
+        <v>1.0362753421663866E-2</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="24"/>
+        <v>129.4348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <f t="shared" si="29"/>
+        <v>45796</v>
+      </c>
+      <c r="C132">
+        <v>52.673099999999998</v>
+      </c>
+      <c r="D132">
+        <v>78.240600000000001</v>
+      </c>
+      <c r="E132">
+        <v>10.34</v>
+      </c>
+      <c r="F132">
+        <v>11.29</v>
+      </c>
+      <c r="G132">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="I132" s="9">
+        <f t="shared" si="21"/>
+        <v>1.0186782137145045E-2</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="24"/>
+        <v>130.91370000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <f t="shared" si="29"/>
+        <v>45797</v>
+      </c>
+      <c r="C133">
+        <v>51.632899999999999</v>
+      </c>
+      <c r="D133">
+        <v>82.5732</v>
+      </c>
+      <c r="E133">
+        <v>10.44</v>
+      </c>
+      <c r="F133">
+        <v>12.96</v>
+      </c>
+      <c r="G133">
+        <v>36</v>
+      </c>
+      <c r="I133" s="9">
+        <f t="shared" si="21"/>
+        <v>9.9856113160037372E-3</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="24"/>
+        <v>134.20609999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <f t="shared" si="29"/>
+        <v>45798</v>
+      </c>
+      <c r="C134">
+        <v>45.462200000000003</v>
+      </c>
+      <c r="D134">
+        <v>83.200400000000002</v>
+      </c>
+      <c r="E134">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F134">
+        <v>11.08</v>
+      </c>
+      <c r="G134">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I134" s="9">
+        <f t="shared" si="21"/>
+        <v>8.7922208276200852E-3</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="24"/>
+        <v>128.6626</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <f t="shared" si="29"/>
+        <v>45799</v>
+      </c>
+      <c r="C135">
+        <v>43.8825</v>
+      </c>
+      <c r="D135">
+        <v>84.190600000000003</v>
+      </c>
+      <c r="E135">
+        <v>9.31</v>
+      </c>
+      <c r="F135">
+        <v>10.87</v>
+      </c>
+      <c r="G135">
+        <v>7.5</v>
+      </c>
+      <c r="I135" s="9">
+        <f t="shared" si="21"/>
+        <v>8.4867127078768374E-3</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="24"/>
+        <v>128.07310000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <f t="shared" si="29"/>
+        <v>45800</v>
+      </c>
+      <c r="C136">
+        <v>42.767000000000003</v>
+      </c>
+      <c r="D136">
+        <v>84.835300000000004</v>
+      </c>
+      <c r="E136">
+        <v>9.34</v>
+      </c>
+      <c r="F136">
+        <v>10.72</v>
+      </c>
+      <c r="G136">
+        <v>4.82</v>
+      </c>
+      <c r="I136" s="9">
+        <f t="shared" si="21"/>
+        <v>8.2709791460780207E-3</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="24"/>
+        <v>127.60230000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <f t="shared" ref="A137:A170" si="30">A136+1</f>
+        <v>45801</v>
+      </c>
+      <c r="C137">
+        <v>41.636699999999998</v>
+      </c>
+      <c r="D137">
+        <v>88.075900000000004</v>
+      </c>
+      <c r="E137">
+        <v>9.42</v>
+      </c>
+      <c r="F137">
+        <v>13.81</v>
+      </c>
+      <c r="G137">
+        <v>25.5</v>
+      </c>
+      <c r="I137" s="9">
+        <f t="shared" si="21"/>
+        <v>8.052383319183171E-3</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="24"/>
+        <v>129.71260000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <f t="shared" si="30"/>
+        <v>45802</v>
+      </c>
+      <c r="C138">
+        <v>40.018500000000003</v>
+      </c>
+      <c r="D138">
+        <v>88.351900000000001</v>
+      </c>
+      <c r="E138">
+        <v>9.33</v>
+      </c>
+      <c r="F138">
+        <v>13.91</v>
+      </c>
+      <c r="G138">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I138" s="9">
+        <f t="shared" si="21"/>
+        <v>7.7394294422644394E-3</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="24"/>
+        <v>128.37040000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <f t="shared" si="30"/>
+        <v>45803</v>
+      </c>
+      <c r="C139">
+        <v>41.451999999999998</v>
+      </c>
+      <c r="D139">
+        <v>88.900300000000001</v>
+      </c>
+      <c r="E139">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="F139">
+        <v>11.66</v>
+      </c>
+      <c r="G139">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I139" s="9">
+        <f t="shared" si="21"/>
+        <v>8.0166630243698675E-3</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="24"/>
+        <v>130.35230000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <f t="shared" si="30"/>
+        <v>45804</v>
+      </c>
+      <c r="C140">
+        <v>40.171500000000002</v>
+      </c>
+      <c r="D140">
+        <v>90.613699999999994</v>
+      </c>
+      <c r="E140">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F140">
+        <v>8.77</v>
+      </c>
+      <c r="G140">
+        <v>13.31</v>
+      </c>
+      <c r="I140" s="9">
+        <f t="shared" si="21"/>
+        <v>7.7690190746761102E-3</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="24"/>
+        <v>130.7852</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <f t="shared" si="30"/>
+        <v>45805</v>
+      </c>
+      <c r="C141">
+        <v>37.1601</v>
+      </c>
+      <c r="D141">
+        <v>92.963899999999995</v>
+      </c>
+      <c r="E141">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="F141">
+        <v>10.71</v>
+      </c>
+      <c r="G141">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="I141" s="9">
+        <f t="shared" si="21"/>
+        <v>7.1866254861499253E-3</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="24"/>
+        <v>130.124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <f t="shared" si="30"/>
+        <v>45806</v>
+      </c>
+      <c r="C142">
+        <v>35.146999999999998</v>
+      </c>
+      <c r="D142">
+        <v>94.510800000000003</v>
+      </c>
+      <c r="E142">
+        <v>9.32</v>
+      </c>
+      <c r="F142">
+        <v>11.36</v>
+      </c>
+      <c r="G142">
+        <v>12.1</v>
+      </c>
+      <c r="I142" s="9">
+        <f t="shared" si="21"/>
+        <v>6.7972994142026372E-3</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="24"/>
+        <v>129.65780000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <f t="shared" si="30"/>
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <f t="shared" si="30"/>
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <f t="shared" si="30"/>
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <f t="shared" si="30"/>
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <f t="shared" si="30"/>
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <f t="shared" si="30"/>
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <f t="shared" si="30"/>
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <f t="shared" si="30"/>
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <f t="shared" si="30"/>
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <f t="shared" si="30"/>
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <f t="shared" si="30"/>
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <f t="shared" si="30"/>
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <f t="shared" si="30"/>
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <f t="shared" si="30"/>
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <f t="shared" si="30"/>
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <f t="shared" si="30"/>
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <f t="shared" si="30"/>
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <f t="shared" si="30"/>
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <f t="shared" si="30"/>
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <f t="shared" si="30"/>
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <f t="shared" si="30"/>
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <f t="shared" si="30"/>
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <f t="shared" si="30"/>
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <f t="shared" si="30"/>
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <f t="shared" si="30"/>
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <f t="shared" si="30"/>
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <f t="shared" si="30"/>
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <f t="shared" si="30"/>
+        <v>45834</v>
       </c>
     </row>
   </sheetData>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -3640,7 +3640,7 @@
   <dimension ref="A1:R170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,7 +6857,7 @@
         <v>11.25</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" ref="I65:I142" si="21">C65/$D$3</f>
+        <f t="shared" ref="I65:I149" si="21">C65/$D$3</f>
         <v>2.6878216422052594E-2</v>
       </c>
       <c r="J65">
@@ -6869,7 +6869,7 @@
         <v>1.3774999999999999</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M142" si="24">C65+D65</f>
+        <f t="shared" ref="M65:M149" si="24">C65+D65</f>
         <v>140.35749999999999</v>
       </c>
       <c r="O65" s="22">
@@ -9439,104 +9439,265 @@
         <f t="shared" si="30"/>
         <v>45807</v>
       </c>
+      <c r="C143">
+        <v>34.210900000000002</v>
+      </c>
+      <c r="D143">
+        <v>95.928899999999999</v>
+      </c>
+      <c r="E143">
+        <v>9.41</v>
+      </c>
+      <c r="F143">
+        <v>12.26</v>
+      </c>
+      <c r="G143">
+        <v>10.68</v>
+      </c>
+      <c r="I143" s="9">
+        <f t="shared" si="21"/>
+        <v>6.616261146878682E-3</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="24"/>
+        <v>130.13980000000001</v>
+      </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" si="30"/>
         <v>45808</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>32.857599999999998</v>
+      </c>
+      <c r="D144">
+        <v>98.063599999999994</v>
+      </c>
+      <c r="E144">
+        <v>9.42</v>
+      </c>
+      <c r="F144">
+        <v>10.98</v>
+      </c>
+      <c r="G144">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="I144" s="9">
+        <f t="shared" si="21"/>
+        <v>6.3545379472530958E-3</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="24"/>
+        <v>130.9212</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" si="30"/>
         <v>45809</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>32.698500000000003</v>
+      </c>
+      <c r="D145">
+        <v>98.560400000000001</v>
+      </c>
+      <c r="E145">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F145">
+        <v>11.36</v>
+      </c>
+      <c r="G145">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="I145" s="9">
+        <f t="shared" si="21"/>
+        <v>6.3237685974707643E-3</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="24"/>
+        <v>131.25890000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" si="30"/>
         <v>45810</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>31.159199999999998</v>
+      </c>
+      <c r="D146">
+        <v>99.027900000000002</v>
+      </c>
+      <c r="E146">
+        <v>9.68</v>
+      </c>
+      <c r="F146">
+        <v>11.27</v>
+      </c>
+      <c r="G146">
+        <v>4.5</v>
+      </c>
+      <c r="I146" s="9">
+        <f t="shared" si="21"/>
+        <v>6.0260736878545197E-3</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="24"/>
+        <v>130.18709999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" si="30"/>
         <v>45811</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>29.617699999999999</v>
+      </c>
+      <c r="D147">
+        <v>99.587199999999996</v>
+      </c>
+      <c r="E147">
+        <v>9.57</v>
+      </c>
+      <c r="F147">
+        <v>9.75</v>
+      </c>
+      <c r="G147">
+        <v>4.2</v>
+      </c>
+      <c r="I147" s="9">
+        <f t="shared" si="21"/>
+        <v>5.7279533063996774E-3</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="24"/>
+        <v>129.20490000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" si="30"/>
         <v>45812</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>28.021000000000001</v>
+      </c>
+      <c r="D148">
+        <v>100.667</v>
+      </c>
+      <c r="E148">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F148">
+        <v>8.36</v>
+      </c>
+      <c r="G148">
+        <v>8.08</v>
+      </c>
+      <c r="I148" s="9">
+        <f t="shared" si="21"/>
+        <v>5.4191574497217997E-3</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="24"/>
+        <v>128.68799999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" si="30"/>
         <v>45813</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>26.726800000000001</v>
+      </c>
+      <c r="D149">
+        <v>101.348</v>
+      </c>
+      <c r="E149">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F149">
+        <v>7.37</v>
+      </c>
+      <c r="G149">
+        <v>5.07</v>
+      </c>
+      <c r="I149" s="9">
+        <f t="shared" si="21"/>
+        <v>5.1688639708513118E-3</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="24"/>
+        <v>128.07480000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f t="shared" si="30"/>
         <v>45814</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <f t="shared" si="30"/>
         <v>45815</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <f t="shared" si="30"/>
         <v>45816</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="30"/>
         <v>45817</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="30"/>
         <v>45818</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" si="30"/>
         <v>45819</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="30"/>
         <v>45820</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="30"/>
         <v>45821</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="30"/>
         <v>45822</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="30"/>
         <v>45823</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="30"/>
         <v>45824</v>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\____  __ + _\фprttp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitri\Desktop\213\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7316ECCC-ED59-4A1D-AAFD-8BC95F2E344B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="2145" windowWidth="14280" windowHeight="11385" activeTab="2"/>
+    <workbookView xWindow="1185" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
     <sheet name="gUSD 26.12.24" sheetId="2" r:id="rId2"/>
     <sheet name="gUSD 26.06.25" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1755,7 +1756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B11:M30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2283,7 +2284,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2374,7 +2375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3636,11 +3637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,7 +6858,7 @@
         <v>11.25</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" ref="I65:I149" si="21">C65/$D$3</f>
+        <f t="shared" ref="I65:I168" si="21">C65/$D$3</f>
         <v>2.6878216422052594E-2</v>
       </c>
       <c r="J65">
@@ -6869,7 +6870,7 @@
         <v>1.3774999999999999</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M149" si="24">C65+D65</f>
+        <f t="shared" ref="M65:M168" si="24">C65+D65</f>
         <v>140.35749999999999</v>
       </c>
       <c r="O65" s="22">
@@ -9642,122 +9643,559 @@
         <f t="shared" si="30"/>
         <v>45814</v>
       </c>
+      <c r="C150">
+        <v>25.365500000000001</v>
+      </c>
+      <c r="D150">
+        <v>102.66800000000001</v>
+      </c>
+      <c r="E150">
+        <v>9.42</v>
+      </c>
+      <c r="F150">
+        <v>7.27</v>
+      </c>
+      <c r="G150">
+        <v>10.06</v>
+      </c>
+      <c r="I150" s="9">
+        <f t="shared" si="21"/>
+        <v>4.905593600903548E-3</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="24"/>
+        <v>128.0335</v>
+      </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <f t="shared" si="30"/>
         <v>45815</v>
       </c>
+      <c r="C151">
+        <v>24.018899999999999</v>
+      </c>
+      <c r="D151">
+        <v>103.82599999999999</v>
+      </c>
+      <c r="E151">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F151">
+        <v>6.53</v>
+      </c>
+      <c r="G151">
+        <v>8.85</v>
+      </c>
+      <c r="I151" s="9">
+        <f t="shared" si="21"/>
+        <v>4.645166156422788E-3</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="24"/>
+        <v>127.8449</v>
+      </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <f t="shared" si="30"/>
         <v>45816</v>
       </c>
+      <c r="C152">
+        <v>22.662400000000002</v>
+      </c>
+      <c r="D152">
+        <v>104.268</v>
+      </c>
+      <c r="E152">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F152">
+        <v>6.12</v>
+      </c>
+      <c r="G152">
+        <v>3.56</v>
+      </c>
+      <c r="I152" s="9">
+        <f t="shared" si="21"/>
+        <v>4.3828240886683318E-3</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="24"/>
+        <v>126.93040000000001</v>
+      </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="30"/>
         <v>45817</v>
       </c>
+      <c r="C153">
+        <v>19.992599999999999</v>
+      </c>
+      <c r="D153">
+        <v>104.78400000000001</v>
+      </c>
+      <c r="E153">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F153">
+        <v>6.17</v>
+      </c>
+      <c r="G153">
+        <v>3.45</v>
+      </c>
+      <c r="I153" s="9">
+        <f t="shared" si="21"/>
+        <v>3.8664946728991846E-3</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="24"/>
+        <v>124.7766</v>
+      </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="30"/>
         <v>45818</v>
       </c>
+      <c r="C154">
+        <v>19.1447</v>
+      </c>
+      <c r="D154">
+        <v>105.801</v>
+      </c>
+      <c r="E154">
+        <v>8.86</v>
+      </c>
+      <c r="F154">
+        <v>6.69</v>
+      </c>
+      <c r="G154">
+        <v>7.8</v>
+      </c>
+      <c r="I154" s="9">
+        <f t="shared" si="21"/>
+        <v>3.702513958377251E-3</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="24"/>
+        <v>124.9457</v>
+      </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" si="30"/>
         <v>45819</v>
       </c>
+      <c r="C155">
+        <v>15.881</v>
+      </c>
+      <c r="D155">
+        <v>107.202</v>
+      </c>
+      <c r="E155">
+        <v>7.83</v>
+      </c>
+      <c r="F155">
+        <v>7</v>
+      </c>
+      <c r="G155">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="I155" s="9">
+        <f t="shared" si="21"/>
+        <v>3.0713264858153494E-3</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="24"/>
+        <v>123.083</v>
+      </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="30"/>
         <v>45820</v>
       </c>
+      <c r="C156">
+        <v>18.218299999999999</v>
+      </c>
+      <c r="D156">
+        <v>108.979</v>
+      </c>
+      <c r="E156">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F156">
+        <v>8.25</v>
+      </c>
+      <c r="G156">
+        <v>14.03</v>
+      </c>
+      <c r="I156" s="9">
+        <f t="shared" si="21"/>
+        <v>3.5233516350689363E-3</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="24"/>
+        <v>127.1973</v>
+      </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="30"/>
         <v>45821</v>
       </c>
+      <c r="C157">
+        <v>16.693999999999999</v>
+      </c>
+      <c r="D157">
+        <v>111.456</v>
+      </c>
+      <c r="E157">
+        <v>9.66</v>
+      </c>
+      <c r="F157">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="G157">
+        <v>19.04</v>
+      </c>
+      <c r="I157" s="9">
+        <f t="shared" si="21"/>
+        <v>3.2285576698067777E-3</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="24"/>
+        <v>128.15</v>
+      </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="30"/>
         <v>45822</v>
       </c>
+      <c r="C158">
+        <v>15.5038</v>
+      </c>
+      <c r="D158">
+        <v>114.613</v>
+      </c>
+      <c r="E158">
+        <v>9.68</v>
+      </c>
+      <c r="F158">
+        <v>11.82</v>
+      </c>
+      <c r="G158">
+        <v>26.48</v>
+      </c>
+      <c r="I158" s="9">
+        <f t="shared" si="21"/>
+        <v>2.9983774051246153E-3</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="24"/>
+        <v>130.11680000000001</v>
+      </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="30"/>
         <v>45823</v>
       </c>
+      <c r="C159">
+        <v>13.8024</v>
+      </c>
+      <c r="D159">
+        <v>115.752</v>
+      </c>
+      <c r="E159">
+        <v>9.39</v>
+      </c>
+      <c r="F159">
+        <v>12.56</v>
+      </c>
+      <c r="G159">
+        <v>8.9</v>
+      </c>
+      <c r="I159" s="9">
+        <f t="shared" si="21"/>
+        <v>2.6693329568552217E-3</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="24"/>
+        <v>129.55439999999999</v>
+      </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="30"/>
         <v>45824</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>12.7746</v>
+      </c>
+      <c r="D160">
+        <v>116.276</v>
+      </c>
+      <c r="E160">
+        <v>9.51</v>
+      </c>
+      <c r="F160">
+        <v>12.66</v>
+      </c>
+      <c r="G160">
+        <v>4.18</v>
+      </c>
+      <c r="I160" s="9">
+        <f t="shared" si="21"/>
+        <v>2.4705602497132901E-3</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="24"/>
+        <v>129.0506</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <f t="shared" si="30"/>
         <v>45825</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>11.614699999999999</v>
+      </c>
+      <c r="D161">
+        <v>117.459</v>
+      </c>
+      <c r="E161">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F161">
+        <v>12.85</v>
+      </c>
+      <c r="G161">
+        <v>8.94</v>
+      </c>
+      <c r="I161" s="9">
+        <f t="shared" si="21"/>
+        <v>2.2462398926263796E-3</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="24"/>
+        <v>129.0737</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <f t="shared" si="30"/>
         <v>45826</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>10.431699999999999</v>
+      </c>
+      <c r="D162">
+        <v>118.444</v>
+      </c>
+      <c r="E162">
+        <v>9.74</v>
+      </c>
+      <c r="F162">
+        <v>12.41</v>
+      </c>
+      <c r="G162">
+        <v>7.39</v>
+      </c>
+      <c r="I162" s="9">
+        <f t="shared" si="21"/>
+        <v>2.0174520812341777E-3</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="24"/>
+        <v>128.87569999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f t="shared" si="30"/>
         <v>45827</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>9.2922700000000003</v>
+      </c>
+      <c r="D163">
+        <v>119.59699999999999</v>
+      </c>
+      <c r="E163">
+        <v>9.94</v>
+      </c>
+      <c r="F163">
+        <v>11.65</v>
+      </c>
+      <c r="G163">
+        <v>8.66</v>
+      </c>
+      <c r="I163" s="9">
+        <f t="shared" si="21"/>
+        <v>1.7970905462091429E-3</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="24"/>
+        <v>128.88926999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <f t="shared" si="30"/>
         <v>45828</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>8.1878399999999996</v>
+      </c>
+      <c r="D164">
+        <v>120.164</v>
+      </c>
+      <c r="E164">
+        <v>10.18</v>
+      </c>
+      <c r="F164">
+        <v>10.02</v>
+      </c>
+      <c r="G164">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I164" s="9">
+        <f t="shared" si="21"/>
+        <v>1.5834978813436401E-3</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="24"/>
+        <v>128.35184000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <f t="shared" si="30"/>
         <v>45829</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>7.0474600000000001</v>
+      </c>
+      <c r="D165">
+        <v>123.389</v>
+      </c>
+      <c r="E165">
+        <v>10.57</v>
+      </c>
+      <c r="F165">
+        <v>9.67</v>
+      </c>
+      <c r="G165">
+        <v>26.34</v>
+      </c>
+      <c r="I165" s="9">
+        <f t="shared" si="21"/>
+        <v>1.3629526198428463E-3</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="24"/>
+        <v>130.43645999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f t="shared" si="30"/>
         <v>45830</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>5.28939</v>
+      </c>
+      <c r="D166">
+        <v>124.28400000000001</v>
+      </c>
+      <c r="E166">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F166">
+        <v>9.31</v>
+      </c>
+      <c r="G166">
+        <v>6.65</v>
+      </c>
+      <c r="I166" s="9">
+        <f t="shared" si="21"/>
+        <v>1.0229484038037184E-3</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="24"/>
+        <v>129.57339000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f t="shared" si="30"/>
         <v>45831</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>4.67842</v>
+      </c>
+      <c r="D167">
+        <v>126.24299999999999</v>
+      </c>
+      <c r="E167">
+        <v>11.93</v>
+      </c>
+      <c r="F167">
+        <v>10.87</v>
+      </c>
+      <c r="G167">
+        <v>15.08</v>
+      </c>
+      <c r="I167" s="9">
+        <f t="shared" si="21"/>
+        <v>9.0478907233601448E-4</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="24"/>
+        <v>130.92141999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <f t="shared" si="30"/>
         <v>45832</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>2.12643</v>
+      </c>
+      <c r="D168">
+        <v>127.37</v>
+      </c>
+      <c r="E168">
+        <v>11.2</v>
+      </c>
+      <c r="F168">
+        <v>10.47</v>
+      </c>
+      <c r="G168">
+        <v>5.9</v>
+      </c>
+      <c r="I168" s="9">
+        <f t="shared" si="21"/>
+        <v>4.1124367352385452E-4</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="24"/>
+        <v>129.49643</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <f t="shared" si="30"/>
         <v>45833</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <f t="shared" si="30"/>
         <v>45834</v>

--- a/uniswap 10.11.24.xlsx
+++ b/uniswap 10.11.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitri\Desktop\213\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7316ECCC-ED59-4A1D-AAFD-8BC95F2E344B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096CC99B-B8D3-4328-8B9C-E58FC16906EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNISWAP" sheetId="1" r:id="rId1"/>
@@ -3640,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6858,7 +6858,7 @@
         <v>11.25</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" ref="I65:I168" si="21">C65/$D$3</f>
+        <f t="shared" ref="I65:I169" si="21">C65/$D$3</f>
         <v>2.6878216422052594E-2</v>
       </c>
       <c r="J65">
@@ -6870,7 +6870,7 @@
         <v>1.3774999999999999</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M168" si="24">C65+D65</f>
+        <f t="shared" ref="M65:M169" si="24">C65+D65</f>
         <v>140.35749999999999</v>
       </c>
       <c r="O65" s="22">
@@ -7603,9 +7603,33 @@
         <f t="shared" si="21"/>
         <v>2.133992685752302E-2</v>
       </c>
+      <c r="J79">
+        <f t="shared" ref="J79:J142" si="30">C79-C78</f>
+        <v>-8.5</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ref="K79:K142" si="31">D79-D78</f>
+        <v>0.6570999999999998</v>
+      </c>
       <c r="M79">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="M79:M142" si="32">C79+D79</f>
         <v>121.071</v>
+      </c>
+      <c r="O79" s="22">
+        <f t="shared" ref="O79:O142" si="33">(I79/I78-1)*100</f>
+        <v>-7.1522933618303197</v>
+      </c>
+      <c r="P79" s="13">
+        <f t="shared" ref="P79:P142" si="34">E79-E78</f>
+        <v>-0.63000000000000078</v>
+      </c>
+      <c r="Q79" s="17">
+        <f t="shared" ref="Q79:Q142" si="35">F79-F78</f>
+        <v>-0.75999999999999979</v>
+      </c>
+      <c r="R79" s="20">
+        <f t="shared" ref="R79:R142" si="36">G79-G78</f>
+        <v>-0.90000000000000036</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -7632,12 +7656,36 @@
         <f t="shared" si="21"/>
         <v>2.0761285157028121E-2</v>
       </c>
+      <c r="J80">
+        <f t="shared" si="30"/>
+        <v>-2.9920000000000044</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="31"/>
+        <v>1.1235999999999997</v>
+      </c>
       <c r="M80">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>119.2026</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O80" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.7115449099625599</v>
+      </c>
+      <c r="P80" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.14999999999999858</v>
+      </c>
+      <c r="Q80" s="17">
+        <f t="shared" si="35"/>
+        <v>0.38999999999999968</v>
+      </c>
+      <c r="R80" s="20">
+        <f t="shared" si="36"/>
+        <v>3.5599999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="29"/>
         <v>45745</v>
@@ -7661,12 +7709,36 @@
         <f t="shared" si="21"/>
         <v>2.0971506924554177E-2</v>
       </c>
+      <c r="J81">
+        <f t="shared" si="30"/>
+        <v>1.0870000000000033</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="31"/>
+        <v>1.1931000000000012</v>
+      </c>
       <c r="M81">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>121.48270000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O81" s="22">
+        <f t="shared" si="33"/>
+        <v>1.0125662546226932</v>
+      </c>
+      <c r="P81" s="13">
+        <f t="shared" si="34"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Q81" s="17">
+        <f t="shared" si="35"/>
+        <v>0.9300000000000006</v>
+      </c>
+      <c r="R81" s="20">
+        <f t="shared" si="36"/>
+        <v>0.47000000000000064</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="29"/>
         <v>45746</v>
@@ -7690,12 +7762,36 @@
         <f t="shared" si="21"/>
         <v>2.0090586822363574E-2</v>
       </c>
+      <c r="J82">
+        <f t="shared" si="30"/>
+        <v>-4.5550000000000068</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="31"/>
+        <v>0.53969999999999985</v>
+      </c>
       <c r="M82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>117.4674</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O82" s="22">
+        <f t="shared" si="33"/>
+        <v>-4.200557000313565</v>
+      </c>
+      <c r="P82" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="Q82" s="17">
+        <f t="shared" si="35"/>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="R82" s="20">
+        <f t="shared" si="36"/>
+        <v>-4.57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" si="29"/>
         <v>45747</v>
@@ -7719,12 +7815,36 @@
         <f t="shared" si="21"/>
         <v>1.9826020697270987E-2</v>
       </c>
+      <c r="J83">
+        <f t="shared" si="30"/>
+        <v>-1.367999999999995</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="31"/>
+        <v>0.31010000000000026</v>
+      </c>
       <c r="M83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>116.40950000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O83" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.3168660897355577</v>
+      </c>
+      <c r="P83" s="13">
+        <f t="shared" si="34"/>
+        <v>-1.9999999999999574E-2</v>
+      </c>
+      <c r="Q83" s="17">
+        <f t="shared" si="35"/>
+        <v>-6.9999999999999396E-2</v>
+      </c>
+      <c r="R83" s="20">
+        <f t="shared" si="36"/>
+        <v>-2.0799999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" si="29"/>
         <v>45748</v>
@@ -7748,12 +7868,36 @@
         <f t="shared" si="21"/>
         <v>1.9530511165734819E-2</v>
       </c>
+      <c r="J84">
+        <f t="shared" si="30"/>
+        <v>-1.5280000000000058</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="31"/>
+        <v>1.0155999999999992</v>
+      </c>
       <c r="M84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>115.89709999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O84" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.4905135833780503</v>
+      </c>
+      <c r="P84" s="13">
+        <f t="shared" si="34"/>
+        <v>-1.9999999999999574E-2</v>
+      </c>
+      <c r="Q84" s="17">
+        <f t="shared" si="35"/>
+        <v>0.15999999999999925</v>
+      </c>
+      <c r="R84" s="20">
+        <f t="shared" si="36"/>
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" si="29"/>
         <v>45749</v>
@@ -7777,12 +7921,36 @@
         <f t="shared" si="21"/>
         <v>1.9363416770939501E-2</v>
       </c>
+      <c r="J85">
+        <f t="shared" si="30"/>
+        <v>-0.86399999999999011</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="31"/>
+        <v>1.1067999999999998</v>
+      </c>
       <c r="M85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>116.13990000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O85" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.8555556655807095</v>
+      </c>
+      <c r="P85" s="13">
+        <f t="shared" si="34"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="Q85" s="17">
+        <f t="shared" si="35"/>
+        <v>0.51000000000000068</v>
+      </c>
+      <c r="R85" s="20">
+        <f t="shared" si="36"/>
+        <v>2.370000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="29"/>
         <v>45750</v>
@@ -7806,12 +7974,36 @@
         <f t="shared" si="21"/>
         <v>1.9175841709004337E-2</v>
       </c>
+      <c r="J86">
+        <f t="shared" si="30"/>
+        <v>-0.96990000000000975</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="31"/>
+        <v>1.5335000000000001</v>
+      </c>
       <c r="M86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>116.70349999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O86" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.96870848855908909</v>
+      </c>
+      <c r="P86" s="13">
+        <f t="shared" si="34"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="Q86" s="17">
+        <f t="shared" si="35"/>
+        <v>0.92999999999999972</v>
+      </c>
+      <c r="R86" s="20">
+        <f t="shared" si="36"/>
+        <v>4.5399999999999991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="29"/>
         <v>45751</v>
@@ -7835,12 +8027,36 @@
         <f t="shared" si="21"/>
         <v>1.8825968480272612E-2</v>
       </c>
+      <c r="J87">
+        <f t="shared" si="30"/>
+        <v>-1.8091000000000008</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="31"/>
+        <v>0.87630000000000052</v>
+      </c>
       <c r="M87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>115.77069999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O87" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.8245521320059521</v>
+      </c>
+      <c r="P87" s="13">
+        <f t="shared" si="34"/>
+        <v>-5.9999999999998721E-2</v>
+      </c>
+      <c r="Q87" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.24000000000000021</v>
+      </c>
+      <c r="R87" s="20">
+        <f t="shared" si="36"/>
+        <v>-7.68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="29"/>
         <v>45752</v>
@@ -7864,12 +8080,36 @@
         <f t="shared" si="21"/>
         <v>1.8332015015287979E-2</v>
       </c>
+      <c r="J88">
+        <f t="shared" si="30"/>
+        <v>-2.5540999999999912</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="31"/>
+        <v>1.3665999999999983</v>
+      </c>
       <c r="M88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>114.58320000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O88" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.6237878040762497</v>
+      </c>
+      <c r="P88" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.13000000000000078</v>
+      </c>
+      <c r="Q88" s="17">
+        <f t="shared" si="35"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="R88" s="20">
+        <f t="shared" si="36"/>
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="29"/>
         <v>45753</v>
@@ -7893,12 +8133,36 @@
         <f t="shared" si="21"/>
         <v>1.8131927213372194E-2</v>
       </c>
+      <c r="J89">
+        <f t="shared" si="30"/>
+        <v>-1.0345999999999975</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="31"/>
+        <v>0.51740000000000208</v>
+      </c>
       <c r="M89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>114.066</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O89" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.0914664959030485</v>
+      </c>
+      <c r="P89" s="13">
+        <f t="shared" si="34"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="Q89" s="17">
+        <f t="shared" si="35"/>
+        <v>-5.9999999999999609E-2</v>
+      </c>
+      <c r="R89" s="20">
+        <f t="shared" si="36"/>
+        <v>-6.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="29"/>
         <v>45754</v>
@@ -7922,12 +8186,36 @@
         <f t="shared" si="21"/>
         <v>1.8010396984565046E-2</v>
       </c>
+      <c r="J90">
+        <f t="shared" si="30"/>
+        <v>-0.62839999999999918</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="31"/>
+        <v>2.2560000000000002</v>
+      </c>
       <c r="M90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>115.6936</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O90" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.67025544155902006</v>
+      </c>
+      <c r="P90" s="13">
+        <f t="shared" si="34"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="Q90" s="17">
+        <f t="shared" si="35"/>
+        <v>2.25</v>
+      </c>
+      <c r="R90" s="20">
+        <f t="shared" si="36"/>
+        <v>13.810000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" si="29"/>
         <v>45755</v>
@@ -7951,12 +8239,36 @@
         <f t="shared" si="21"/>
         <v>1.8014632363322007E-2</v>
       </c>
+      <c r="J91">
+        <f t="shared" si="30"/>
+        <v>2.189999999998804E-2</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="31"/>
+        <v>8.5553999999999988</v>
+      </c>
       <c r="M91">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>124.2709</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O91" s="22">
+        <f t="shared" si="33"/>
+        <v>2.3516298727854767E-2</v>
+      </c>
+      <c r="P91" s="13">
+        <f t="shared" si="34"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="Q91" s="17">
+        <f t="shared" si="35"/>
+        <v>9.0699999999999985</v>
+      </c>
+      <c r="R91" s="20">
+        <f t="shared" si="36"/>
+        <v>67.72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="29"/>
         <v>45756</v>
@@ -7980,12 +8292,36 @@
         <f t="shared" si="21"/>
         <v>1.7993049337327614E-2</v>
       </c>
+      <c r="J92">
+        <f t="shared" si="30"/>
+        <v>-0.1115999999999957</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="31"/>
+        <v>2.945800000000002</v>
+      </c>
       <c r="M92">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>127.10509999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O92" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.11980830670924592</v>
+      </c>
+      <c r="P92" s="13">
+        <f t="shared" si="34"/>
+        <v>0.11000000000000121</v>
+      </c>
+      <c r="Q92" s="17">
+        <f t="shared" si="35"/>
+        <v>2.0600000000000023</v>
+      </c>
+      <c r="R92" s="20">
+        <f t="shared" si="36"/>
+        <v>-59.22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="29"/>
         <v>45757</v>
@@ -8009,12 +8345,36 @@
         <f t="shared" si="21"/>
         <v>1.7484049640959787E-2</v>
       </c>
+      <c r="J93">
+        <f t="shared" si="30"/>
+        <v>-2.6319000000000017</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="31"/>
+        <v>2.1683999999999983</v>
+      </c>
       <c r="M93">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>126.6416</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O93" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.8288684526189711</v>
+      </c>
+      <c r="P93" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="Q93" s="17">
+        <f t="shared" si="35"/>
+        <v>0.77999999999999758</v>
+      </c>
+      <c r="R93" s="20">
+        <f t="shared" si="36"/>
+        <v>-9.5200000000000031</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="29"/>
         <v>45758</v>
@@ -8038,12 +8398,36 @@
         <f t="shared" si="21"/>
         <v>1.7484939263895039E-2</v>
       </c>
+      <c r="J94">
+        <f t="shared" si="30"/>
+        <v>4.5999999999963848E-3</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="31"/>
+        <v>1.4622000000000028</v>
+      </c>
       <c r="M94">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>128.10839999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O94" s="22">
+        <f t="shared" si="33"/>
+        <v>5.088197262770322E-3</v>
+      </c>
+      <c r="P94" s="13">
+        <f t="shared" si="34"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="Q94" s="17">
+        <f t="shared" si="35"/>
+        <v>0.73000000000000043</v>
+      </c>
+      <c r="R94" s="20">
+        <f t="shared" si="36"/>
+        <v>-5.8499999999999979</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="29"/>
         <v>45759</v>
@@ -8067,12 +8451,36 @@
         <f t="shared" si="21"/>
         <v>1.728692080228517E-2</v>
       </c>
+      <c r="J95">
+        <f t="shared" si="30"/>
+        <v>-1.0238999999999976</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="31"/>
+        <v>1.2136999999999958</v>
+      </c>
       <c r="M95">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>128.29820000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O95" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.1325087186248473</v>
+      </c>
+      <c r="P95" s="13">
+        <f t="shared" si="34"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="Q95" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.17999999999999972</v>
+      </c>
+      <c r="R95" s="20">
+        <f t="shared" si="36"/>
+        <v>-1.9800000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="29"/>
         <v>45760</v>
@@ -8096,12 +8504,36 @@
         <f t="shared" si="21"/>
         <v>1.7079909413177639E-2</v>
       </c>
+      <c r="J96">
+        <f t="shared" si="30"/>
+        <v>-1.0703999999999922</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="31"/>
+        <v>0.75010000000000332</v>
+      </c>
       <c r="M96">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>127.97790000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O96" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.1975029646700608</v>
+      </c>
+      <c r="P96" s="13">
+        <f t="shared" si="34"/>
+        <v>2.000000000000135E-2</v>
+      </c>
+      <c r="Q96" s="17">
+        <f t="shared" si="35"/>
+        <v>0.33000000000000185</v>
+      </c>
+      <c r="R96" s="20">
+        <f t="shared" si="36"/>
+        <v>-3.5700000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="29"/>
         <v>45761</v>
@@ -8125,12 +8557,36 @@
         <f t="shared" si="21"/>
         <v>1.7186528788004789E-2</v>
       </c>
+      <c r="J97">
+        <f t="shared" si="30"/>
+        <v>0.55129999999999768</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="31"/>
+        <v>1.8840000000000003</v>
+      </c>
       <c r="M97">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>130.41320000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O97" s="22">
+        <f t="shared" si="33"/>
+        <v>0.6242385263758532</v>
+      </c>
+      <c r="P97" s="13">
+        <f t="shared" si="34"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="Q97" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.51999999999999957</v>
+      </c>
+      <c r="R97" s="20">
+        <f t="shared" si="36"/>
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="29"/>
         <v>45762</v>
@@ -8154,12 +8610,36 @@
         <f t="shared" si="21"/>
         <v>1.6062296813022531E-2</v>
       </c>
+      <c r="J98">
+        <f t="shared" si="30"/>
+        <v>-5.8131000000000057</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="31"/>
+        <v>0.58809999999999718</v>
+      </c>
       <c r="M98">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>125.18819999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O98" s="22">
+        <f t="shared" si="33"/>
+        <v>-6.5413556678583511</v>
+      </c>
+      <c r="P98" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q98" s="17">
+        <f t="shared" si="35"/>
+        <v>-9.2600000000000016</v>
+      </c>
+      <c r="R98" s="20">
+        <f t="shared" si="36"/>
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" si="29"/>
         <v>45763</v>
@@ -8183,12 +8663,36 @@
         <f t="shared" si="21"/>
         <v>1.4849276601176237E-2</v>
       </c>
+      <c r="J99">
+        <f t="shared" si="30"/>
+        <v>-6.272199999999998</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="31"/>
+        <v>0.66570000000000107</v>
+      </c>
       <c r="M99">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>119.5817</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O99" s="22">
+        <f t="shared" si="33"/>
+        <v>-7.5519723360038764</v>
+      </c>
+      <c r="P99" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.5600000000000005</v>
+      </c>
+      <c r="Q99" s="17">
+        <f t="shared" si="35"/>
+        <v>-2.99</v>
+      </c>
+      <c r="R99" s="20">
+        <f t="shared" si="36"/>
+        <v>0.47000000000000064</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" si="29"/>
         <v>45764</v>
@@ -8212,12 +8716,36 @@
         <f t="shared" si="21"/>
         <v>1.4637333606666757E-2</v>
       </c>
+      <c r="J100">
+        <f t="shared" si="30"/>
+        <v>-1.0959000000000003</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="31"/>
+        <v>1.2948999999999984</v>
+      </c>
       <c r="M100">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>119.7807</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O100" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.427295081113189</v>
+      </c>
+      <c r="P100" s="13">
+        <f t="shared" si="34"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="Q100" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.94999999999999929</v>
+      </c>
+      <c r="R100" s="20">
+        <f t="shared" si="36"/>
+        <v>5.4700000000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="29"/>
         <v>45765</v>
@@ -8241,12 +8769,36 @@
         <f t="shared" si="21"/>
         <v>1.4117851831366173E-2</v>
       </c>
+      <c r="J101">
+        <f t="shared" si="30"/>
+        <v>-2.6860999999999962</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="31"/>
+        <v>1.2197000000000031</v>
+      </c>
       <c r="M101">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>118.3143</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O101" s="22">
+        <f t="shared" si="33"/>
+        <v>-3.5490191674252713</v>
+      </c>
+      <c r="P101" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.16999999999999993</v>
+      </c>
+      <c r="Q101" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.33999999999999986</v>
+      </c>
+      <c r="R101" s="20">
+        <f t="shared" si="36"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="29"/>
         <v>45766</v>
@@ -8270,12 +8822,36 @@
         <f t="shared" si="21"/>
         <v>1.4024131989100186E-2</v>
       </c>
+      <c r="J102">
+        <f t="shared" si="30"/>
+        <v>-0.48460000000000036</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="31"/>
+        <v>1.4849999999999994</v>
+      </c>
       <c r="M102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>119.3147</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O102" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.66383925391373388</v>
+      </c>
+      <c r="P102" s="13">
+        <f t="shared" si="34"/>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="Q102" s="17">
+        <f t="shared" si="35"/>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="R102" s="20">
+        <f t="shared" si="36"/>
+        <v>4.0799999999999983</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="29"/>
         <v>45767</v>
@@ -8299,12 +8875,36 @@
         <f t="shared" si="21"/>
         <v>1.3803196067093043E-2</v>
       </c>
+      <c r="J103">
+        <f t="shared" si="30"/>
+        <v>-1.142399999999995</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="31"/>
+        <v>0.23959999999999582</v>
+      </c>
       <c r="M103">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>118.4119</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O103" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.5753981934772066</v>
+      </c>
+      <c r="P103" s="13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.59000000000000075</v>
+      </c>
+      <c r="R103" s="20">
+        <f t="shared" si="36"/>
+        <v>-10.879999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="29"/>
         <v>45768</v>
@@ -8328,12 +8928,36 @@
         <f t="shared" si="21"/>
         <v>1.3569418631411813E-2</v>
       </c>
+      <c r="J104">
+        <f t="shared" si="30"/>
+        <v>-1.2088000000000108</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="31"/>
+        <v>0.57620000000000005</v>
+      </c>
       <c r="M104">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>117.77929999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O104" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.6936471419004007</v>
+      </c>
+      <c r="P104" s="13">
+        <f t="shared" si="34"/>
+        <v>-1.9999999999999574E-2</v>
+      </c>
+      <c r="Q104" s="17">
+        <f t="shared" si="35"/>
+        <v>-1.4299999999999997</v>
+      </c>
+      <c r="R104" s="20">
+        <f t="shared" si="36"/>
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="29"/>
         <v>45769</v>
@@ -8357,12 +8981,36 @@
         <f t="shared" si="21"/>
         <v>1.3359486958321166E-2</v>
       </c>
+      <c r="J105">
+        <f t="shared" si="30"/>
+        <v>-1.0854999999999961</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="31"/>
+        <v>0.93590000000000373</v>
+      </c>
       <c r="M105">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>117.6297</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O105" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.5470940855540904</v>
+      </c>
+      <c r="P105" s="13">
+        <f t="shared" si="34"/>
+        <v>-1.0000000000000675E-2</v>
+      </c>
+      <c r="Q105" s="17">
+        <f t="shared" si="35"/>
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="R105" s="20">
+        <f t="shared" si="36"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="29"/>
         <v>45770</v>
@@ -8386,12 +9034,36 @@
         <f t="shared" si="21"/>
         <v>1.3147776039360013E-2</v>
       </c>
+      <c r="J106">
+        <f t="shared" si="30"/>
+        <v>-1.0947000000000031</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="31"/>
+        <v>0.8761999999999972</v>
+      </c>
       <c r="M106">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>117.41119999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O106" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.5847234225509266</v>
+      </c>
+      <c r="P106" s="13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="17">
+        <f t="shared" si="35"/>
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="R106" s="20">
+        <f t="shared" si="36"/>
+        <v>-0.24000000000000021</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="29"/>
         <v>45771</v>
@@ -8415,12 +9087,36 @@
         <f t="shared" si="21"/>
         <v>1.2886304254911784E-2</v>
       </c>
+      <c r="J107">
+        <f t="shared" si="30"/>
+        <v>-1.3519999999999897</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="31"/>
+        <v>0.6407999999999987</v>
+      </c>
       <c r="M107">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>116.7</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O107" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.9887149253643432</v>
+      </c>
+      <c r="P107" s="13">
+        <f t="shared" si="34"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="Q107" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.74000000000000021</v>
+      </c>
+      <c r="R107" s="20">
+        <f t="shared" si="36"/>
+        <v>-1.87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="29"/>
         <v>45772</v>
@@ -8444,12 +9140,36 @@
         <f t="shared" si="21"/>
         <v>1.2676778714030707E-2</v>
       </c>
+      <c r="J108">
+        <f t="shared" si="30"/>
+        <v>-1.0834000000000117</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="31"/>
+        <v>0.73560000000000514</v>
+      </c>
       <c r="M108">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>116.3522</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O108" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.6259552524628074</v>
+      </c>
+      <c r="P108" s="13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.5</v>
+      </c>
+      <c r="R108" s="20">
+        <f t="shared" si="36"/>
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="29"/>
         <v>45773</v>
@@ -8473,12 +9193,36 @@
         <f t="shared" si="21"/>
         <v>1.2359086628000303E-2</v>
       </c>
+      <c r="J109">
+        <f t="shared" si="30"/>
+        <v>-1.6426999999999907</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="31"/>
+        <v>0.67119999999999891</v>
+      </c>
       <c r="M109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>115.3807</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O109" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.5060947516483911</v>
+      </c>
+      <c r="P109" s="13">
+        <f t="shared" si="34"/>
+        <v>-7.9999999999999183E-2</v>
+      </c>
+      <c r="Q109" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.9399999999999995</v>
+      </c>
+      <c r="R109" s="20">
+        <f t="shared" si="36"/>
+        <v>-6.0000000000000497E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="29"/>
         <v>45774</v>
@@ -8502,12 +9246,36 @@
         <f t="shared" si="21"/>
         <v>1.2181935626110821E-2</v>
       </c>
+      <c r="J110">
+        <f t="shared" si="30"/>
+        <v>-0.91600000000000392</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="31"/>
+        <v>0.28249999999999886</v>
+      </c>
       <c r="M110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>114.74719999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O110" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.4333664551564484</v>
+      </c>
+      <c r="P110" s="13">
+        <f t="shared" si="34"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="Q110" s="17">
+        <f t="shared" si="35"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="R110" s="20">
+        <f t="shared" si="36"/>
+        <v>-2.59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="29"/>
         <v>45775</v>
@@ -8531,12 +9299,36 @@
         <f t="shared" si="21"/>
         <v>1.2056788886675576E-2</v>
       </c>
+      <c r="J111">
+        <f t="shared" si="30"/>
+        <v>-0.64710000000000178</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="31"/>
+        <v>0.40619999999999834</v>
+      </c>
       <c r="M111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>114.5063</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O111" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.027314076155561</v>
+      </c>
+      <c r="P111" s="13">
+        <f t="shared" si="34"/>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="Q111" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.1800000000000006</v>
+      </c>
+      <c r="R111" s="20">
+        <f t="shared" si="36"/>
+        <v>0.54999999999999982</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="29"/>
         <v>45776</v>
@@ -8560,12 +9352,36 @@
         <f t="shared" si="21"/>
         <v>1.1758301052269216E-2</v>
       </c>
+      <c r="J112">
+        <f t="shared" si="30"/>
+        <v>-1.5433999999999983</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="31"/>
+        <v>0.68410000000000082</v>
+      </c>
       <c r="M112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>113.64699999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O112" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.4756826814495425</v>
+      </c>
+      <c r="P112" s="13">
+        <f t="shared" si="34"/>
+        <v>-5.9999999999999609E-2</v>
+      </c>
+      <c r="Q112" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.25999999999999979</v>
+      </c>
+      <c r="R112" s="20">
+        <f t="shared" si="36"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="29"/>
         <v>45777</v>
@@ -8589,12 +9405,36 @@
         <f t="shared" si="21"/>
         <v>1.1721710474149686E-2</v>
       </c>
+      <c r="J113">
+        <f t="shared" si="30"/>
+        <v>-0.18919999999999959</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="31"/>
+        <v>0.37120000000000175</v>
+      </c>
       <c r="M113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>113.82900000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O113" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.31118932877184369</v>
+      </c>
+      <c r="P113" s="13">
+        <f t="shared" si="34"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q113" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.56999999999999984</v>
+      </c>
+      <c r="R113" s="20">
+        <f t="shared" si="36"/>
+        <v>-2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="29"/>
         <v>45778</v>
@@ -8618,12 +9458,36 @@
         <f t="shared" si="21"/>
         <v>1.1621550535417632E-2</v>
       </c>
+      <c r="J114">
+        <f t="shared" si="30"/>
+        <v>-0.51789999999999736</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="31"/>
+        <v>0.2798000000000016</v>
+      </c>
       <c r="M114">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>113.5909</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O114" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.85448227844341362</v>
+      </c>
+      <c r="P114" s="13">
+        <f t="shared" si="34"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Q114" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.45999999999999996</v>
+      </c>
+      <c r="R114" s="20">
+        <f t="shared" si="36"/>
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="29"/>
         <v>45779</v>
@@ -8647,12 +9511,36 @@
         <f t="shared" si="21"/>
         <v>1.1424634432662313E-2</v>
       </c>
+      <c r="J115">
+        <f t="shared" si="30"/>
+        <v>-1.0182000000000002</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="31"/>
+        <v>1.9538000000000011</v>
+      </c>
       <c r="M115">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>114.5265</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O115" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.6944047367448922</v>
+      </c>
+      <c r="P115" s="13">
+        <f t="shared" si="34"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="Q115" s="17">
+        <f t="shared" si="35"/>
+        <v>1.3299999999999996</v>
+      </c>
+      <c r="R115" s="20">
+        <f t="shared" si="36"/>
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="29"/>
         <v>45780</v>
@@ -8676,12 +9564,36 @@
         <f t="shared" si="21"/>
         <v>1.1262587681043103E-2</v>
       </c>
+      <c r="J116">
+        <f t="shared" si="30"/>
+        <v>-0.83790000000000475</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="31"/>
+        <v>1.0621999999999971</v>
+      </c>
       <c r="M116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>114.7508</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O116" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.4183976964368239</v>
+      </c>
+      <c r="P116" s="13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q116" s="17">
+        <f t="shared" si="35"/>
+        <v>0.51000000000000068</v>
+      </c>
+      <c r="R116" s="20">
+        <f t="shared" si="36"/>
+        <v>-4.1599999999999984</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="29"/>
         <v>45781</v>
@@ -8705,12 +9617,36 @@
         <f t="shared" si="21"/>
         <v>1.1005873445335573E-2</v>
       </c>
+      <c r="J117">
+        <f t="shared" si="30"/>
+        <v>-1.3273999999999972</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="31"/>
+        <v>0.84769999999999612</v>
+      </c>
       <c r="M117">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>114.27109999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O117" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.2793539369253879</v>
+      </c>
+      <c r="P117" s="13">
+        <f t="shared" si="34"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="Q117" s="17">
+        <f t="shared" si="35"/>
+        <v>0.44999999999999929</v>
+      </c>
+      <c r="R117" s="20">
+        <f t="shared" si="36"/>
+        <v>-5.330000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="29"/>
         <v>45782</v>
@@ -8734,12 +9670,36 @@
         <f t="shared" si="21"/>
         <v>1.0712007782266721E-2</v>
       </c>
+      <c r="J118">
+        <f t="shared" si="30"/>
+        <v>-1.5195000000000007</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="31"/>
+        <v>0.66650000000000631</v>
+      </c>
       <c r="M118">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>113.41810000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O118" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.6700803396335293</v>
+      </c>
+      <c r="P118" s="13">
+        <f t="shared" si="34"/>
+        <v>-1.9999999999999574E-2</v>
+      </c>
+      <c r="Q118" s="17">
+        <f t="shared" si="35"/>
+        <v>-7.9999999999999183E-2</v>
+      </c>
+      <c r="R118" s="20">
+        <f t="shared" si="36"/>
+        <v>-1.17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="29"/>
         <v>45783</v>
@@ -8763,12 +9723,36 @@
         <f t="shared" si="21"/>
         <v>1.0605581803729842E-2</v>
       </c>
+      <c r="J119">
+        <f t="shared" si="30"/>
+        <v>-0.55030000000000001</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="31"/>
+        <v>0.19179999999999353</v>
+      </c>
       <c r="M119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>113.05959999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O119" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.99352036238307129</v>
+      </c>
+      <c r="P119" s="13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q119" s="17">
+        <f t="shared" si="35"/>
+        <v>-7.0000000000000284E-2</v>
+      </c>
+      <c r="R119" s="20">
+        <f t="shared" si="36"/>
+        <v>-1.5699999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" si="29"/>
         <v>45784</v>
@@ -8792,12 +9776,36 @@
         <f t="shared" si="21"/>
         <v>1.039868645239647E-2</v>
       </c>
+      <c r="J120">
+        <f t="shared" si="30"/>
+        <v>-1.0698000000000008</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="31"/>
+        <v>0.95790000000000219</v>
+      </c>
       <c r="M120">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>112.9477</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O120" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.9508156663372356</v>
+      </c>
+      <c r="P120" s="13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="17">
+        <f t="shared" si="35"/>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="R120" s="20">
+        <f t="shared" si="36"/>
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" si="29"/>
         <v>45785</v>
@@ -8821,12 +9829,36 @@
         <f t="shared" si="21"/>
         <v>1.0191694402917964E-2</v>
       </c>
+      <c r="J121">
+        <f t="shared" si="30"/>
+        <v>-1.070299999999996</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="31"/>
+        <v>1.7113000000000014</v>
+      </c>
       <c r="M121">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>113.5887</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O121" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.9905595810209564</v>
+      </c>
+      <c r="P121" s="13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q121" s="17">
+        <f t="shared" si="35"/>
+        <v>2.2799999999999994</v>
+      </c>
+      <c r="R121" s="20">
+        <f t="shared" si="36"/>
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="29"/>
         <v>45786</v>
@@ -8850,12 +9882,36 @@
         <f t="shared" si="21"/>
         <v>9.8194645630307522E-3</v>
       </c>
+      <c r="J122">
+        <f t="shared" si="30"/>
+        <v>-1.9247000000000014</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="31"/>
+        <v>2.2272999999999996</v>
+      </c>
       <c r="M122">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>113.8913</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O122" s="22">
+        <f t="shared" si="33"/>
+        <v>-3.6522861182007094</v>
+      </c>
+      <c r="P122" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="Q122" s="17">
+        <f t="shared" si="35"/>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="R122" s="20">
+        <f t="shared" si="36"/>
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="29"/>
         <v>45787</v>
@@ -8879,12 +9935,36 @@
         <f t="shared" si="21"/>
         <v>1.1453566517687058E-2</v>
       </c>
+      <c r="J123">
+        <f t="shared" si="30"/>
+        <v>8.4495000000000005</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="31"/>
+        <v>2.5984999999999943</v>
+      </c>
       <c r="M123">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>124.9393</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O123" s="22">
+        <f t="shared" si="33"/>
+        <v>16.641456814341261</v>
+      </c>
+      <c r="P123" s="13">
+        <f t="shared" si="34"/>
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="Q123" s="17">
+        <f t="shared" si="35"/>
+        <v>1.5600000000000005</v>
+      </c>
+      <c r="R123" s="20">
+        <f t="shared" si="36"/>
+        <v>4.8400000000000016</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="29"/>
         <v>45788</v>
@@ -8908,12 +9988,36 @@
         <f t="shared" si="21"/>
         <v>1.1164110290036416E-2</v>
       </c>
+      <c r="J124">
+        <f t="shared" si="30"/>
+        <v>-1.4967000000000041</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="31"/>
+        <v>0.75660000000000593</v>
+      </c>
       <c r="M124">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>124.19919999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O124" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.527214795528121</v>
+      </c>
+      <c r="P124" s="13">
+        <f t="shared" si="34"/>
+        <v>-6.0000000000000497E-2</v>
+      </c>
+      <c r="Q124" s="17">
+        <f t="shared" si="35"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="R124" s="20">
+        <f t="shared" si="36"/>
+        <v>-14.98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="29"/>
         <v>45789</v>
@@ -8937,12 +10041,36 @@
         <f t="shared" si="21"/>
         <v>1.1618088741821755E-2</v>
       </c>
+      <c r="J125">
+        <f t="shared" si="30"/>
+        <v>2.3474000000000004</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="31"/>
+        <v>2.3980999999999995</v>
+      </c>
       <c r="M125">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>128.94470000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O125" s="22">
+        <f t="shared" si="33"/>
+        <v>4.0664095928047095</v>
+      </c>
+      <c r="P125" s="13">
+        <f t="shared" si="34"/>
+        <v>0.63000000000000078</v>
+      </c>
+      <c r="Q125" s="17">
+        <f t="shared" si="35"/>
+        <v>2.1499999999999986</v>
+      </c>
+      <c r="R125" s="20">
+        <f t="shared" si="36"/>
+        <v>13.399999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="29"/>
         <v>45790</v>
@@ -8966,12 +10094,36 @@
         <f t="shared" si="21"/>
         <v>1.1542180697889854E-2</v>
       </c>
+      <c r="J126">
+        <f t="shared" si="30"/>
+        <v>-0.39249999999999829</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="31"/>
+        <v>2.7111000000000018</v>
+      </c>
       <c r="M126">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>131.26330000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O126" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.65336085494556162</v>
+      </c>
+      <c r="P126" s="13">
+        <f t="shared" si="34"/>
+        <v>0.15999999999999837</v>
+      </c>
+      <c r="Q126" s="17">
+        <f t="shared" si="35"/>
+        <v>2.7900000000000009</v>
+      </c>
+      <c r="R126" s="20">
+        <f t="shared" si="36"/>
+        <v>2.5199999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="29"/>
         <v>45791</v>
@@ -8995,12 +10147,36 @@
         <f t="shared" si="21"/>
         <v>1.1769943508943613E-2</v>
       </c>
+      <c r="J127">
+        <f t="shared" si="30"/>
+        <v>1.1777000000000015</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="31"/>
+        <v>1.5575000000000045</v>
+      </c>
       <c r="M127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>133.99850000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O127" s="22">
+        <f t="shared" si="33"/>
+        <v>1.9733083116208583</v>
+      </c>
+      <c r="P127" s="13">
+        <f t="shared" si="34"/>
+        <v>0.47000000000000064</v>
+      </c>
+      <c r="Q127" s="17">
+        <f t="shared" si="35"/>
+        <v>1.6599999999999984</v>
+      </c>
+      <c r="R127" s="20">
+        <f t="shared" si="36"/>
+        <v>-3.0199999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" si="29"/>
         <v>45792</v>
@@ -9024,12 +10200,36 @@
         <f t="shared" si="21"/>
         <v>1.2021919535539471E-2</v>
       </c>
+      <c r="J128">
+        <f t="shared" si="30"/>
+        <v>1.3029000000000011</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="31"/>
+        <v>1.1899999999999977</v>
+      </c>
       <c r="M128">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>136.4914</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O128" s="22">
+        <f t="shared" si="33"/>
+        <v>2.1408431264295258</v>
+      </c>
+      <c r="P128" s="13">
+        <f t="shared" si="34"/>
+        <v>0.50999999999999979</v>
+      </c>
+      <c r="Q128" s="17">
+        <f t="shared" si="35"/>
+        <v>-1.379999999999999</v>
+      </c>
+      <c r="R128" s="20">
+        <f t="shared" si="36"/>
+        <v>-9.68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="29"/>
         <v>45793</v>
@@ -9053,12 +10253,36 @@
         <f t="shared" si="21"/>
         <v>1.1081220640025684E-2</v>
       </c>
+      <c r="J129">
+        <f t="shared" si="30"/>
+        <v>-4.8641000000000005</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="31"/>
+        <v>0.75359999999999161</v>
+      </c>
       <c r="M129">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>132.3809</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O129" s="22">
+        <f t="shared" si="33"/>
+        <v>-7.8248643466034773</v>
+      </c>
+      <c r="P129" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.66000000000000014</v>
+      </c>
+      <c r="Q129" s="17">
+        <f t="shared" si="35"/>
+        <v>-1.5</v>
+      </c>
+      <c r="R129" s="20">
+        <f t="shared" si="36"/>
+        <v>-3.1799999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" si="29"/>
         <v>45794</v>
@@ -9082,12 +10306,36 @@
         <f t="shared" si="21"/>
         <v>1.0973537585602034E-2</v>
       </c>
+      <c r="J130">
+        <f t="shared" si="30"/>
+        <v>-0.55680000000000263</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="31"/>
+        <v>0.51820000000000732</v>
+      </c>
       <c r="M130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>132.34229999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O130" s="22">
+        <f t="shared" si="33"/>
+        <v>-0.97176166707390044</v>
+      </c>
+      <c r="P130" s="13">
+        <f t="shared" si="34"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="Q130" s="17">
+        <f t="shared" si="35"/>
+        <v>-2.6499999999999986</v>
+      </c>
+      <c r="R130" s="20">
+        <f t="shared" si="36"/>
+        <v>-2.0500000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" si="29"/>
         <v>45795</v>
@@ -9111,12 +10359,36 @@
         <f t="shared" si="21"/>
         <v>1.0362753421663866E-2</v>
       </c>
+      <c r="J131">
+        <f t="shared" si="30"/>
+        <v>-3.1582000000000008</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="31"/>
+        <v>0.25069999999999482</v>
+      </c>
       <c r="M131">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>129.4348</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O131" s="22">
+        <f t="shared" si="33"/>
+        <v>-5.5659732258041883</v>
+      </c>
+      <c r="P131" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.37999999999999901</v>
+      </c>
+      <c r="Q131" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.26000000000000156</v>
+      </c>
+      <c r="R131" s="20">
+        <f t="shared" si="36"/>
+        <v>-1.5499999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" si="29"/>
         <v>45796</v>
@@ -9140,12 +10412,36 @@
         <f t="shared" si="21"/>
         <v>1.0186782137145045E-2</v>
       </c>
+      <c r="J132">
+        <f t="shared" si="30"/>
+        <v>-0.90990000000000038</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="31"/>
+        <v>2.3888000000000034</v>
+      </c>
       <c r="M132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>130.91370000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O132" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.6981132075471694</v>
+      </c>
+      <c r="P132" s="13">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="Q132" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.16000000000000014</v>
+      </c>
+      <c r="R132" s="20">
+        <f t="shared" si="36"/>
+        <v>16.720000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" si="29"/>
         <v>45797</v>
@@ -9169,12 +10465,36 @@
         <f t="shared" si="21"/>
         <v>9.9856113160037372E-3</v>
       </c>
+      <c r="J133">
+        <f t="shared" si="30"/>
+        <v>-1.0401999999999987</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="31"/>
+        <v>4.3325999999999993</v>
+      </c>
       <c r="M133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>134.20609999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O133" s="22">
+        <f t="shared" si="33"/>
+        <v>-1.9748220628745927</v>
+      </c>
+      <c r="P133" s="13">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="Q133" s="17">
+        <f t="shared" si="35"/>
+        <v>1.6700000000000017</v>
+      </c>
+      <c r="R133" s="20">
+        <f t="shared" si="36"/>
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="29"/>
         <v>45798</v>
@@ -9198,12 +10518,36 @@
         <f t="shared" si="21"/>
         <v>8.7922208276200852E-3</v>
       </c>
+      <c r="J134">
+        <f t="shared" si="30"/>
+        <v>-6.1706999999999965</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="31"/>
+        <v>0.62720000000000198</v>
+      </c>
       <c r="M134">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>128.6626</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O134" s="22">
+        <f t="shared" si="33"/>
+        <v>-11.951100945327497</v>
+      </c>
+      <c r="P134" s="13">
+        <f t="shared" si="34"/>
+        <v>-1.0599999999999987</v>
+      </c>
+      <c r="Q134" s="17">
+        <f t="shared" si="35"/>
+        <v>-1.8800000000000008</v>
+      </c>
+      <c r="R134" s="20">
+        <f t="shared" si="36"/>
+        <v>-31.15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="29"/>
         <v>45799</v>
@@ -9227,12 +10571,36 @@
         <f t="shared" si="21"/>
         <v>8.4867127078768374E-3</v>
       </c>
+      <c r="J135">
+        <f t="shared" si="30"/>
+        <v>-1.5797000000000025</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="31"/>
+        <v>0.99020000000000152</v>
+      </c>
       <c r="M135">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>128.07310000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O135" s="22">
+        <f t="shared" si="33"/>
+        <v>-3.4747548512830462</v>
+      </c>
+      <c r="P135" s="13">
+        <f t="shared" si="34"/>
+        <v>-7.0000000000000284E-2</v>
+      </c>
+      <c r="Q135" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.21000000000000085</v>
+      </c>
+      <c r="R135" s="20">
+        <f t="shared" si="36"/>
+        <v>2.6500000000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="29"/>
         <v>45800</v>
@@ -9256,14 +10624,38 @@
         <f t="shared" si="21"/>
         <v>8.2709791460780207E-3</v>
       </c>
+      <c r="J136">
+        <f t="shared" si="30"/>
+        <v>-1.1154999999999973</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="31"/>
+        <v>0.64470000000000027</v>
+      </c>
       <c r="M136">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>127.60230000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O136" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.5420156098672542</v>
+      </c>
+      <c r="P136" s="13">
+        <f t="shared" si="34"/>
+        <v>2.9999999999999361E-2</v>
+      </c>
+      <c r="Q136" s="17">
+        <f t="shared" si="35"/>
+        <v>-0.14999999999999858</v>
+      </c>
+      <c r="R136" s="20">
+        <f t="shared" si="36"/>
+        <v>-2.6799999999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <f t="shared" ref="A137:A170" si="30">A136+1</f>
+        <f t="shared" ref="A137:A170" si="37">A136+1</f>
         <v>45801</v>
       </c>
       <c r="C137">
@@ -9285,14 +10677,38 @@
         <f t="shared" si="21"/>
         <v>8.052383319183171E-3</v>
       </c>
+      <c r="J137">
+        <f t="shared" si="30"/>
+        <v>-1.1303000000000054</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="31"/>
+        <v>3.2406000000000006</v>
+      </c>
       <c r="M137">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>129.71260000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O137" s="22">
+        <f t="shared" si="33"/>
+        <v>-2.6429256202212148</v>
+      </c>
+      <c r="P137" s="13">
+        <f t="shared" si="34"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Q137" s="17">
+        <f t="shared" si="35"/>
+        <v>3.09</v>
+      </c>
+      <c r="R137" s="20">
+        <f t="shared" si="36"/>
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45802</v>
       </c>
       <c r="C138">
@@ -9314,14 +10730,38 @@
         <f t="shared" si="21"/>
         <v>7.7394294422644394E-3</v>
       </c>
+      <c r="J138">
+        <f t="shared" si="30"/>
+        <v>-1.6181999999999945</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="31"/>
+        <v>0.27599999999999625</v>
+      </c>
       <c r="M138">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>128.37040000000002</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O138" s="22">
+        <f t="shared" si="33"/>
+        <v>-3.886475152929969</v>
+      </c>
+      <c r="P138" s="13">
+        <f t="shared" si="34"/>
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="Q138" s="17">
+        <f t="shared" si="35"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="R138" s="20">
+        <f t="shared" si="36"/>
+        <v>-23.45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45803</v>
       </c>
       <c r="C139">
@@ -9343,14 +10783,38 @@
         <f t="shared" si="21"/>
         <v>8.0166630243698675E-3</v>
       </c>
+      <c r="J139">
+        <f t="shared" si="30"/>
+        <v>1.4334999999999951</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="31"/>
+        <v>0.54840000000000089</v>
+      </c>
       <c r="M139">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>130.35230000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O139" s="22">
+        <f t="shared" si="33"/>
+        <v>3.582093281857146</v>
+      </c>
+      <c r="P139" s="13">
+        <f t="shared" si="34"/>
+        <v>0.63000000000000078</v>
+      </c>
+      <c r="Q139" s="17">
+        <f t="shared" si="35"/>
+        <v>-2.25</v>
+      </c>
+      <c r="R139" s="20">
+        <f t="shared" si="36"/>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45804</v>
       </c>
       <c r="C140">
@@ -9372,14 +10836,38 @@
         <f t="shared" si="21"/>
         <v>7.7690190746761102E-3</v>
       </c>
+      <c r="J140">
+        <f t="shared" si="30"/>
+        <v>-1.2804999999999964</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="31"/>
+        <v>1.7133999999999929</v>
+      </c>
       <c r="M140">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>130.7852</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O140" s="22">
+        <f t="shared" si="33"/>
+        <v>-3.0891151211039358</v>
+      </c>
+      <c r="P140" s="13">
+        <f t="shared" si="34"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="Q140" s="17">
+        <f t="shared" si="35"/>
+        <v>-2.8900000000000006</v>
+      </c>
+      <c r="R140" s="20">
+        <f t="shared" si="36"/>
+        <v>8.6700000000000017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45805</v>
       </c>
       <c r="C141">
@@ -9401,14 +10889,38 @@
         <f t="shared" si="21"/>
         <v>7.1866254861499253E-3</v>
       </c>
+      <c r="J141">
+        <f t="shared" si="30"/>
+        <v>-3.0114000000000019</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="31"/>
+        <v>2.350200000000001</v>
+      </c>
       <c r="M141">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>130.124</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O141" s="22">
+        <f t="shared" si="33"/>
+        <v>-7.4963593592472293</v>
+      </c>
+      <c r="P141" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.44000000000000128</v>
+      </c>
+      <c r="Q141" s="17">
+        <f t="shared" si="35"/>
+        <v>1.9400000000000013</v>
+      </c>
+      <c r="R141" s="20">
+        <f t="shared" si="36"/>
+        <v>5.0199999999999978</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45806</v>
       </c>
       <c r="C142">
@@ -9430,14 +10942,38 @@
         <f t="shared" si="21"/>
         <v>6.7972994142026372E-3</v>
       </c>
+      <c r="J142">
+        <f t="shared" si="30"/>
+        <v>-2.0131000000000014</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="31"/>
+        <v>1.5469000000000079</v>
+      </c>
       <c r="M142">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>129.65780000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O142" s="22">
+        <f t="shared" si="33"/>
+        <v>-5.4173697056789427</v>
+      </c>
+      <c r="P142" s="13">
+        <f t="shared" si="34"/>
+        <v>-0.20999999999999908</v>
+      </c>
+      <c r="Q142" s="17">
+        <f t="shared" si="35"/>
+        <v>0.64999999999999858</v>
+      </c>
+      <c r="R142" s="20">
+        <f t="shared" si="36"/>
+        <v>-6.2299999999999986</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45807</v>
       </c>
       <c r="C143">
@@ -9459,14 +10995,38 @@
         <f t="shared" si="21"/>
         <v>6.616261146878682E-3</v>
       </c>
+      <c r="J143">
+        <f t="shared" ref="J143:J170" si="38">C143-C142</f>
+        <v>-0.93609999999999616</v>
+      </c>
+      <c r="K143">
+        <f t="shared" ref="K143:K170" si="39">D143-D142</f>
+        <v>1.4180999999999955</v>
+      </c>
       <c r="M143">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="M143:M170" si="40">C143+D143</f>
         <v>130.13980000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O143" s="22">
+        <f t="shared" ref="O143:O170" si="41">(I143/I142-1)*100</f>
+        <v>-2.6633852106865308</v>
+      </c>
+      <c r="P143" s="13">
+        <f t="shared" ref="P143:P170" si="42">E143-E142</f>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="Q143" s="17">
+        <f t="shared" ref="Q143:Q170" si="43">F143-F142</f>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="R143" s="20">
+        <f t="shared" ref="R143:R170" si="44">G143-G142</f>
+        <v>-1.42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45808</v>
       </c>
       <c r="C144">
@@ -9488,14 +11048,38 @@
         <f t="shared" si="21"/>
         <v>6.3545379472530958E-3</v>
       </c>
+      <c r="J144">
+        <f t="shared" si="38"/>
+        <v>-1.3533000000000044</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="39"/>
+        <v>2.1346999999999952</v>
+      </c>
       <c r="M144">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>130.9212</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O144" s="22">
+        <f t="shared" si="41"/>
+        <v>-3.9557567909643043</v>
+      </c>
+      <c r="P144" s="13">
+        <f t="shared" si="42"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="Q144" s="17">
+        <f t="shared" si="43"/>
+        <v>-1.2799999999999994</v>
+      </c>
+      <c r="R144" s="20">
+        <f t="shared" si="44"/>
+        <v>5.8099999999999987</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45809</v>
       </c>
       <c r="C145">
@@ -9517,14 +11101,38 @@
         <f t="shared" si="21"/>
         <v>6.3237685974707643E-3</v>
       </c>
+      <c r="J145">
+        <f t="shared" si="38"/>
+        <v>-0.15909999999999513</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="39"/>
+        <v>0.49680000000000746</v>
+      </c>
       <c r="M145">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>131.25890000000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O145" s="22">
+        <f t="shared" si="41"/>
+        <v>-0.48421065446044853</v>
+      </c>
+      <c r="P145" s="13">
+        <f t="shared" si="42"/>
+        <v>0.27999999999999936</v>
+      </c>
+      <c r="Q145" s="17">
+        <f t="shared" si="43"/>
+        <v>0.37999999999999901</v>
+      </c>
+      <c r="R145" s="20">
+        <f t="shared" si="44"/>
+        <v>-7.6099999999999977</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45810</v>
       </c>
       <c r="C146">
@@ -9546,14 +11154,38 @@
         <f t="shared" si="21"/>
         <v>6.0260736878545197E-3</v>
       </c>
+      <c r="J146">
+        <f t="shared" si="38"/>
+        <v>-1.5393000000000043</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="39"/>
+        <v>0.46750000000000114</v>
+      </c>
       <c r="M146">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>130.18709999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O146" s="22">
+        <f t="shared" si="41"/>
+        <v>-4.7075553924492031</v>
+      </c>
+      <c r="P146" s="13">
+        <f t="shared" si="42"/>
+        <v>-1.9999999999999574E-2</v>
+      </c>
+      <c r="Q146" s="17">
+        <f t="shared" si="43"/>
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="R146" s="20">
+        <f t="shared" si="44"/>
+        <v>-4.3800000000000008</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45811</v>
       </c>
       <c r="C147">
@@ -9575,14 +11207,38 @@
         <f t="shared" si="21"/>
         <v>5.7279533063996774E-3</v>
       </c>
+      <c r="J147">
+        <f t="shared" si="38"/>
+        <v>-1.5414999999999992</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="39"/>
+        <v>0.55929999999999325</v>
+      </c>
       <c r="M147">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>129.20490000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O147" s="22">
+        <f t="shared" si="41"/>
+        <v>-4.9471745102569908</v>
+      </c>
+      <c r="P147" s="13">
+        <f t="shared" si="42"/>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="Q147" s="17">
+        <f t="shared" si="43"/>
+        <v>-1.5199999999999996</v>
+      </c>
+      <c r="R147" s="20">
+        <f t="shared" si="44"/>
+        <v>-0.29999999999999982</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45812</v>
       </c>
       <c r="C148">
@@ -9604,14 +11260,38 @@
         <f t="shared" si="21"/>
         <v>5.4191574497217997E-3</v>
       </c>
+      <c r="J148">
+        <f t="shared" si="38"/>
+        <v>-1.5966999999999985</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="39"/>
+        <v>1.0798000000000059</v>
+      </c>
       <c r="M148">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>128.68799999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O148" s="22">
+        <f t="shared" si="41"/>
+        <v>-5.3910330646876776</v>
+      </c>
+      <c r="P148" s="13">
+        <f t="shared" si="42"/>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="Q148" s="17">
+        <f t="shared" si="43"/>
+        <v>-1.3900000000000006</v>
+      </c>
+      <c r="R148" s="20">
+        <f t="shared" si="44"/>
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45813</v>
       </c>
       <c r="C149">
@@ -9633,14 +11313,38 @@
         <f t="shared" si="21"/>
         <v>5.1688639708513118E-3</v>
       </c>
+      <c r="J149">
+        <f t="shared" si="38"/>
+        <v>-1.2942</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="39"/>
+        <v>0.68099999999999739</v>
+      </c>
       <c r="M149">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>128.07480000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O149" s="22">
+        <f t="shared" si="41"/>
+        <v>-4.6186788480068408</v>
+      </c>
+      <c r="P149" s="13">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Q149" s="17">
+        <f t="shared" si="43"/>
+        <v>-0.98999999999999932</v>
+      </c>
+      <c r="R149" s="20">
+        <f t="shared" si="44"/>
+        <v>-3.01</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45814</v>
       </c>
       <c r="C150">
@@ -9662,14 +11366,38 @@
         <f t="shared" si="21"/>
         <v>4.905593600903548E-3</v>
       </c>
+      <c r="J150">
+        <f t="shared" si="38"/>
+        <v>-1.3613</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="39"/>
+        <v>1.3200000000000074</v>
+      </c>
       <c r="M150">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>128.0335</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O150" s="22">
+        <f t="shared" si="41"/>
+        <v>-5.0933894068874714</v>
+      </c>
+      <c r="P150" s="13">
+        <f t="shared" si="42"/>
+        <v>-4.0000000000000924E-2</v>
+      </c>
+      <c r="Q150" s="17">
+        <f t="shared" si="43"/>
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="R150" s="20">
+        <f t="shared" si="44"/>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45815</v>
       </c>
       <c r="C151">
@@ -9691,14 +11419,38 @@
         <f t="shared" si="21"/>
         <v>4.645166156422788E-3</v>
       </c>
+      <c r="J151">
+        <f t="shared" si="38"/>
+        <v>-1.3466000000000022</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="39"/>
+        <v>1.157999999999987</v>
+      </c>
       <c r="M151">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>127.8449</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O151" s="22">
+        <f t="shared" si="41"/>
+        <v>-5.3087855551832259</v>
+      </c>
+      <c r="P151" s="13">
+        <f t="shared" si="42"/>
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="Q151" s="17">
+        <f t="shared" si="43"/>
+        <v>-0.73999999999999932</v>
+      </c>
+      <c r="R151" s="20">
+        <f t="shared" si="44"/>
+        <v>-1.2100000000000009</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45816</v>
       </c>
       <c r="C152">
@@ -9720,14 +11472,38 @@
         <f t="shared" si="21"/>
         <v>4.3828240886683318E-3</v>
       </c>
+      <c r="J152">
+        <f t="shared" si="38"/>
+        <v>-1.3564999999999969</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="39"/>
+        <v>0.44200000000000728</v>
+      </c>
       <c r="M152">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>126.93040000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O152" s="22">
+        <f t="shared" si="41"/>
+        <v>-5.6476358201249859</v>
+      </c>
+      <c r="P152" s="13">
+        <f t="shared" si="42"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="Q152" s="17">
+        <f t="shared" si="43"/>
+        <v>-0.41000000000000014</v>
+      </c>
+      <c r="R152" s="20">
+        <f t="shared" si="44"/>
+        <v>-5.2899999999999991</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45817</v>
       </c>
       <c r="C153">
@@ -9749,14 +11525,38 @@
         <f t="shared" si="21"/>
         <v>3.8664946728991846E-3</v>
       </c>
+      <c r="J153">
+        <f t="shared" si="38"/>
+        <v>-2.6698000000000022</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="39"/>
+        <v>0.51600000000000534</v>
+      </c>
       <c r="M153">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>124.7766</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O153" s="22">
+        <f t="shared" si="41"/>
+        <v>-11.780746964134437</v>
+      </c>
+      <c r="P153" s="13">
+        <f t="shared" si="42"/>
+        <v>-0.58999999999999986</v>
+      </c>
+      <c r="Q153" s="17">
+        <f t="shared" si="43"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="R153" s="20">
+        <f t="shared" si="44"/>
+        <v>-0.10999999999999988</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45818</v>
       </c>
       <c r="C154">
@@ -9778,14 +11578,38 @@
         <f t="shared" si="21"/>
         <v>3.702513958377251E-3</v>
       </c>
+      <c r="J154">
+        <f t="shared" si="38"/>
+        <v>-0.84789999999999921</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="39"/>
+        <v>1.0169999999999959</v>
+      </c>
       <c r="M154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>124.9457</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O154" s="22">
+        <f t="shared" si="41"/>
+        <v>-4.2410691956023649</v>
+      </c>
+      <c r="P154" s="13">
+        <f t="shared" si="42"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="Q154" s="17">
+        <f t="shared" si="43"/>
+        <v>0.52000000000000046</v>
+      </c>
+      <c r="R154" s="20">
+        <f t="shared" si="44"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45819</v>
       </c>
       <c r="C155">
@@ -9807,14 +11631,38 @@
         <f t="shared" si="21"/>
         <v>3.0713264858153494E-3</v>
       </c>
+      <c r="J155">
+        <f t="shared" si="38"/>
+        <v>-3.2637</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="39"/>
+        <v>1.4009999999999962</v>
+      </c>
       <c r="M155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>123.083</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O155" s="22">
+        <f t="shared" si="41"/>
+        <v>-17.047537960897795</v>
+      </c>
+      <c r="P155" s="13">
+        <f t="shared" si="42"/>
+        <v>-1.0299999999999994</v>
+      </c>
+      <c r="Q155" s="17">
+        <f t="shared" si="43"/>
+        <v>0.30999999999999961</v>
+      </c>
+      <c r="R155" s="20">
+        <f t="shared" si="44"/>
+        <v>2.410000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45820</v>
       </c>
       <c r="C156">
@@ -9836,14 +11684,38 @@
         <f t="shared" si="21"/>
         <v>3.5233516350689363E-3</v>
       </c>
+      <c r="J156">
+        <f t="shared" si="38"/>
+        <v>2.337299999999999</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="39"/>
+        <v>1.777000000000001</v>
+      </c>
       <c r="M156">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>127.1973</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O156" s="22">
+        <f t="shared" si="41"/>
+        <v>14.717587053711977</v>
+      </c>
+      <c r="P156" s="13">
+        <f t="shared" si="42"/>
+        <v>1.8699999999999992</v>
+      </c>
+      <c r="Q156" s="17">
+        <f t="shared" si="43"/>
+        <v>1.25</v>
+      </c>
+      <c r="R156" s="20">
+        <f t="shared" si="44"/>
+        <v>3.8199999999999985</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45821</v>
       </c>
       <c r="C157">
@@ -9865,14 +11737,38 @@
         <f t="shared" si="21"/>
         <v>3.2285576698067777E-3</v>
       </c>
+      <c r="J157">
+        <f t="shared" si="38"/>
+        <v>-1.5243000000000002</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="39"/>
+        <v>2.4770000000000039</v>
+      </c>
       <c r="M157">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>128.15</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O157" s="22">
+        <f t="shared" si="41"/>
+        <v>-8.3668618916144855</v>
+      </c>
+      <c r="P157" s="13">
+        <f t="shared" si="42"/>
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="Q157" s="17">
+        <f t="shared" si="43"/>
+        <v>1.2200000000000006</v>
+      </c>
+      <c r="R157" s="20">
+        <f t="shared" si="44"/>
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45822</v>
       </c>
       <c r="C158">
@@ -9894,14 +11790,38 @@
         <f t="shared" si="21"/>
         <v>2.9983774051246153E-3</v>
       </c>
+      <c r="J158">
+        <f t="shared" si="38"/>
+        <v>-1.190199999999999</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="39"/>
+        <v>3.1569999999999965</v>
+      </c>
       <c r="M158">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>130.11680000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O158" s="22">
+        <f t="shared" si="41"/>
+        <v>-7.1295076075236441</v>
+      </c>
+      <c r="P158" s="13">
+        <f t="shared" si="42"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="Q158" s="17">
+        <f t="shared" si="43"/>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="R158" s="20">
+        <f t="shared" si="44"/>
+        <v>7.4400000000000013</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45823</v>
       </c>
       <c r="C159">
@@ -9923,14 +11843,38 @@
         <f t="shared" si="21"/>
         <v>2.6693329568552217E-3</v>
       </c>
+      <c r="J159">
+        <f t="shared" si="38"/>
+        <v>-1.7013999999999996</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="39"/>
+        <v>1.1389999999999958</v>
+      </c>
       <c r="M159">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>129.55439999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O159" s="22">
+        <f t="shared" si="41"/>
+        <v>-10.97408377301049</v>
+      </c>
+      <c r="P159" s="13">
+        <f t="shared" si="42"/>
+        <v>-0.28999999999999915</v>
+      </c>
+      <c r="Q159" s="17">
+        <f t="shared" si="43"/>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="R159" s="20">
+        <f t="shared" si="44"/>
+        <v>-17.579999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45824</v>
       </c>
       <c r="C160">
@@ -9952,14 +11896,38 @@
         <f t="shared" si="21"/>
         <v>2.4705602497132901E-3</v>
       </c>
+      <c r="J160">
+        <f t="shared" si="38"/>
+        <v>-1.0278000000000009</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="39"/>
+        <v>0.52400000000000091</v>
+      </c>
       <c r="M160">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>129.0506</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O160" s="22">
+        <f t="shared" si="41"/>
+        <v>-7.4465310380803391</v>
+      </c>
+      <c r="P160" s="13">
+        <f t="shared" si="42"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="Q160" s="17">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="R160" s="20">
+        <f t="shared" si="44"/>
+        <v>-4.7200000000000006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45825</v>
       </c>
       <c r="C161">
@@ -9981,14 +11949,38 @@
         <f t="shared" si="21"/>
         <v>2.2462398926263796E-3</v>
       </c>
+      <c r="J161">
+        <f t="shared" si="38"/>
+        <v>-1.1599000000000004</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="39"/>
+        <v>1.1830000000000069</v>
+      </c>
       <c r="M161">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>129.0737</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O161" s="22">
+        <f t="shared" si="41"/>
+        <v>-9.0797363518231542</v>
+      </c>
+      <c r="P161" s="13">
+        <f t="shared" si="42"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="Q161" s="17">
+        <f t="shared" si="43"/>
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="R161" s="20">
+        <f t="shared" si="44"/>
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45826</v>
       </c>
       <c r="C162">
@@ -10010,14 +12002,38 @@
         <f t="shared" si="21"/>
         <v>2.0174520812341777E-3</v>
       </c>
+      <c r="J162">
+        <f t="shared" si="38"/>
+        <v>-1.1829999999999998</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="39"/>
+        <v>0.98499999999999943</v>
+      </c>
       <c r="M162">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>128.87569999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O162" s="22">
+        <f t="shared" si="41"/>
+        <v>-10.185368541589545</v>
+      </c>
+      <c r="P162" s="13">
+        <f t="shared" si="42"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q162" s="17">
+        <f t="shared" si="43"/>
+        <v>-0.4399999999999995</v>
+      </c>
+      <c r="R162" s="20">
+        <f t="shared" si="44"/>
+        <v>-1.5499999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45827</v>
       </c>
       <c r="C163">
@@ -10039,14 +12055,38 @@
         <f t="shared" si="21"/>
         <v>1.7970905462091429E-3</v>
       </c>
+      <c r="J163">
+        <f t="shared" si="38"/>
+        <v>-1.1394299999999991</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="39"/>
+        <v>1.1529999999999916</v>
+      </c>
       <c r="M163">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>128.88926999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O163" s="22">
+        <f t="shared" si="41"/>
+        <v>-10.922764266610407</v>
+      </c>
+      <c r="P163" s="13">
+        <f t="shared" si="42"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Q163" s="17">
+        <f t="shared" si="43"/>
+        <v>-0.75999999999999979</v>
+      </c>
+      <c r="R163" s="20">
+        <f t="shared" si="44"/>
+        <v>1.2700000000000005</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45828</v>
       </c>
       <c r="C164">
@@ -10068,14 +12108,38 @@
         <f t="shared" si="21"/>
         <v>1.5834978813436401E-3</v>
       </c>
+      <c r="J164">
+        <f t="shared" si="38"/>
+        <v>-1.1044300000000007</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="39"/>
+        <v>0.56700000000000728</v>
+      </c>
       <c r="M164">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>128.35184000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O164" s="22">
+        <f t="shared" si="41"/>
+        <v>-11.885470396361718</v>
+      </c>
+      <c r="P164" s="13">
+        <f t="shared" si="42"/>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="Q164" s="17">
+        <f t="shared" si="43"/>
+        <v>-1.6300000000000008</v>
+      </c>
+      <c r="R164" s="20">
+        <f t="shared" si="44"/>
+        <v>-3.76</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45829</v>
       </c>
       <c r="C165">
@@ -10097,14 +12161,38 @@
         <f t="shared" si="21"/>
         <v>1.3629526198428463E-3</v>
       </c>
+      <c r="J165">
+        <f t="shared" si="38"/>
+        <v>-1.1403799999999995</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="39"/>
+        <v>3.2249999999999943</v>
+      </c>
       <c r="M165">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>130.43645999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O165" s="22">
+        <f t="shared" si="41"/>
+        <v>-13.927726970727317</v>
+      </c>
+      <c r="P165" s="13">
+        <f t="shared" si="42"/>
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="Q165" s="17">
+        <f t="shared" si="43"/>
+        <v>-0.34999999999999964</v>
+      </c>
+      <c r="R165" s="20">
+        <f t="shared" si="44"/>
+        <v>21.439999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45830</v>
       </c>
       <c r="C166">
@@ -10126,14 +12214,38 @@
         <f t="shared" si="21"/>
         <v>1.0229484038037184E-3</v>
       </c>
+      <c r="J166">
+        <f t="shared" si="38"/>
+        <v>-1.75807</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="39"/>
+        <v>0.89500000000001023</v>
+      </c>
       <c r="M166">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>129.57339000000002</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O166" s="22">
+        <f t="shared" si="41"/>
+        <v>-24.94615081178183</v>
+      </c>
+      <c r="P166" s="13">
+        <f t="shared" si="42"/>
+        <v>-0.62000000000000099</v>
+      </c>
+      <c r="Q166" s="17">
+        <f t="shared" si="43"/>
+        <v>-0.35999999999999943</v>
+      </c>
+      <c r="R166" s="20">
+        <f t="shared" si="44"/>
+        <v>-19.689999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45831</v>
       </c>
       <c r="C167">
@@ -10155,14 +12267,38 @@
         <f t="shared" si="21"/>
         <v>9.0478907233601448E-4</v>
       </c>
+      <c r="J167">
+        <f t="shared" si="38"/>
+        <v>-0.61097000000000001</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="39"/>
+        <v>1.958999999999989</v>
+      </c>
       <c r="M167">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>130.92141999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O167" s="22">
+        <f t="shared" si="41"/>
+        <v>-11.550859361854593</v>
+      </c>
+      <c r="P167" s="13">
+        <f t="shared" si="42"/>
+        <v>1.9800000000000004</v>
+      </c>
+      <c r="Q167" s="17">
+        <f t="shared" si="43"/>
+        <v>1.5599999999999987</v>
+      </c>
+      <c r="R167" s="20">
+        <f t="shared" si="44"/>
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45832</v>
       </c>
       <c r="C168">
@@ -10184,21 +12320,123 @@
         <f t="shared" si="21"/>
         <v>4.1124367352385452E-4</v>
       </c>
+      <c r="J168">
+        <f t="shared" si="38"/>
+        <v>-2.55199</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="39"/>
+        <v>1.1270000000000095</v>
+      </c>
       <c r="M168">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>129.49643</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O168" s="22">
+        <f t="shared" si="41"/>
+        <v>-54.548116671867852</v>
+      </c>
+      <c r="P168" s="13">
+        <f t="shared" si="42"/>
+        <v>-0.73000000000000043</v>
+      </c>
+      <c r="Q168" s="17">
+        <f t="shared" si="43"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="R168" s="20">
+        <f t="shared" si="44"/>
+        <v>-9.18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45833</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>1.49763</v>
+      </c>
+      <c r="D169">
+        <v>127.726</v>
+      </c>
+      <c r="E169">
+        <v>11.96</v>
+      </c>
+      <c r="F169">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="G169">
+        <v>4.24</v>
+      </c>
+      <c r="I169" s="9">
+        <f t="shared" si="21"/>
+        <v>2.8963608620059453E-4</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="38"/>
+        <v>-0.62880000000000003</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="39"/>
+        <v>0.35599999999999454</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="40"/>
+        <v>129.22362999999999</v>
+      </c>
+      <c r="O169" s="22">
+        <f t="shared" si="41"/>
+        <v>-29.570688901115961</v>
+      </c>
+      <c r="P169" s="13">
+        <f t="shared" si="42"/>
+        <v>0.76000000000000156</v>
+      </c>
+      <c r="Q169" s="17">
+        <f t="shared" si="43"/>
+        <v>-0.35000000000000142</v>
+      </c>
+      <c r="R169" s="20">
+        <f t="shared" si="44"/>
+        <v>-1.6600000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>45834</v>
+      </c>
+      <c r="D170">
+        <v>128.69</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="38"/>
+        <v>-1.49763</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="39"/>
+        <v>0.96399999999999864</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="40"/>
+        <v>128.69</v>
+      </c>
+      <c r="O170" s="22">
+        <f t="shared" si="41"/>
+        <v>-100</v>
+      </c>
+      <c r="P170" s="13">
+        <f t="shared" si="42"/>
+        <v>-11.96</v>
+      </c>
+      <c r="Q170" s="17">
+        <f t="shared" si="43"/>
+        <v>-10.119999999999999</v>
+      </c>
+      <c r="R170" s="20">
+        <f t="shared" si="44"/>
+        <v>-4.24</v>
       </c>
     </row>
   </sheetData>
